--- a/new_all_result.xlsx
+++ b/new_all_result.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="63">
   <si>
     <t>Glass1</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>WDBC</t>
+  </si>
+  <si>
+    <t>liver_disorders1</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +973,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1282,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J740"/>
+  <dimension ref="A1:J764"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="J738" sqref="J738"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="F764" sqref="F764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -19005,8 +19011,11 @@
       <c r="I717" s="5"/>
       <c r="J717" s="5"/>
     </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="21"/>
+    </row>
     <row r="720" spans="1:10">
-      <c r="A720" s="20" t="s">
+      <c r="A720" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B720" s="1" t="s">
@@ -19582,14 +19591,330 @@
       <c r="F740" s="5">
         <v>0.9604</v>
       </c>
-      <c r="G740" s="5">
+      <c r="G740" s="11">
         <v>0.9944</v>
       </c>
-      <c r="H740" s="7">
+      <c r="H740" s="10">
         <v>0.9927</v>
       </c>
       <c r="I740" s="5"/>
       <c r="J740" s="5"/>
+    </row>
+    <row r="744" spans="1:10">
+      <c r="A744" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G744" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H744" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I744" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J744" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10">
+      <c r="A745" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B745" s="17"/>
+      <c r="C745" s="17"/>
+      <c r="D745" s="17"/>
+      <c r="E745" s="17"/>
+      <c r="F745" s="17"/>
+      <c r="G745" s="17"/>
+      <c r="H745" s="17"/>
+      <c r="I745" s="17"/>
+      <c r="J745" s="17"/>
+    </row>
+    <row r="746" spans="1:10">
+      <c r="A746" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B746" s="17"/>
+      <c r="C746" s="17"/>
+      <c r="D746" s="17"/>
+      <c r="E746" s="17"/>
+      <c r="F746" s="17"/>
+      <c r="G746" s="17"/>
+      <c r="H746" s="17"/>
+      <c r="I746" s="17"/>
+      <c r="J746" s="17"/>
+    </row>
+    <row r="747" spans="1:10">
+      <c r="A747" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B747" s="17"/>
+      <c r="C747" s="17"/>
+      <c r="D747" s="17"/>
+      <c r="E747" s="17"/>
+      <c r="F747" s="17"/>
+      <c r="G747" s="17"/>
+      <c r="H747" s="17"/>
+      <c r="I747" s="17"/>
+      <c r="J747" s="17"/>
+    </row>
+    <row r="748" spans="1:10">
+      <c r="A748" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B748" s="17"/>
+      <c r="C748" s="17"/>
+      <c r="D748" s="17"/>
+      <c r="E748" s="17"/>
+      <c r="F748" s="17"/>
+      <c r="G748" s="17"/>
+      <c r="H748" s="17"/>
+      <c r="I748" s="17"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="1:10">
+      <c r="A749" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B749" s="17"/>
+      <c r="C749" s="17"/>
+      <c r="D749" s="17"/>
+      <c r="E749" s="17"/>
+      <c r="F749" s="17"/>
+      <c r="G749" s="17"/>
+      <c r="H749" s="17"/>
+      <c r="I749" s="17"/>
+      <c r="J749" s="17"/>
+    </row>
+    <row r="750" spans="1:10">
+      <c r="A750" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B750" s="17"/>
+      <c r="C750" s="17"/>
+      <c r="D750" s="17"/>
+      <c r="E750" s="17"/>
+      <c r="F750" s="17"/>
+      <c r="G750" s="17"/>
+      <c r="H750" s="17"/>
+      <c r="I750" s="17"/>
+      <c r="J750" s="17"/>
+    </row>
+    <row r="751" spans="1:10">
+      <c r="A751" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B751" s="17"/>
+      <c r="C751" s="17"/>
+      <c r="D751" s="17"/>
+      <c r="E751" s="17"/>
+      <c r="F751" s="17"/>
+      <c r="G751" s="17"/>
+      <c r="H751" s="17"/>
+      <c r="I751" s="17"/>
+      <c r="J751" s="17"/>
+    </row>
+    <row r="752" spans="1:10">
+      <c r="A752" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B752" s="17"/>
+      <c r="C752" s="17"/>
+      <c r="D752" s="17"/>
+      <c r="E752" s="17"/>
+      <c r="F752" s="17"/>
+      <c r="G752" s="17"/>
+      <c r="H752" s="17"/>
+      <c r="I752" s="17"/>
+      <c r="J752" s="17"/>
+    </row>
+    <row r="753" spans="1:10">
+      <c r="A753" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B753" s="17"/>
+      <c r="C753" s="17"/>
+      <c r="D753" s="17"/>
+      <c r="E753" s="17"/>
+      <c r="F753" s="17"/>
+      <c r="G753" s="17"/>
+      <c r="H753" s="17"/>
+      <c r="I753" s="17"/>
+      <c r="J753" s="17"/>
+    </row>
+    <row r="754" spans="1:10">
+      <c r="A754" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B754" s="17"/>
+      <c r="C754" s="17"/>
+      <c r="D754" s="17"/>
+      <c r="E754" s="17"/>
+      <c r="F754" s="17"/>
+      <c r="G754" s="17"/>
+      <c r="H754" s="17"/>
+      <c r="I754" s="17"/>
+      <c r="J754" s="17"/>
+    </row>
+    <row r="755" spans="1:10">
+      <c r="A755" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B755" s="17"/>
+      <c r="C755" s="17"/>
+      <c r="D755" s="17"/>
+      <c r="E755" s="17"/>
+      <c r="F755" s="17"/>
+      <c r="G755" s="17"/>
+      <c r="H755" s="17"/>
+      <c r="I755" s="17"/>
+      <c r="J755" s="17"/>
+    </row>
+    <row r="756" spans="1:10">
+      <c r="A756" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B756" s="17"/>
+      <c r="C756" s="17"/>
+      <c r="D756" s="17"/>
+      <c r="E756" s="17"/>
+      <c r="F756" s="17"/>
+      <c r="G756" s="17"/>
+      <c r="H756" s="17"/>
+      <c r="I756" s="17"/>
+      <c r="J756" s="17"/>
+    </row>
+    <row r="757" spans="1:10">
+      <c r="A757" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B757" s="17"/>
+      <c r="C757" s="17"/>
+      <c r="D757" s="17"/>
+      <c r="E757" s="17"/>
+      <c r="F757" s="17"/>
+      <c r="G757" s="17"/>
+      <c r="H757" s="17"/>
+      <c r="I757" s="17"/>
+      <c r="J757" s="17"/>
+    </row>
+    <row r="758" spans="1:10">
+      <c r="A758" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B758" s="17"/>
+      <c r="C758" s="17"/>
+      <c r="D758" s="17"/>
+      <c r="E758" s="17"/>
+      <c r="F758" s="17"/>
+      <c r="G758" s="17"/>
+      <c r="H758" s="17"/>
+      <c r="I758" s="17"/>
+      <c r="J758" s="17"/>
+    </row>
+    <row r="759" spans="1:10">
+      <c r="A759" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B759" s="17"/>
+      <c r="C759" s="17"/>
+      <c r="D759" s="17"/>
+      <c r="E759" s="17"/>
+      <c r="F759" s="17"/>
+      <c r="G759" s="17"/>
+      <c r="H759" s="17"/>
+      <c r="I759" s="17"/>
+      <c r="J759" s="17"/>
+    </row>
+    <row r="760" spans="1:10">
+      <c r="A760" s="5"/>
+      <c r="B760" s="7"/>
+      <c r="C760" s="7"/>
+      <c r="D760" s="7"/>
+      <c r="E760" s="7"/>
+      <c r="F760" s="7"/>
+      <c r="G760" s="7"/>
+      <c r="H760" s="7"/>
+      <c r="I760" s="7"/>
+      <c r="J760" s="7"/>
+    </row>
+    <row r="761" spans="1:10">
+      <c r="A761" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B761" s="7"/>
+      <c r="C761" s="7"/>
+      <c r="D761" s="7"/>
+      <c r="E761" s="7"/>
+      <c r="H761" s="7"/>
+      <c r="I761" s="7"/>
+      <c r="J761" s="7"/>
+    </row>
+    <row r="762" spans="1:10">
+      <c r="A762" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B762" s="5"/>
+      <c r="C762" s="5"/>
+      <c r="D762" s="5"/>
+      <c r="E762" s="5"/>
+      <c r="F762" s="5"/>
+      <c r="G762" s="5"/>
+      <c r="H762" s="5"/>
+      <c r="I762" s="5"/>
+      <c r="J762" s="5"/>
+    </row>
+    <row r="763" spans="1:10">
+      <c r="A763" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B763" s="5"/>
+      <c r="C763" s="5"/>
+      <c r="D763" s="5"/>
+      <c r="E763" s="5"/>
+      <c r="F763" s="5"/>
+      <c r="G763" s="5"/>
+      <c r="H763" s="5"/>
+      <c r="I763" s="5"/>
+      <c r="J763" s="5"/>
+    </row>
+    <row r="764" spans="1:10">
+      <c r="A764" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B764" s="5"/>
+      <c r="C764"/>
+      <c r="D764"/>
+      <c r="E764" s="7">
+        <v>0.4916</v>
+      </c>
+      <c r="F764" s="5">
+        <v>0.3524</v>
+      </c>
+      <c r="G764" s="11">
+        <v>0.6212</v>
+      </c>
+      <c r="H764" s="10">
+        <v>0.4205</v>
+      </c>
+      <c r="I764" s="5"/>
+      <c r="J764" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_all_result.xlsx
+++ b/new_all_result.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="63">
   <si>
     <t>Glass1</t>
   </si>
@@ -1288,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J764"/>
+  <dimension ref="A1:J1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="F764" sqref="F764"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A1059" workbookViewId="0">
+      <selection activeCell="K1057" sqref="K1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -19601,7 +19601,7 @@
       <c r="J740" s="5"/>
     </row>
     <row r="744" spans="1:10">
-      <c r="A744" s="19" t="s">
+      <c r="A744" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B744" s="1" t="s">
@@ -19636,211 +19636,481 @@
       <c r="A745" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B745" s="17"/>
-      <c r="C745" s="17"/>
-      <c r="D745" s="17"/>
-      <c r="E745" s="17"/>
-      <c r="F745" s="17"/>
-      <c r="G745" s="17"/>
-      <c r="H745" s="17"/>
-      <c r="I745" s="17"/>
-      <c r="J745" s="17"/>
+      <c r="B745" s="17">
+        <v>0.5855</v>
+      </c>
+      <c r="C745" s="17">
+        <v>0.4065</v>
+      </c>
+      <c r="D745" s="17">
+        <v>0.6667</v>
+      </c>
+      <c r="E745" s="17">
+        <v>0.5327</v>
+      </c>
+      <c r="F745" s="17">
+        <v>0.5166</v>
+      </c>
+      <c r="G745" s="17">
+        <v>0.5724</v>
+      </c>
+      <c r="H745" s="17">
+        <v>0.392</v>
+      </c>
+      <c r="I745" s="17">
+        <v>0.5339</v>
+      </c>
+      <c r="J745" s="17">
+        <v>0.5366</v>
+      </c>
     </row>
     <row r="746" spans="1:10">
       <c r="A746" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B746" s="17"/>
-      <c r="C746" s="17"/>
-      <c r="D746" s="17"/>
-      <c r="E746" s="17"/>
-      <c r="F746" s="17"/>
-      <c r="G746" s="17"/>
-      <c r="H746" s="17"/>
-      <c r="I746" s="17"/>
-      <c r="J746" s="17"/>
+      <c r="B746" s="17">
+        <v>0.5971</v>
+      </c>
+      <c r="C746" s="17">
+        <v>0.3606</v>
+      </c>
+      <c r="D746" s="17">
+        <v>0.7048</v>
+      </c>
+      <c r="E746" s="17">
+        <v>0.5323</v>
+      </c>
+      <c r="F746" s="17">
+        <v>0.5026</v>
+      </c>
+      <c r="G746" s="17">
+        <v>0.5667</v>
+      </c>
+      <c r="H746" s="17">
+        <v>0.3893</v>
+      </c>
+      <c r="I746" s="17">
+        <v>0.5345</v>
+      </c>
+      <c r="J746" s="17">
+        <v>0.5327</v>
+      </c>
     </row>
     <row r="747" spans="1:10">
       <c r="A747" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B747" s="17"/>
-      <c r="C747" s="17"/>
-      <c r="D747" s="17"/>
-      <c r="E747" s="17"/>
-      <c r="F747" s="17"/>
-      <c r="G747" s="17"/>
-      <c r="H747" s="17"/>
-      <c r="I747" s="17"/>
-      <c r="J747" s="17"/>
+      <c r="B747" s="17">
+        <v>0.6058</v>
+      </c>
+      <c r="C747" s="17">
+        <v>0.471</v>
+      </c>
+      <c r="D747" s="17">
+        <v>0.6666</v>
+      </c>
+      <c r="E747" s="17">
+        <v>0.5618</v>
+      </c>
+      <c r="F747" s="17">
+        <v>0.5562</v>
+      </c>
+      <c r="G747" s="17">
+        <v>0.5884</v>
+      </c>
+      <c r="H747" s="17">
+        <v>0.393</v>
+      </c>
+      <c r="I747" s="17">
+        <v>0.5632</v>
+      </c>
+      <c r="J747" s="17">
+        <v>0.5688</v>
+      </c>
     </row>
     <row r="748" spans="1:10">
       <c r="A748" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B748" s="17"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="17"/>
-      <c r="E748" s="17"/>
-      <c r="F748" s="17"/>
-      <c r="G748" s="17"/>
-      <c r="H748" s="17"/>
-      <c r="I748" s="17"/>
-      <c r="J748" s="17"/>
+      <c r="B748" s="17">
+        <v>0.6087</v>
+      </c>
+      <c r="C748" s="17">
+        <v>0.5364</v>
+      </c>
+      <c r="D748" s="17">
+        <v>0.6414</v>
+      </c>
+      <c r="E748" s="17">
+        <v>0.5765</v>
+      </c>
+      <c r="F748" s="17">
+        <v>0.5851</v>
+      </c>
+      <c r="G748" s="17">
+        <v>0.6158</v>
+      </c>
+      <c r="H748" s="17">
+        <v>0.4508</v>
+      </c>
+      <c r="I748" s="17">
+        <v>0.5788</v>
+      </c>
+      <c r="J748" s="17">
+        <v>0.5889</v>
+      </c>
     </row>
     <row r="749" spans="1:10">
       <c r="A749" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B749" s="17"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="17"/>
-      <c r="E749" s="17"/>
-      <c r="F749" s="17"/>
-      <c r="G749" s="17"/>
-      <c r="H749" s="17"/>
-      <c r="I749" s="17"/>
-      <c r="J749" s="17"/>
+      <c r="B749" s="17">
+        <v>0.5362</v>
+      </c>
+      <c r="C749" s="17">
+        <v>0.4558</v>
+      </c>
+      <c r="D749" s="17">
+        <v>0.5741</v>
+      </c>
+      <c r="E749" s="17">
+        <v>0.4966</v>
+      </c>
+      <c r="F749" s="17">
+        <v>0.4913</v>
+      </c>
+      <c r="G749" s="17">
+        <v>0.535</v>
+      </c>
+      <c r="H749" s="17">
+        <v>0.3408</v>
+      </c>
+      <c r="I749" s="17">
+        <v>0.5103</v>
+      </c>
+      <c r="J749" s="17">
+        <v>0.515</v>
+      </c>
     </row>
     <row r="750" spans="1:10">
       <c r="A750" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B750" s="17"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="17"/>
-      <c r="E750" s="17"/>
-      <c r="F750" s="17"/>
-      <c r="G750" s="17"/>
-      <c r="H750" s="17"/>
-      <c r="I750" s="17"/>
-      <c r="J750" s="17"/>
+      <c r="B750" s="17">
+        <v>0.5942</v>
+      </c>
+      <c r="C750" s="17">
+        <v>0.5364</v>
+      </c>
+      <c r="D750" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="E750" s="17">
+        <v>0.5632</v>
+      </c>
+      <c r="F750" s="17">
+        <v>0.5727</v>
+      </c>
+      <c r="G750" s="17">
+        <v>0.5811</v>
+      </c>
+      <c r="H750" s="17">
+        <v>0.3953</v>
+      </c>
+      <c r="I750" s="17">
+        <v>0.5695</v>
+      </c>
+      <c r="J750" s="17">
+        <v>0.5782</v>
+      </c>
     </row>
     <row r="751" spans="1:10">
       <c r="A751" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B751" s="17"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="17"/>
-      <c r="E751" s="17"/>
-      <c r="F751" s="17"/>
-      <c r="G751" s="17"/>
-      <c r="H751" s="17"/>
-      <c r="I751" s="17"/>
-      <c r="J751" s="17"/>
+      <c r="B751" s="17">
+        <v>0.5739</v>
+      </c>
+      <c r="C751" s="17">
+        <v>0.4346</v>
+      </c>
+      <c r="D751" s="17">
+        <v>0.6367</v>
+      </c>
+      <c r="E751" s="17">
+        <v>0.5292</v>
+      </c>
+      <c r="F751" s="17">
+        <v>0.5217</v>
+      </c>
+      <c r="G751" s="17">
+        <v>0.5683</v>
+      </c>
+      <c r="H751" s="17">
+        <v>0.4057</v>
+      </c>
+      <c r="I751" s="17">
+        <v>0.5318</v>
+      </c>
+      <c r="J751" s="17">
+        <v>0.5357</v>
+      </c>
     </row>
     <row r="752" spans="1:10">
       <c r="A752" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B752" s="17"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="17"/>
-      <c r="E752" s="17"/>
-      <c r="F752" s="17"/>
-      <c r="G752" s="17"/>
-      <c r="H752" s="17"/>
-      <c r="I752" s="17"/>
-      <c r="J752" s="17"/>
+      <c r="B752" s="17">
+        <v>0.5884</v>
+      </c>
+      <c r="C752" s="17">
+        <v>0.4342</v>
+      </c>
+      <c r="D752" s="17">
+        <v>0.658</v>
+      </c>
+      <c r="E752" s="17">
+        <v>0.5404</v>
+      </c>
+      <c r="F752" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="G752" s="17">
+        <v>0.5673</v>
+      </c>
+      <c r="H752" s="17">
+        <v>0.4261</v>
+      </c>
+      <c r="I752" s="17">
+        <v>0.5419</v>
+      </c>
+      <c r="J752" s="17">
+        <v>0.5461</v>
+      </c>
     </row>
     <row r="753" spans="1:10">
       <c r="A753" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B753" s="17"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="17"/>
-      <c r="E753" s="17"/>
-      <c r="F753" s="17"/>
-      <c r="G753" s="17"/>
-      <c r="H753" s="17"/>
-      <c r="I753" s="17"/>
-      <c r="J753" s="17"/>
+      <c r="B753" s="17">
+        <v>0.6116</v>
+      </c>
+      <c r="C753" s="17">
+        <v>0.3251</v>
+      </c>
+      <c r="D753" s="17">
+        <v>0.7425</v>
+      </c>
+      <c r="E753" s="17">
+        <v>0.5324</v>
+      </c>
+      <c r="F753" s="17">
+        <v>0.4851</v>
+      </c>
+      <c r="G753" s="17">
+        <v>0.5579</v>
+      </c>
+      <c r="H753" s="17">
+        <v>0.4072</v>
+      </c>
+      <c r="I753" s="17">
+        <v>0.5357</v>
+      </c>
+      <c r="J753" s="17">
+        <v>0.5338</v>
+      </c>
     </row>
     <row r="754" spans="1:10">
       <c r="A754" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B754" s="17"/>
-      <c r="C754" s="17"/>
-      <c r="D754" s="17"/>
-      <c r="E754" s="17"/>
-      <c r="F754" s="17"/>
-      <c r="G754" s="17"/>
-      <c r="H754" s="17"/>
-      <c r="I754" s="17"/>
-      <c r="J754" s="17"/>
+      <c r="B754" s="17">
+        <v>0.6725</v>
+      </c>
+      <c r="C754" s="17">
+        <v>0.1026</v>
+      </c>
+      <c r="D754" s="17">
+        <v>0.9321</v>
+      </c>
+      <c r="E754" s="17">
+        <v>0.4788</v>
+      </c>
+      <c r="F754" s="17">
+        <v>0.2972</v>
+      </c>
+      <c r="G754" s="17">
+        <v>0.6204</v>
+      </c>
+      <c r="H754" s="17">
+        <v>0.4409</v>
+      </c>
+      <c r="I754" s="17">
+        <v>0.5878</v>
+      </c>
+      <c r="J754" s="17">
+        <v>0.5173</v>
+      </c>
     </row>
     <row r="755" spans="1:10">
       <c r="A755" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B755" s="17"/>
-      <c r="C755" s="17"/>
-      <c r="D755" s="17"/>
-      <c r="E755" s="17"/>
-      <c r="F755" s="17"/>
-      <c r="G755" s="17"/>
-      <c r="H755" s="17"/>
-      <c r="I755" s="17"/>
-      <c r="J755" s="17"/>
+      <c r="B755" s="17">
+        <v>0.6029</v>
+      </c>
+      <c r="C755" s="17">
+        <v>0.4541</v>
+      </c>
+      <c r="D755" s="17">
+        <v>0.6707</v>
+      </c>
+      <c r="E755" s="17">
+        <v>0.5568</v>
+      </c>
+      <c r="F755" s="17">
+        <v>0.5488</v>
+      </c>
+      <c r="G755" s="17">
+        <v>0.5701</v>
+      </c>
+      <c r="H755" s="17">
+        <v>0.4023</v>
+      </c>
+      <c r="I755" s="17">
+        <v>0.5575</v>
+      </c>
+      <c r="J755" s="17">
+        <v>0.5624</v>
+      </c>
     </row>
     <row r="756" spans="1:10">
       <c r="A756" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B756" s="17"/>
-      <c r="C756" s="17"/>
-      <c r="D756" s="17"/>
-      <c r="E756" s="17"/>
-      <c r="F756" s="17"/>
-      <c r="G756" s="17"/>
-      <c r="H756" s="17"/>
-      <c r="I756" s="17"/>
-      <c r="J756" s="17"/>
+      <c r="B756" s="17">
+        <v>0.6493</v>
+      </c>
+      <c r="C756" s="17">
+        <v>0.2039</v>
+      </c>
+      <c r="D756" s="17">
+        <v>0.852</v>
+      </c>
+      <c r="E756" s="17">
+        <v>0.5188</v>
+      </c>
+      <c r="F756" s="17">
+        <v>0.4164</v>
+      </c>
+      <c r="G756" s="17">
+        <v>0.5705</v>
+      </c>
+      <c r="H756" s="17">
+        <v>0.3873</v>
+      </c>
+      <c r="I756" s="17">
+        <v>0.5502</v>
+      </c>
+      <c r="J756" s="17">
+        <v>0.5279</v>
+      </c>
     </row>
     <row r="757" spans="1:10">
       <c r="A757" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B757" s="17"/>
-      <c r="C757" s="17"/>
-      <c r="D757" s="17"/>
-      <c r="E757" s="17"/>
-      <c r="F757" s="17"/>
-      <c r="G757" s="17"/>
-      <c r="H757" s="17"/>
-      <c r="I757" s="17"/>
-      <c r="J757" s="17"/>
+      <c r="B757" s="17">
+        <v>0.5739</v>
+      </c>
+      <c r="C757" s="17">
+        <v>0.4264</v>
+      </c>
+      <c r="D757" s="17">
+        <v>0.641</v>
+      </c>
+      <c r="E757" s="17">
+        <v>0.5266</v>
+      </c>
+      <c r="F757" s="17">
+        <v>0.5162</v>
+      </c>
+      <c r="G757" s="17">
+        <v>0.55</v>
+      </c>
+      <c r="H757" s="17">
+        <v>0.3862</v>
+      </c>
+      <c r="I757" s="17">
+        <v>0.5299</v>
+      </c>
+      <c r="J757" s="17">
+        <v>0.5337</v>
+      </c>
     </row>
     <row r="758" spans="1:10">
       <c r="A758" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B758" s="17"/>
-      <c r="C758" s="17"/>
-      <c r="D758" s="17"/>
-      <c r="E758" s="17"/>
-      <c r="F758" s="17"/>
-      <c r="G758" s="17"/>
-      <c r="H758" s="17"/>
-      <c r="I758" s="17"/>
-      <c r="J758" s="17"/>
+      <c r="B758" s="17">
+        <v>0.6435</v>
+      </c>
+      <c r="C758" s="17">
+        <v>0.2593</v>
+      </c>
+      <c r="D758" s="17">
+        <v>0.8185</v>
+      </c>
+      <c r="E758" s="17">
+        <v>0.5351</v>
+      </c>
+      <c r="F758" s="17">
+        <v>0.4582</v>
+      </c>
+      <c r="G758" s="17">
+        <v>0.5804</v>
+      </c>
+      <c r="H758" s="17">
+        <v>0.3905</v>
+      </c>
+      <c r="I758" s="17">
+        <v>0.5509</v>
+      </c>
+      <c r="J758" s="17">
+        <v>0.5389</v>
+      </c>
     </row>
     <row r="759" spans="1:10">
       <c r="A759" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B759" s="17"/>
-      <c r="C759" s="17"/>
-      <c r="D759" s="17"/>
-      <c r="E759" s="17"/>
-      <c r="F759" s="17"/>
-      <c r="G759" s="17"/>
-      <c r="H759" s="17"/>
-      <c r="I759" s="17"/>
-      <c r="J759" s="17"/>
+      <c r="B759" s="17">
+        <v>0.6029</v>
+      </c>
+      <c r="C759" s="17">
+        <v>0.4442</v>
+      </c>
+      <c r="D759" s="17">
+        <v>0.6743</v>
+      </c>
+      <c r="E759" s="17">
+        <v>0.5554</v>
+      </c>
+      <c r="F759" s="17">
+        <v>0.5446</v>
+      </c>
+      <c r="G759" s="17">
+        <v>0.5896</v>
+      </c>
+      <c r="H759" s="17">
+        <v>0.4634</v>
+      </c>
+      <c r="I759" s="17">
+        <v>0.5594</v>
+      </c>
+      <c r="J759" s="17">
+        <v>0.5592</v>
+      </c>
     </row>
     <row r="760" spans="1:10">
       <c r="A760" s="5"/>
@@ -19915,6 +20185,4290 @@
       </c>
       <c r="I764" s="5"/>
       <c r="J764" s="5"/>
+    </row>
+    <row r="767" spans="1:10">
+      <c r="A767" s="20"/>
+      <c r="B767" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G767" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H767" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I767" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J767" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10">
+      <c r="A768" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B768" s="17"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="17"/>
+      <c r="E768" s="17"/>
+      <c r="F768" s="17"/>
+      <c r="G768" s="17"/>
+      <c r="H768" s="17"/>
+      <c r="I768" s="17"/>
+      <c r="J768" s="17"/>
+    </row>
+    <row r="769" spans="1:10">
+      <c r="A769" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B769" s="17"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="17"/>
+      <c r="E769" s="17"/>
+      <c r="F769" s="17"/>
+      <c r="G769" s="17"/>
+      <c r="H769" s="17"/>
+      <c r="I769" s="17"/>
+      <c r="J769" s="17"/>
+    </row>
+    <row r="770" spans="1:10">
+      <c r="A770" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B770" s="17"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="17"/>
+      <c r="E770" s="17"/>
+      <c r="F770" s="17"/>
+      <c r="G770" s="17"/>
+      <c r="H770" s="17"/>
+      <c r="I770" s="17"/>
+      <c r="J770" s="17"/>
+    </row>
+    <row r="771" spans="1:10">
+      <c r="A771" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B771" s="17"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="17"/>
+      <c r="E771" s="17"/>
+      <c r="F771" s="17"/>
+      <c r="G771" s="17"/>
+      <c r="H771" s="17"/>
+      <c r="I771" s="17"/>
+      <c r="J771" s="17"/>
+    </row>
+    <row r="772" spans="1:10">
+      <c r="A772" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B772" s="17"/>
+      <c r="C772" s="17"/>
+      <c r="D772" s="17"/>
+      <c r="E772" s="17"/>
+      <c r="F772" s="17"/>
+      <c r="G772" s="17"/>
+      <c r="H772" s="17"/>
+      <c r="I772" s="17"/>
+      <c r="J772" s="17"/>
+    </row>
+    <row r="773" spans="1:10">
+      <c r="A773" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B773" s="17"/>
+      <c r="C773" s="17"/>
+      <c r="D773" s="17"/>
+      <c r="E773" s="17"/>
+      <c r="F773" s="17"/>
+      <c r="G773" s="17"/>
+      <c r="H773" s="17"/>
+      <c r="I773" s="17"/>
+      <c r="J773" s="17"/>
+    </row>
+    <row r="774" spans="1:10">
+      <c r="A774" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B774" s="17"/>
+      <c r="C774" s="17"/>
+      <c r="D774" s="17"/>
+      <c r="E774" s="17"/>
+      <c r="F774" s="17"/>
+      <c r="G774" s="17"/>
+      <c r="H774" s="17"/>
+      <c r="I774" s="17"/>
+      <c r="J774" s="17"/>
+    </row>
+    <row r="775" spans="1:10">
+      <c r="A775" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B775" s="17"/>
+      <c r="C775" s="17"/>
+      <c r="D775" s="17"/>
+      <c r="E775" s="17"/>
+      <c r="F775" s="17"/>
+      <c r="G775" s="17"/>
+      <c r="H775" s="17"/>
+      <c r="I775" s="17"/>
+      <c r="J775" s="17"/>
+    </row>
+    <row r="776" spans="1:10">
+      <c r="A776" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B776" s="17"/>
+      <c r="C776" s="17"/>
+      <c r="D776" s="17"/>
+      <c r="E776" s="17"/>
+      <c r="F776" s="17"/>
+      <c r="G776" s="17"/>
+      <c r="H776" s="17"/>
+      <c r="I776" s="17"/>
+      <c r="J776" s="17"/>
+    </row>
+    <row r="777" spans="1:10">
+      <c r="A777" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B777" s="17"/>
+      <c r="C777" s="17"/>
+      <c r="D777" s="17"/>
+      <c r="E777" s="17"/>
+      <c r="F777" s="17"/>
+      <c r="G777" s="17"/>
+      <c r="H777" s="17"/>
+      <c r="I777" s="17"/>
+      <c r="J777" s="17"/>
+    </row>
+    <row r="778" spans="1:10">
+      <c r="A778" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B778" s="17"/>
+      <c r="C778" s="17"/>
+      <c r="D778" s="17"/>
+      <c r="E778" s="17"/>
+      <c r="F778" s="17"/>
+      <c r="G778" s="17"/>
+      <c r="H778" s="17"/>
+      <c r="I778" s="17"/>
+      <c r="J778" s="17"/>
+    </row>
+    <row r="779" spans="1:10">
+      <c r="A779" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B779" s="17"/>
+      <c r="C779" s="17"/>
+      <c r="D779" s="17"/>
+      <c r="E779" s="17"/>
+      <c r="F779" s="17"/>
+      <c r="G779" s="17"/>
+      <c r="H779" s="17"/>
+      <c r="I779" s="17"/>
+      <c r="J779" s="17"/>
+    </row>
+    <row r="780" spans="1:10">
+      <c r="A780" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B780" s="17"/>
+      <c r="C780" s="17"/>
+      <c r="D780" s="17"/>
+      <c r="E780" s="17"/>
+      <c r="F780" s="17"/>
+      <c r="G780" s="17"/>
+      <c r="H780" s="17"/>
+      <c r="I780" s="17"/>
+      <c r="J780" s="17"/>
+    </row>
+    <row r="781" spans="1:10">
+      <c r="A781" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B781" s="17"/>
+      <c r="C781" s="17"/>
+      <c r="D781" s="17"/>
+      <c r="E781" s="17"/>
+      <c r="F781" s="17"/>
+      <c r="G781" s="17"/>
+      <c r="H781" s="17"/>
+      <c r="I781" s="17"/>
+      <c r="J781" s="17"/>
+    </row>
+    <row r="782" spans="1:10">
+      <c r="A782" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B782" s="17"/>
+      <c r="C782" s="17"/>
+      <c r="D782" s="17"/>
+      <c r="E782" s="17"/>
+      <c r="F782" s="17"/>
+      <c r="G782" s="17"/>
+      <c r="H782" s="17"/>
+      <c r="I782" s="17"/>
+      <c r="J782" s="17"/>
+    </row>
+    <row r="783" spans="1:10">
+      <c r="A783" s="5"/>
+      <c r="B783" s="7"/>
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+      <c r="E783" s="7"/>
+      <c r="F783" s="7"/>
+      <c r="G783" s="7"/>
+      <c r="H783" s="7"/>
+      <c r="I783" s="7"/>
+      <c r="J783" s="7"/>
+    </row>
+    <row r="784" spans="1:10">
+      <c r="A784" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B784" s="7"/>
+      <c r="C784" s="7"/>
+      <c r="D784" s="7"/>
+      <c r="E784" s="7"/>
+      <c r="H784" s="7"/>
+      <c r="I784" s="7"/>
+      <c r="J784" s="7"/>
+    </row>
+    <row r="785" spans="1:10">
+      <c r="A785" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B785" s="5"/>
+      <c r="C785" s="5"/>
+      <c r="D785" s="5"/>
+      <c r="E785" s="5"/>
+      <c r="F785" s="5"/>
+      <c r="G785" s="5"/>
+      <c r="H785" s="5"/>
+      <c r="I785" s="5"/>
+      <c r="J785" s="5"/>
+    </row>
+    <row r="786" spans="1:10">
+      <c r="A786" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B786" s="5"/>
+      <c r="C786" s="5"/>
+      <c r="D786" s="5"/>
+      <c r="E786" s="5"/>
+      <c r="F786" s="5"/>
+      <c r="G786" s="5"/>
+      <c r="H786" s="5"/>
+      <c r="I786" s="5"/>
+      <c r="J786" s="5"/>
+    </row>
+    <row r="787" spans="1:10">
+      <c r="A787" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B787" s="5"/>
+      <c r="C787"/>
+      <c r="D787"/>
+      <c r="E787" s="7"/>
+      <c r="F787" s="5"/>
+      <c r="G787" s="11"/>
+      <c r="H787" s="10"/>
+      <c r="I787" s="5"/>
+      <c r="J787" s="5"/>
+    </row>
+    <row r="790" spans="1:10">
+      <c r="A790" s="20"/>
+      <c r="B790" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G790" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H790" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I790" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J790" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10">
+      <c r="A791" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B791" s="17"/>
+      <c r="C791" s="17"/>
+      <c r="D791" s="17"/>
+      <c r="E791" s="17"/>
+      <c r="F791" s="17"/>
+      <c r="G791" s="17"/>
+      <c r="H791" s="17"/>
+      <c r="I791" s="17"/>
+      <c r="J791" s="17"/>
+    </row>
+    <row r="792" spans="1:10">
+      <c r="A792" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B792" s="17"/>
+      <c r="C792" s="17"/>
+      <c r="D792" s="17"/>
+      <c r="E792" s="17"/>
+      <c r="F792" s="17"/>
+      <c r="G792" s="17"/>
+      <c r="H792" s="17"/>
+      <c r="I792" s="17"/>
+      <c r="J792" s="17"/>
+    </row>
+    <row r="793" spans="1:10">
+      <c r="A793" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B793" s="17"/>
+      <c r="C793" s="17"/>
+      <c r="D793" s="17"/>
+      <c r="E793" s="17"/>
+      <c r="F793" s="17"/>
+      <c r="G793" s="17"/>
+      <c r="H793" s="17"/>
+      <c r="I793" s="17"/>
+      <c r="J793" s="17"/>
+    </row>
+    <row r="794" spans="1:10">
+      <c r="A794" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B794" s="17"/>
+      <c r="C794" s="17"/>
+      <c r="D794" s="17"/>
+      <c r="E794" s="17"/>
+      <c r="F794" s="17"/>
+      <c r="G794" s="17"/>
+      <c r="H794" s="17"/>
+      <c r="I794" s="17"/>
+      <c r="J794" s="17"/>
+    </row>
+    <row r="795" spans="1:10">
+      <c r="A795" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B795" s="17"/>
+      <c r="C795" s="17"/>
+      <c r="D795" s="17"/>
+      <c r="E795" s="17"/>
+      <c r="F795" s="17"/>
+      <c r="G795" s="17"/>
+      <c r="H795" s="17"/>
+      <c r="I795" s="17"/>
+      <c r="J795" s="17"/>
+    </row>
+    <row r="796" spans="1:10">
+      <c r="A796" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B796" s="17"/>
+      <c r="C796" s="17"/>
+      <c r="D796" s="17"/>
+      <c r="E796" s="17"/>
+      <c r="F796" s="17"/>
+      <c r="G796" s="17"/>
+      <c r="H796" s="17"/>
+      <c r="I796" s="17"/>
+      <c r="J796" s="17"/>
+    </row>
+    <row r="797" spans="1:10">
+      <c r="A797" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B797" s="17"/>
+      <c r="C797" s="17"/>
+      <c r="D797" s="17"/>
+      <c r="E797" s="17"/>
+      <c r="F797" s="17"/>
+      <c r="G797" s="17"/>
+      <c r="H797" s="17"/>
+      <c r="I797" s="17"/>
+      <c r="J797" s="17"/>
+    </row>
+    <row r="798" spans="1:10">
+      <c r="A798" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B798" s="17"/>
+      <c r="C798" s="17"/>
+      <c r="D798" s="17"/>
+      <c r="E798" s="17"/>
+      <c r="F798" s="17"/>
+      <c r="G798" s="17"/>
+      <c r="H798" s="17"/>
+      <c r="I798" s="17"/>
+      <c r="J798" s="17"/>
+    </row>
+    <row r="799" spans="1:10">
+      <c r="A799" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B799" s="17"/>
+      <c r="C799" s="17"/>
+      <c r="D799" s="17"/>
+      <c r="E799" s="17"/>
+      <c r="F799" s="17"/>
+      <c r="G799" s="17"/>
+      <c r="H799" s="17"/>
+      <c r="I799" s="17"/>
+      <c r="J799" s="17"/>
+    </row>
+    <row r="800" spans="1:10">
+      <c r="A800" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B800" s="17"/>
+      <c r="C800" s="17"/>
+      <c r="D800" s="17"/>
+      <c r="E800" s="17"/>
+      <c r="F800" s="17"/>
+      <c r="G800" s="17"/>
+      <c r="H800" s="17"/>
+      <c r="I800" s="17"/>
+      <c r="J800" s="17"/>
+    </row>
+    <row r="801" spans="1:10">
+      <c r="A801" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B801" s="17"/>
+      <c r="C801" s="17"/>
+      <c r="D801" s="17"/>
+      <c r="E801" s="17"/>
+      <c r="F801" s="17"/>
+      <c r="G801" s="17"/>
+      <c r="H801" s="17"/>
+      <c r="I801" s="17"/>
+      <c r="J801" s="17"/>
+    </row>
+    <row r="802" spans="1:10">
+      <c r="A802" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B802" s="17"/>
+      <c r="C802" s="17"/>
+      <c r="D802" s="17"/>
+      <c r="E802" s="17"/>
+      <c r="F802" s="17"/>
+      <c r="G802" s="17"/>
+      <c r="H802" s="17"/>
+      <c r="I802" s="17"/>
+      <c r="J802" s="17"/>
+    </row>
+    <row r="803" spans="1:10">
+      <c r="A803" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B803" s="17"/>
+      <c r="C803" s="17"/>
+      <c r="D803" s="17"/>
+      <c r="E803" s="17"/>
+      <c r="F803" s="17"/>
+      <c r="G803" s="17"/>
+      <c r="H803" s="17"/>
+      <c r="I803" s="17"/>
+      <c r="J803" s="17"/>
+    </row>
+    <row r="804" spans="1:10">
+      <c r="A804" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B804" s="17"/>
+      <c r="C804" s="17"/>
+      <c r="D804" s="17"/>
+      <c r="E804" s="17"/>
+      <c r="F804" s="17"/>
+      <c r="G804" s="17"/>
+      <c r="H804" s="17"/>
+      <c r="I804" s="17"/>
+      <c r="J804" s="17"/>
+    </row>
+    <row r="805" spans="1:10">
+      <c r="A805" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B805" s="17"/>
+      <c r="C805" s="17"/>
+      <c r="D805" s="17"/>
+      <c r="E805" s="17"/>
+      <c r="F805" s="17"/>
+      <c r="G805" s="17"/>
+      <c r="H805" s="17"/>
+      <c r="I805" s="17"/>
+      <c r="J805" s="17"/>
+    </row>
+    <row r="806" spans="1:10">
+      <c r="A806" s="5"/>
+      <c r="B806" s="7"/>
+      <c r="C806" s="7"/>
+      <c r="D806" s="7"/>
+      <c r="E806" s="7"/>
+      <c r="F806" s="7"/>
+      <c r="G806" s="7"/>
+      <c r="H806" s="7"/>
+      <c r="I806" s="7"/>
+      <c r="J806" s="7"/>
+    </row>
+    <row r="807" spans="1:10">
+      <c r="A807" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B807" s="7"/>
+      <c r="C807" s="7"/>
+      <c r="D807" s="7"/>
+      <c r="E807" s="7"/>
+      <c r="H807" s="7"/>
+      <c r="I807" s="7"/>
+      <c r="J807" s="7"/>
+    </row>
+    <row r="808" spans="1:10">
+      <c r="A808" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B808" s="5"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="5"/>
+      <c r="E808" s="5"/>
+      <c r="F808" s="5"/>
+      <c r="G808" s="5"/>
+      <c r="H808" s="5"/>
+      <c r="I808" s="5"/>
+      <c r="J808" s="5"/>
+    </row>
+    <row r="809" spans="1:10">
+      <c r="A809" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B809" s="5"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="5"/>
+      <c r="E809" s="5"/>
+      <c r="F809" s="5"/>
+      <c r="G809" s="5"/>
+      <c r="H809" s="5"/>
+      <c r="I809" s="5"/>
+      <c r="J809" s="5"/>
+    </row>
+    <row r="810" spans="1:10">
+      <c r="A810" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B810" s="5"/>
+      <c r="C810"/>
+      <c r="D810"/>
+      <c r="E810" s="7"/>
+      <c r="F810" s="5"/>
+      <c r="G810" s="11"/>
+      <c r="H810" s="10"/>
+      <c r="I810" s="5"/>
+      <c r="J810" s="5"/>
+    </row>
+    <row r="813" spans="1:10">
+      <c r="A813" s="20"/>
+      <c r="B813" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G813" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H813" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I813" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J813" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10">
+      <c r="A814" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B814" s="17"/>
+      <c r="C814" s="17"/>
+      <c r="D814" s="17"/>
+      <c r="E814" s="17"/>
+      <c r="F814" s="17"/>
+      <c r="G814" s="17"/>
+      <c r="H814" s="17"/>
+      <c r="I814" s="17"/>
+      <c r="J814" s="17"/>
+    </row>
+    <row r="815" spans="1:10">
+      <c r="A815" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B815" s="17"/>
+      <c r="C815" s="17"/>
+      <c r="D815" s="17"/>
+      <c r="E815" s="17"/>
+      <c r="F815" s="17"/>
+      <c r="G815" s="17"/>
+      <c r="H815" s="17"/>
+      <c r="I815" s="17"/>
+      <c r="J815" s="17"/>
+    </row>
+    <row r="816" spans="1:10">
+      <c r="A816" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B816" s="17"/>
+      <c r="C816" s="17"/>
+      <c r="D816" s="17"/>
+      <c r="E816" s="17"/>
+      <c r="F816" s="17"/>
+      <c r="G816" s="17"/>
+      <c r="H816" s="17"/>
+      <c r="I816" s="17"/>
+      <c r="J816" s="17"/>
+    </row>
+    <row r="817" spans="1:10">
+      <c r="A817" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B817" s="17"/>
+      <c r="C817" s="17"/>
+      <c r="D817" s="17"/>
+      <c r="E817" s="17"/>
+      <c r="F817" s="17"/>
+      <c r="G817" s="17"/>
+      <c r="H817" s="17"/>
+      <c r="I817" s="17"/>
+      <c r="J817" s="17"/>
+    </row>
+    <row r="818" spans="1:10">
+      <c r="A818" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B818" s="17"/>
+      <c r="C818" s="17"/>
+      <c r="D818" s="17"/>
+      <c r="E818" s="17"/>
+      <c r="F818" s="17"/>
+      <c r="G818" s="17"/>
+      <c r="H818" s="17"/>
+      <c r="I818" s="17"/>
+      <c r="J818" s="17"/>
+    </row>
+    <row r="819" spans="1:10">
+      <c r="A819" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B819" s="17"/>
+      <c r="C819" s="17"/>
+      <c r="D819" s="17"/>
+      <c r="E819" s="17"/>
+      <c r="F819" s="17"/>
+      <c r="G819" s="17"/>
+      <c r="H819" s="17"/>
+      <c r="I819" s="17"/>
+      <c r="J819" s="17"/>
+    </row>
+    <row r="820" spans="1:10">
+      <c r="A820" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B820" s="17"/>
+      <c r="C820" s="17"/>
+      <c r="D820" s="17"/>
+      <c r="E820" s="17"/>
+      <c r="F820" s="17"/>
+      <c r="G820" s="17"/>
+      <c r="H820" s="17"/>
+      <c r="I820" s="17"/>
+      <c r="J820" s="17"/>
+    </row>
+    <row r="821" spans="1:10">
+      <c r="A821" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B821" s="17"/>
+      <c r="C821" s="17"/>
+      <c r="D821" s="17"/>
+      <c r="E821" s="17"/>
+      <c r="F821" s="17"/>
+      <c r="G821" s="17"/>
+      <c r="H821" s="17"/>
+      <c r="I821" s="17"/>
+      <c r="J821" s="17"/>
+    </row>
+    <row r="822" spans="1:10">
+      <c r="A822" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B822" s="17"/>
+      <c r="C822" s="17"/>
+      <c r="D822" s="17"/>
+      <c r="E822" s="17"/>
+      <c r="F822" s="17"/>
+      <c r="G822" s="17"/>
+      <c r="H822" s="17"/>
+      <c r="I822" s="17"/>
+      <c r="J822" s="17"/>
+    </row>
+    <row r="823" spans="1:10">
+      <c r="A823" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B823" s="17"/>
+      <c r="C823" s="17"/>
+      <c r="D823" s="17"/>
+      <c r="E823" s="17"/>
+      <c r="F823" s="17"/>
+      <c r="G823" s="17"/>
+      <c r="H823" s="17"/>
+      <c r="I823" s="17"/>
+      <c r="J823" s="17"/>
+    </row>
+    <row r="824" spans="1:10">
+      <c r="A824" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B824" s="17"/>
+      <c r="C824" s="17"/>
+      <c r="D824" s="17"/>
+      <c r="E824" s="17"/>
+      <c r="F824" s="17"/>
+      <c r="G824" s="17"/>
+      <c r="H824" s="17"/>
+      <c r="I824" s="17"/>
+      <c r="J824" s="17"/>
+    </row>
+    <row r="825" spans="1:10">
+      <c r="A825" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B825" s="17"/>
+      <c r="C825" s="17"/>
+      <c r="D825" s="17"/>
+      <c r="E825" s="17"/>
+      <c r="F825" s="17"/>
+      <c r="G825" s="17"/>
+      <c r="H825" s="17"/>
+      <c r="I825" s="17"/>
+      <c r="J825" s="17"/>
+    </row>
+    <row r="826" spans="1:10">
+      <c r="A826" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B826" s="17"/>
+      <c r="C826" s="17"/>
+      <c r="D826" s="17"/>
+      <c r="E826" s="17"/>
+      <c r="F826" s="17"/>
+      <c r="G826" s="17"/>
+      <c r="H826" s="17"/>
+      <c r="I826" s="17"/>
+      <c r="J826" s="17"/>
+    </row>
+    <row r="827" spans="1:10">
+      <c r="A827" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B827" s="17"/>
+      <c r="C827" s="17"/>
+      <c r="D827" s="17"/>
+      <c r="E827" s="17"/>
+      <c r="F827" s="17"/>
+      <c r="G827" s="17"/>
+      <c r="H827" s="17"/>
+      <c r="I827" s="17"/>
+      <c r="J827" s="17"/>
+    </row>
+    <row r="828" spans="1:10">
+      <c r="A828" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B828" s="17"/>
+      <c r="C828" s="17"/>
+      <c r="D828" s="17"/>
+      <c r="E828" s="17"/>
+      <c r="F828" s="17"/>
+      <c r="G828" s="17"/>
+      <c r="H828" s="17"/>
+      <c r="I828" s="17"/>
+      <c r="J828" s="17"/>
+    </row>
+    <row r="829" spans="1:10">
+      <c r="A829" s="5"/>
+      <c r="B829" s="7"/>
+      <c r="C829" s="7"/>
+      <c r="D829" s="7"/>
+      <c r="E829" s="7"/>
+      <c r="F829" s="7"/>
+      <c r="G829" s="7"/>
+      <c r="H829" s="7"/>
+      <c r="I829" s="7"/>
+      <c r="J829" s="7"/>
+    </row>
+    <row r="830" spans="1:10">
+      <c r="A830" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B830" s="7"/>
+      <c r="C830" s="7"/>
+      <c r="D830" s="7"/>
+      <c r="E830" s="7"/>
+      <c r="H830" s="7"/>
+      <c r="I830" s="7"/>
+      <c r="J830" s="7"/>
+    </row>
+    <row r="831" spans="1:10">
+      <c r="A831" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B831" s="5"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="5"/>
+      <c r="E831" s="5"/>
+      <c r="F831" s="5"/>
+      <c r="G831" s="5"/>
+      <c r="H831" s="5"/>
+      <c r="I831" s="5"/>
+      <c r="J831" s="5"/>
+    </row>
+    <row r="832" spans="1:10">
+      <c r="A832" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B832" s="5"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="5"/>
+      <c r="E832" s="5"/>
+      <c r="F832" s="5"/>
+      <c r="G832" s="5"/>
+      <c r="H832" s="5"/>
+      <c r="I832" s="5"/>
+      <c r="J832" s="5"/>
+    </row>
+    <row r="833" spans="1:10">
+      <c r="A833" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B833" s="5"/>
+      <c r="C833"/>
+      <c r="D833"/>
+      <c r="E833" s="7"/>
+      <c r="F833" s="5"/>
+      <c r="G833" s="11"/>
+      <c r="H833" s="10"/>
+      <c r="I833" s="5"/>
+      <c r="J833" s="5"/>
+    </row>
+    <row r="836" spans="1:10">
+      <c r="A836" s="20"/>
+      <c r="B836" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G836" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H836" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I836" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J836" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10">
+      <c r="A837" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B837" s="17"/>
+      <c r="C837" s="17"/>
+      <c r="D837" s="17"/>
+      <c r="E837" s="17"/>
+      <c r="F837" s="17"/>
+      <c r="G837" s="17"/>
+      <c r="H837" s="17"/>
+      <c r="I837" s="17"/>
+      <c r="J837" s="17"/>
+    </row>
+    <row r="838" spans="1:10">
+      <c r="A838" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B838" s="17"/>
+      <c r="C838" s="17"/>
+      <c r="D838" s="17"/>
+      <c r="E838" s="17"/>
+      <c r="F838" s="17"/>
+      <c r="G838" s="17"/>
+      <c r="H838" s="17"/>
+      <c r="I838" s="17"/>
+      <c r="J838" s="17"/>
+    </row>
+    <row r="839" spans="1:10">
+      <c r="A839" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B839" s="17"/>
+      <c r="C839" s="17"/>
+      <c r="D839" s="17"/>
+      <c r="E839" s="17"/>
+      <c r="F839" s="17"/>
+      <c r="G839" s="17"/>
+      <c r="H839" s="17"/>
+      <c r="I839" s="17"/>
+      <c r="J839" s="17"/>
+    </row>
+    <row r="840" spans="1:10">
+      <c r="A840" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B840" s="17"/>
+      <c r="C840" s="17"/>
+      <c r="D840" s="17"/>
+      <c r="E840" s="17"/>
+      <c r="F840" s="17"/>
+      <c r="G840" s="17"/>
+      <c r="H840" s="17"/>
+      <c r="I840" s="17"/>
+      <c r="J840" s="17"/>
+    </row>
+    <row r="841" spans="1:10">
+      <c r="A841" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B841" s="17"/>
+      <c r="C841" s="17"/>
+      <c r="D841" s="17"/>
+      <c r="E841" s="17"/>
+      <c r="F841" s="17"/>
+      <c r="G841" s="17"/>
+      <c r="H841" s="17"/>
+      <c r="I841" s="17"/>
+      <c r="J841" s="17"/>
+    </row>
+    <row r="842" spans="1:10">
+      <c r="A842" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B842" s="17"/>
+      <c r="C842" s="17"/>
+      <c r="D842" s="17"/>
+      <c r="E842" s="17"/>
+      <c r="F842" s="17"/>
+      <c r="G842" s="17"/>
+      <c r="H842" s="17"/>
+      <c r="I842" s="17"/>
+      <c r="J842" s="17"/>
+    </row>
+    <row r="843" spans="1:10">
+      <c r="A843" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B843" s="17"/>
+      <c r="C843" s="17"/>
+      <c r="D843" s="17"/>
+      <c r="E843" s="17"/>
+      <c r="F843" s="17"/>
+      <c r="G843" s="17"/>
+      <c r="H843" s="17"/>
+      <c r="I843" s="17"/>
+      <c r="J843" s="17"/>
+    </row>
+    <row r="844" spans="1:10">
+      <c r="A844" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B844" s="17"/>
+      <c r="C844" s="17"/>
+      <c r="D844" s="17"/>
+      <c r="E844" s="17"/>
+      <c r="F844" s="17"/>
+      <c r="G844" s="17"/>
+      <c r="H844" s="17"/>
+      <c r="I844" s="17"/>
+      <c r="J844" s="17"/>
+    </row>
+    <row r="845" spans="1:10">
+      <c r="A845" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B845" s="17"/>
+      <c r="C845" s="17"/>
+      <c r="D845" s="17"/>
+      <c r="E845" s="17"/>
+      <c r="F845" s="17"/>
+      <c r="G845" s="17"/>
+      <c r="H845" s="17"/>
+      <c r="I845" s="17"/>
+      <c r="J845" s="17"/>
+    </row>
+    <row r="846" spans="1:10">
+      <c r="A846" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B846" s="17"/>
+      <c r="C846" s="17"/>
+      <c r="D846" s="17"/>
+      <c r="E846" s="17"/>
+      <c r="F846" s="17"/>
+      <c r="G846" s="17"/>
+      <c r="H846" s="17"/>
+      <c r="I846" s="17"/>
+      <c r="J846" s="17"/>
+    </row>
+    <row r="847" spans="1:10">
+      <c r="A847" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B847" s="17"/>
+      <c r="C847" s="17"/>
+      <c r="D847" s="17"/>
+      <c r="E847" s="17"/>
+      <c r="F847" s="17"/>
+      <c r="G847" s="17"/>
+      <c r="H847" s="17"/>
+      <c r="I847" s="17"/>
+      <c r="J847" s="17"/>
+    </row>
+    <row r="848" spans="1:10">
+      <c r="A848" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B848" s="17"/>
+      <c r="C848" s="17"/>
+      <c r="D848" s="17"/>
+      <c r="E848" s="17"/>
+      <c r="F848" s="17"/>
+      <c r="G848" s="17"/>
+      <c r="H848" s="17"/>
+      <c r="I848" s="17"/>
+      <c r="J848" s="17"/>
+    </row>
+    <row r="849" spans="1:10">
+      <c r="A849" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B849" s="17"/>
+      <c r="C849" s="17"/>
+      <c r="D849" s="17"/>
+      <c r="E849" s="17"/>
+      <c r="F849" s="17"/>
+      <c r="G849" s="17"/>
+      <c r="H849" s="17"/>
+      <c r="I849" s="17"/>
+      <c r="J849" s="17"/>
+    </row>
+    <row r="850" spans="1:10">
+      <c r="A850" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B850" s="17"/>
+      <c r="C850" s="17"/>
+      <c r="D850" s="17"/>
+      <c r="E850" s="17"/>
+      <c r="F850" s="17"/>
+      <c r="G850" s="17"/>
+      <c r="H850" s="17"/>
+      <c r="I850" s="17"/>
+      <c r="J850" s="17"/>
+    </row>
+    <row r="851" spans="1:10">
+      <c r="A851" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B851" s="17"/>
+      <c r="C851" s="17"/>
+      <c r="D851" s="17"/>
+      <c r="E851" s="17"/>
+      <c r="F851" s="17"/>
+      <c r="G851" s="17"/>
+      <c r="H851" s="17"/>
+      <c r="I851" s="17"/>
+      <c r="J851" s="17"/>
+    </row>
+    <row r="852" spans="1:10">
+      <c r="A852" s="5"/>
+      <c r="B852" s="7"/>
+      <c r="C852" s="7"/>
+      <c r="D852" s="7"/>
+      <c r="E852" s="7"/>
+      <c r="F852" s="7"/>
+      <c r="G852" s="7"/>
+      <c r="H852" s="7"/>
+      <c r="I852" s="7"/>
+      <c r="J852" s="7"/>
+    </row>
+    <row r="853" spans="1:10">
+      <c r="A853" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B853" s="7"/>
+      <c r="C853" s="7"/>
+      <c r="D853" s="7"/>
+      <c r="E853" s="7"/>
+      <c r="H853" s="7"/>
+      <c r="I853" s="7"/>
+      <c r="J853" s="7"/>
+    </row>
+    <row r="854" spans="1:10">
+      <c r="A854" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B854" s="5"/>
+      <c r="C854" s="5"/>
+      <c r="D854" s="5"/>
+      <c r="E854" s="5"/>
+      <c r="F854" s="5"/>
+      <c r="G854" s="5"/>
+      <c r="H854" s="5"/>
+      <c r="I854" s="5"/>
+      <c r="J854" s="5"/>
+    </row>
+    <row r="855" spans="1:10">
+      <c r="A855" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B855" s="5"/>
+      <c r="C855" s="5"/>
+      <c r="D855" s="5"/>
+      <c r="E855" s="5"/>
+      <c r="F855" s="5"/>
+      <c r="G855" s="5"/>
+      <c r="H855" s="5"/>
+      <c r="I855" s="5"/>
+      <c r="J855" s="5"/>
+    </row>
+    <row r="856" spans="1:10">
+      <c r="A856" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B856" s="5"/>
+      <c r="C856"/>
+      <c r="D856"/>
+      <c r="E856" s="7"/>
+      <c r="F856" s="5"/>
+      <c r="G856" s="11"/>
+      <c r="H856" s="10"/>
+      <c r="I856" s="5"/>
+      <c r="J856" s="5"/>
+    </row>
+    <row r="859" spans="1:10">
+      <c r="A859" s="20"/>
+      <c r="B859" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G859" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H859" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I859" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J859" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10">
+      <c r="A860" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B860" s="17"/>
+      <c r="C860" s="17"/>
+      <c r="D860" s="17"/>
+      <c r="E860" s="17"/>
+      <c r="F860" s="17"/>
+      <c r="G860" s="17"/>
+      <c r="H860" s="17"/>
+      <c r="I860" s="17"/>
+      <c r="J860" s="17"/>
+    </row>
+    <row r="861" spans="1:10">
+      <c r="A861" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B861" s="17"/>
+      <c r="C861" s="17"/>
+      <c r="D861" s="17"/>
+      <c r="E861" s="17"/>
+      <c r="F861" s="17"/>
+      <c r="G861" s="17"/>
+      <c r="H861" s="17"/>
+      <c r="I861" s="17"/>
+      <c r="J861" s="17"/>
+    </row>
+    <row r="862" spans="1:10">
+      <c r="A862" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B862" s="17"/>
+      <c r="C862" s="17"/>
+      <c r="D862" s="17"/>
+      <c r="E862" s="17"/>
+      <c r="F862" s="17"/>
+      <c r="G862" s="17"/>
+      <c r="H862" s="17"/>
+      <c r="I862" s="17"/>
+      <c r="J862" s="17"/>
+    </row>
+    <row r="863" spans="1:10">
+      <c r="A863" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B863" s="17"/>
+      <c r="C863" s="17"/>
+      <c r="D863" s="17"/>
+      <c r="E863" s="17"/>
+      <c r="F863" s="17"/>
+      <c r="G863" s="17"/>
+      <c r="H863" s="17"/>
+      <c r="I863" s="17"/>
+      <c r="J863" s="17"/>
+    </row>
+    <row r="864" spans="1:10">
+      <c r="A864" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B864" s="17"/>
+      <c r="C864" s="17"/>
+      <c r="D864" s="17"/>
+      <c r="E864" s="17"/>
+      <c r="F864" s="17"/>
+      <c r="G864" s="17"/>
+      <c r="H864" s="17"/>
+      <c r="I864" s="17"/>
+      <c r="J864" s="17"/>
+    </row>
+    <row r="865" spans="1:10">
+      <c r="A865" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B865" s="17"/>
+      <c r="C865" s="17"/>
+      <c r="D865" s="17"/>
+      <c r="E865" s="17"/>
+      <c r="F865" s="17"/>
+      <c r="G865" s="17"/>
+      <c r="H865" s="17"/>
+      <c r="I865" s="17"/>
+      <c r="J865" s="17"/>
+    </row>
+    <row r="866" spans="1:10">
+      <c r="A866" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B866" s="17"/>
+      <c r="C866" s="17"/>
+      <c r="D866" s="17"/>
+      <c r="E866" s="17"/>
+      <c r="F866" s="17"/>
+      <c r="G866" s="17"/>
+      <c r="H866" s="17"/>
+      <c r="I866" s="17"/>
+      <c r="J866" s="17"/>
+    </row>
+    <row r="867" spans="1:10">
+      <c r="A867" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B867" s="17"/>
+      <c r="C867" s="17"/>
+      <c r="D867" s="17"/>
+      <c r="E867" s="17"/>
+      <c r="F867" s="17"/>
+      <c r="G867" s="17"/>
+      <c r="H867" s="17"/>
+      <c r="I867" s="17"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="1:10">
+      <c r="A868" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B868" s="17"/>
+      <c r="C868" s="17"/>
+      <c r="D868" s="17"/>
+      <c r="E868" s="17"/>
+      <c r="F868" s="17"/>
+      <c r="G868" s="17"/>
+      <c r="H868" s="17"/>
+      <c r="I868" s="17"/>
+      <c r="J868" s="17"/>
+    </row>
+    <row r="869" spans="1:10">
+      <c r="A869" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B869" s="17"/>
+      <c r="C869" s="17"/>
+      <c r="D869" s="17"/>
+      <c r="E869" s="17"/>
+      <c r="F869" s="17"/>
+      <c r="G869" s="17"/>
+      <c r="H869" s="17"/>
+      <c r="I869" s="17"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="1:10">
+      <c r="A870" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B870" s="17"/>
+      <c r="C870" s="17"/>
+      <c r="D870" s="17"/>
+      <c r="E870" s="17"/>
+      <c r="F870" s="17"/>
+      <c r="G870" s="17"/>
+      <c r="H870" s="17"/>
+      <c r="I870" s="17"/>
+      <c r="J870" s="17"/>
+    </row>
+    <row r="871" spans="1:10">
+      <c r="A871" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B871" s="17"/>
+      <c r="C871" s="17"/>
+      <c r="D871" s="17"/>
+      <c r="E871" s="17"/>
+      <c r="F871" s="17"/>
+      <c r="G871" s="17"/>
+      <c r="H871" s="17"/>
+      <c r="I871" s="17"/>
+      <c r="J871" s="17"/>
+    </row>
+    <row r="872" spans="1:10">
+      <c r="A872" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B872" s="17"/>
+      <c r="C872" s="17"/>
+      <c r="D872" s="17"/>
+      <c r="E872" s="17"/>
+      <c r="F872" s="17"/>
+      <c r="G872" s="17"/>
+      <c r="H872" s="17"/>
+      <c r="I872" s="17"/>
+      <c r="J872" s="17"/>
+    </row>
+    <row r="873" spans="1:10">
+      <c r="A873" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B873" s="17"/>
+      <c r="C873" s="17"/>
+      <c r="D873" s="17"/>
+      <c r="E873" s="17"/>
+      <c r="F873" s="17"/>
+      <c r="G873" s="17"/>
+      <c r="H873" s="17"/>
+      <c r="I873" s="17"/>
+      <c r="J873" s="17"/>
+    </row>
+    <row r="874" spans="1:10">
+      <c r="A874" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B874" s="17"/>
+      <c r="C874" s="17"/>
+      <c r="D874" s="17"/>
+      <c r="E874" s="17"/>
+      <c r="F874" s="17"/>
+      <c r="G874" s="17"/>
+      <c r="H874" s="17"/>
+      <c r="I874" s="17"/>
+      <c r="J874" s="17"/>
+    </row>
+    <row r="875" spans="1:10">
+      <c r="A875" s="5"/>
+      <c r="B875" s="7"/>
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+      <c r="E875" s="7"/>
+      <c r="F875" s="7"/>
+      <c r="G875" s="7"/>
+      <c r="H875" s="7"/>
+      <c r="I875" s="7"/>
+      <c r="J875" s="7"/>
+    </row>
+    <row r="876" spans="1:10">
+      <c r="A876" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B876" s="7"/>
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+      <c r="E876" s="7"/>
+      <c r="H876" s="7"/>
+      <c r="I876" s="7"/>
+      <c r="J876" s="7"/>
+    </row>
+    <row r="877" spans="1:10">
+      <c r="A877" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B877" s="5"/>
+      <c r="C877" s="5"/>
+      <c r="D877" s="5"/>
+      <c r="E877" s="5"/>
+      <c r="F877" s="5"/>
+      <c r="G877" s="5"/>
+      <c r="H877" s="5"/>
+      <c r="I877" s="5"/>
+      <c r="J877" s="5"/>
+    </row>
+    <row r="878" spans="1:10">
+      <c r="A878" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B878" s="5"/>
+      <c r="C878" s="5"/>
+      <c r="D878" s="5"/>
+      <c r="E878" s="5"/>
+      <c r="F878" s="5"/>
+      <c r="G878" s="5"/>
+      <c r="H878" s="5"/>
+      <c r="I878" s="5"/>
+      <c r="J878" s="5"/>
+    </row>
+    <row r="879" spans="1:10">
+      <c r="A879" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B879" s="5"/>
+      <c r="C879"/>
+      <c r="D879"/>
+      <c r="E879" s="7"/>
+      <c r="F879" s="5"/>
+      <c r="G879" s="11"/>
+      <c r="H879" s="10"/>
+      <c r="I879" s="5"/>
+      <c r="J879" s="5"/>
+    </row>
+    <row r="881" spans="1:10">
+      <c r="A881" s="20"/>
+      <c r="B881" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J881" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
+      <c r="A882" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B882" s="17"/>
+      <c r="C882" s="17"/>
+      <c r="D882" s="17"/>
+      <c r="E882" s="17"/>
+      <c r="F882" s="17"/>
+      <c r="G882" s="17"/>
+      <c r="H882" s="17"/>
+      <c r="I882" s="17"/>
+      <c r="J882" s="17"/>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="A883" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B883" s="17"/>
+      <c r="C883" s="17"/>
+      <c r="D883" s="17"/>
+      <c r="E883" s="17"/>
+      <c r="F883" s="17"/>
+      <c r="G883" s="17"/>
+      <c r="H883" s="17"/>
+      <c r="I883" s="17"/>
+      <c r="J883" s="17"/>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="A884" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B884" s="17"/>
+      <c r="C884" s="17"/>
+      <c r="D884" s="17"/>
+      <c r="E884" s="17"/>
+      <c r="F884" s="17"/>
+      <c r="G884" s="17"/>
+      <c r="H884" s="17"/>
+      <c r="I884" s="17"/>
+      <c r="J884" s="17"/>
+    </row>
+    <row r="885" spans="1:10">
+      <c r="A885" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B885" s="17"/>
+      <c r="C885" s="17"/>
+      <c r="D885" s="17"/>
+      <c r="E885" s="17"/>
+      <c r="F885" s="17"/>
+      <c r="G885" s="17"/>
+      <c r="H885" s="17"/>
+      <c r="I885" s="17"/>
+      <c r="J885" s="17"/>
+    </row>
+    <row r="886" spans="1:10">
+      <c r="A886" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B886" s="17"/>
+      <c r="C886" s="17"/>
+      <c r="D886" s="17"/>
+      <c r="E886" s="17"/>
+      <c r="F886" s="17"/>
+      <c r="G886" s="17"/>
+      <c r="H886" s="17"/>
+      <c r="I886" s="17"/>
+      <c r="J886" s="17"/>
+    </row>
+    <row r="887" spans="1:10">
+      <c r="A887" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B887" s="17"/>
+      <c r="C887" s="17"/>
+      <c r="D887" s="17"/>
+      <c r="E887" s="17"/>
+      <c r="F887" s="17"/>
+      <c r="G887" s="17"/>
+      <c r="H887" s="17"/>
+      <c r="I887" s="17"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="A888" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B888" s="17"/>
+      <c r="C888" s="17"/>
+      <c r="D888" s="17"/>
+      <c r="E888" s="17"/>
+      <c r="F888" s="17"/>
+      <c r="G888" s="17"/>
+      <c r="H888" s="17"/>
+      <c r="I888" s="17"/>
+      <c r="J888" s="17"/>
+    </row>
+    <row r="889" spans="1:10">
+      <c r="A889" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B889" s="17"/>
+      <c r="C889" s="17"/>
+      <c r="D889" s="17"/>
+      <c r="E889" s="17"/>
+      <c r="F889" s="17"/>
+      <c r="G889" s="17"/>
+      <c r="H889" s="17"/>
+      <c r="I889" s="17"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="A890" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B890" s="17"/>
+      <c r="C890" s="17"/>
+      <c r="D890" s="17"/>
+      <c r="E890" s="17"/>
+      <c r="F890" s="17"/>
+      <c r="G890" s="17"/>
+      <c r="H890" s="17"/>
+      <c r="I890" s="17"/>
+      <c r="J890" s="17"/>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="A891" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B891" s="17"/>
+      <c r="C891" s="17"/>
+      <c r="D891" s="17"/>
+      <c r="E891" s="17"/>
+      <c r="F891" s="17"/>
+      <c r="G891" s="17"/>
+      <c r="H891" s="17"/>
+      <c r="I891" s="17"/>
+      <c r="J891" s="17"/>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="A892" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B892" s="17"/>
+      <c r="C892" s="17"/>
+      <c r="D892" s="17"/>
+      <c r="E892" s="17"/>
+      <c r="F892" s="17"/>
+      <c r="G892" s="17"/>
+      <c r="H892" s="17"/>
+      <c r="I892" s="17"/>
+      <c r="J892" s="17"/>
+    </row>
+    <row r="893" spans="1:10">
+      <c r="A893" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B893" s="17"/>
+      <c r="C893" s="17"/>
+      <c r="D893" s="17"/>
+      <c r="E893" s="17"/>
+      <c r="F893" s="17"/>
+      <c r="G893" s="17"/>
+      <c r="H893" s="17"/>
+      <c r="I893" s="17"/>
+      <c r="J893" s="17"/>
+    </row>
+    <row r="894" spans="1:10">
+      <c r="A894" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B894" s="17"/>
+      <c r="C894" s="17"/>
+      <c r="D894" s="17"/>
+      <c r="E894" s="17"/>
+      <c r="F894" s="17"/>
+      <c r="G894" s="17"/>
+      <c r="H894" s="17"/>
+      <c r="I894" s="17"/>
+      <c r="J894" s="17"/>
+    </row>
+    <row r="895" spans="1:10">
+      <c r="A895" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B895" s="17"/>
+      <c r="C895" s="17"/>
+      <c r="D895" s="17"/>
+      <c r="E895" s="17"/>
+      <c r="F895" s="17"/>
+      <c r="G895" s="17"/>
+      <c r="H895" s="17"/>
+      <c r="I895" s="17"/>
+      <c r="J895" s="17"/>
+    </row>
+    <row r="896" spans="1:10">
+      <c r="A896" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B896" s="17"/>
+      <c r="C896" s="17"/>
+      <c r="D896" s="17"/>
+      <c r="E896" s="17"/>
+      <c r="F896" s="17"/>
+      <c r="G896" s="17"/>
+      <c r="H896" s="17"/>
+      <c r="I896" s="17"/>
+      <c r="J896" s="17"/>
+    </row>
+    <row r="897" spans="1:10">
+      <c r="A897" s="5"/>
+      <c r="B897" s="7"/>
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+      <c r="E897" s="7"/>
+      <c r="F897" s="7"/>
+      <c r="G897" s="7"/>
+      <c r="H897" s="7"/>
+      <c r="I897" s="7"/>
+      <c r="J897" s="7"/>
+    </row>
+    <row r="898" spans="1:10">
+      <c r="A898" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B898" s="7"/>
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+      <c r="E898" s="7"/>
+      <c r="H898" s="7"/>
+      <c r="I898" s="7"/>
+      <c r="J898" s="7"/>
+    </row>
+    <row r="899" spans="1:10">
+      <c r="A899" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B899" s="5"/>
+      <c r="C899" s="5"/>
+      <c r="D899" s="5"/>
+      <c r="E899" s="5"/>
+      <c r="F899" s="5"/>
+      <c r="G899" s="5"/>
+      <c r="H899" s="5"/>
+      <c r="I899" s="5"/>
+      <c r="J899" s="5"/>
+    </row>
+    <row r="900" spans="1:10">
+      <c r="A900" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B900" s="5"/>
+      <c r="C900" s="5"/>
+      <c r="D900" s="5"/>
+      <c r="E900" s="5"/>
+      <c r="F900" s="5"/>
+      <c r="G900" s="5"/>
+      <c r="H900" s="5"/>
+      <c r="I900" s="5"/>
+      <c r="J900" s="5"/>
+    </row>
+    <row r="901" spans="1:10">
+      <c r="A901" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B901" s="5"/>
+      <c r="C901"/>
+      <c r="D901"/>
+      <c r="E901" s="7"/>
+      <c r="F901" s="5"/>
+      <c r="G901" s="11"/>
+      <c r="H901" s="10"/>
+      <c r="I901" s="5"/>
+      <c r="J901" s="5"/>
+    </row>
+    <row r="904" spans="1:10">
+      <c r="A904" s="20"/>
+      <c r="B904" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H904" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I904" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J904" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10">
+      <c r="A905" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B905" s="17"/>
+      <c r="C905" s="17"/>
+      <c r="D905" s="17"/>
+      <c r="E905" s="17"/>
+      <c r="F905" s="17"/>
+      <c r="G905" s="17"/>
+      <c r="H905" s="17"/>
+      <c r="I905" s="17"/>
+      <c r="J905" s="17"/>
+    </row>
+    <row r="906" spans="1:10">
+      <c r="A906" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B906" s="17"/>
+      <c r="C906" s="17"/>
+      <c r="D906" s="17"/>
+      <c r="E906" s="17"/>
+      <c r="F906" s="17"/>
+      <c r="G906" s="17"/>
+      <c r="H906" s="17"/>
+      <c r="I906" s="17"/>
+      <c r="J906" s="17"/>
+    </row>
+    <row r="907" spans="1:10">
+      <c r="A907" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B907" s="17"/>
+      <c r="C907" s="17"/>
+      <c r="D907" s="17"/>
+      <c r="E907" s="17"/>
+      <c r="F907" s="17"/>
+      <c r="G907" s="17"/>
+      <c r="H907" s="17"/>
+      <c r="I907" s="17"/>
+      <c r="J907" s="17"/>
+    </row>
+    <row r="908" spans="1:10">
+      <c r="A908" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B908" s="17"/>
+      <c r="C908" s="17"/>
+      <c r="D908" s="17"/>
+      <c r="E908" s="17"/>
+      <c r="F908" s="17"/>
+      <c r="G908" s="17"/>
+      <c r="H908" s="17"/>
+      <c r="I908" s="17"/>
+      <c r="J908" s="17"/>
+    </row>
+    <row r="909" spans="1:10">
+      <c r="A909" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B909" s="17"/>
+      <c r="C909" s="17"/>
+      <c r="D909" s="17"/>
+      <c r="E909" s="17"/>
+      <c r="F909" s="17"/>
+      <c r="G909" s="17"/>
+      <c r="H909" s="17"/>
+      <c r="I909" s="17"/>
+      <c r="J909" s="17"/>
+    </row>
+    <row r="910" spans="1:10">
+      <c r="A910" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B910" s="17"/>
+      <c r="C910" s="17"/>
+      <c r="D910" s="17"/>
+      <c r="E910" s="17"/>
+      <c r="F910" s="17"/>
+      <c r="G910" s="17"/>
+      <c r="H910" s="17"/>
+      <c r="I910" s="17"/>
+      <c r="J910" s="17"/>
+    </row>
+    <row r="911" spans="1:10">
+      <c r="A911" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B911" s="17"/>
+      <c r="C911" s="17"/>
+      <c r="D911" s="17"/>
+      <c r="E911" s="17"/>
+      <c r="F911" s="17"/>
+      <c r="G911" s="17"/>
+      <c r="H911" s="17"/>
+      <c r="I911" s="17"/>
+      <c r="J911" s="17"/>
+    </row>
+    <row r="912" spans="1:10">
+      <c r="A912" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B912" s="17"/>
+      <c r="C912" s="17"/>
+      <c r="D912" s="17"/>
+      <c r="E912" s="17"/>
+      <c r="F912" s="17"/>
+      <c r="G912" s="17"/>
+      <c r="H912" s="17"/>
+      <c r="I912" s="17"/>
+      <c r="J912" s="17"/>
+    </row>
+    <row r="913" spans="1:10">
+      <c r="A913" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B913" s="17"/>
+      <c r="C913" s="17"/>
+      <c r="D913" s="17"/>
+      <c r="E913" s="17"/>
+      <c r="F913" s="17"/>
+      <c r="G913" s="17"/>
+      <c r="H913" s="17"/>
+      <c r="I913" s="17"/>
+      <c r="J913" s="17"/>
+    </row>
+    <row r="914" spans="1:10">
+      <c r="A914" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B914" s="17"/>
+      <c r="C914" s="17"/>
+      <c r="D914" s="17"/>
+      <c r="E914" s="17"/>
+      <c r="F914" s="17"/>
+      <c r="G914" s="17"/>
+      <c r="H914" s="17"/>
+      <c r="I914" s="17"/>
+      <c r="J914" s="17"/>
+    </row>
+    <row r="915" spans="1:10">
+      <c r="A915" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B915" s="17"/>
+      <c r="C915" s="17"/>
+      <c r="D915" s="17"/>
+      <c r="E915" s="17"/>
+      <c r="F915" s="17"/>
+      <c r="G915" s="17"/>
+      <c r="H915" s="17"/>
+      <c r="I915" s="17"/>
+      <c r="J915" s="17"/>
+    </row>
+    <row r="916" spans="1:10">
+      <c r="A916" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B916" s="17"/>
+      <c r="C916" s="17"/>
+      <c r="D916" s="17"/>
+      <c r="E916" s="17"/>
+      <c r="F916" s="17"/>
+      <c r="G916" s="17"/>
+      <c r="H916" s="17"/>
+      <c r="I916" s="17"/>
+      <c r="J916" s="17"/>
+    </row>
+    <row r="917" spans="1:10">
+      <c r="A917" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B917" s="17"/>
+      <c r="C917" s="17"/>
+      <c r="D917" s="17"/>
+      <c r="E917" s="17"/>
+      <c r="F917" s="17"/>
+      <c r="G917" s="17"/>
+      <c r="H917" s="17"/>
+      <c r="I917" s="17"/>
+      <c r="J917" s="17"/>
+    </row>
+    <row r="918" spans="1:10">
+      <c r="A918" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B918" s="17"/>
+      <c r="C918" s="17"/>
+      <c r="D918" s="17"/>
+      <c r="E918" s="17"/>
+      <c r="F918" s="17"/>
+      <c r="G918" s="17"/>
+      <c r="H918" s="17"/>
+      <c r="I918" s="17"/>
+      <c r="J918" s="17"/>
+    </row>
+    <row r="919" spans="1:10">
+      <c r="A919" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B919" s="17"/>
+      <c r="C919" s="17"/>
+      <c r="D919" s="17"/>
+      <c r="E919" s="17"/>
+      <c r="F919" s="17"/>
+      <c r="G919" s="17"/>
+      <c r="H919" s="17"/>
+      <c r="I919" s="17"/>
+      <c r="J919" s="17"/>
+    </row>
+    <row r="920" spans="1:10">
+      <c r="A920" s="5"/>
+      <c r="B920" s="7"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="7"/>
+      <c r="H920" s="7"/>
+      <c r="I920" s="7"/>
+      <c r="J920" s="7"/>
+    </row>
+    <row r="921" spans="1:10">
+      <c r="A921" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B921" s="7"/>
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+      <c r="E921" s="7"/>
+      <c r="H921" s="7"/>
+      <c r="I921" s="7"/>
+      <c r="J921" s="7"/>
+    </row>
+    <row r="922" spans="1:10">
+      <c r="A922" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B922" s="5"/>
+      <c r="C922" s="5"/>
+      <c r="D922" s="5"/>
+      <c r="E922" s="5"/>
+      <c r="F922" s="5"/>
+      <c r="G922" s="5"/>
+      <c r="H922" s="5"/>
+      <c r="I922" s="5"/>
+      <c r="J922" s="5"/>
+    </row>
+    <row r="923" spans="1:10">
+      <c r="A923" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B923" s="5"/>
+      <c r="C923" s="5"/>
+      <c r="D923" s="5"/>
+      <c r="E923" s="5"/>
+      <c r="F923" s="5"/>
+      <c r="G923" s="5"/>
+      <c r="H923" s="5"/>
+      <c r="I923" s="5"/>
+      <c r="J923" s="5"/>
+    </row>
+    <row r="924" spans="1:10">
+      <c r="A924" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B924" s="5"/>
+      <c r="C924"/>
+      <c r="D924"/>
+      <c r="E924" s="7"/>
+      <c r="F924" s="5"/>
+      <c r="G924" s="11"/>
+      <c r="H924" s="10"/>
+      <c r="I924" s="5"/>
+      <c r="J924" s="5"/>
+    </row>
+    <row r="927" spans="1:10">
+      <c r="A927" s="20"/>
+      <c r="B927" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G927" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H927" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I927" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J927" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10">
+      <c r="A928" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B928" s="17"/>
+      <c r="C928" s="17"/>
+      <c r="D928" s="17"/>
+      <c r="E928" s="17"/>
+      <c r="F928" s="17"/>
+      <c r="G928" s="17"/>
+      <c r="H928" s="17"/>
+      <c r="I928" s="17"/>
+      <c r="J928" s="17"/>
+    </row>
+    <row r="929" spans="1:10">
+      <c r="A929" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B929" s="17"/>
+      <c r="C929" s="17"/>
+      <c r="D929" s="17"/>
+      <c r="E929" s="17"/>
+      <c r="F929" s="17"/>
+      <c r="G929" s="17"/>
+      <c r="H929" s="17"/>
+      <c r="I929" s="17"/>
+      <c r="J929" s="17"/>
+    </row>
+    <row r="930" spans="1:10">
+      <c r="A930" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B930" s="17"/>
+      <c r="C930" s="17"/>
+      <c r="D930" s="17"/>
+      <c r="E930" s="17"/>
+      <c r="F930" s="17"/>
+      <c r="G930" s="17"/>
+      <c r="H930" s="17"/>
+      <c r="I930" s="17"/>
+      <c r="J930" s="17"/>
+    </row>
+    <row r="931" spans="1:10">
+      <c r="A931" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B931" s="17"/>
+      <c r="C931" s="17"/>
+      <c r="D931" s="17"/>
+      <c r="E931" s="17"/>
+      <c r="F931" s="17"/>
+      <c r="G931" s="17"/>
+      <c r="H931" s="17"/>
+      <c r="I931" s="17"/>
+      <c r="J931" s="17"/>
+    </row>
+    <row r="932" spans="1:10">
+      <c r="A932" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B932" s="17"/>
+      <c r="C932" s="17"/>
+      <c r="D932" s="17"/>
+      <c r="E932" s="17"/>
+      <c r="F932" s="17"/>
+      <c r="G932" s="17"/>
+      <c r="H932" s="17"/>
+      <c r="I932" s="17"/>
+      <c r="J932" s="17"/>
+    </row>
+    <row r="933" spans="1:10">
+      <c r="A933" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B933" s="17"/>
+      <c r="C933" s="17"/>
+      <c r="D933" s="17"/>
+      <c r="E933" s="17"/>
+      <c r="F933" s="17"/>
+      <c r="G933" s="17"/>
+      <c r="H933" s="17"/>
+      <c r="I933" s="17"/>
+      <c r="J933" s="17"/>
+    </row>
+    <row r="934" spans="1:10">
+      <c r="A934" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B934" s="17"/>
+      <c r="C934" s="17"/>
+      <c r="D934" s="17"/>
+      <c r="E934" s="17"/>
+      <c r="F934" s="17"/>
+      <c r="G934" s="17"/>
+      <c r="H934" s="17"/>
+      <c r="I934" s="17"/>
+      <c r="J934" s="17"/>
+    </row>
+    <row r="935" spans="1:10">
+      <c r="A935" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B935" s="17"/>
+      <c r="C935" s="17"/>
+      <c r="D935" s="17"/>
+      <c r="E935" s="17"/>
+      <c r="F935" s="17"/>
+      <c r="G935" s="17"/>
+      <c r="H935" s="17"/>
+      <c r="I935" s="17"/>
+      <c r="J935" s="17"/>
+    </row>
+    <row r="936" spans="1:10">
+      <c r="A936" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B936" s="17"/>
+      <c r="C936" s="17"/>
+      <c r="D936" s="17"/>
+      <c r="E936" s="17"/>
+      <c r="F936" s="17"/>
+      <c r="G936" s="17"/>
+      <c r="H936" s="17"/>
+      <c r="I936" s="17"/>
+      <c r="J936" s="17"/>
+    </row>
+    <row r="937" spans="1:10">
+      <c r="A937" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B937" s="17"/>
+      <c r="C937" s="17"/>
+      <c r="D937" s="17"/>
+      <c r="E937" s="17"/>
+      <c r="F937" s="17"/>
+      <c r="G937" s="17"/>
+      <c r="H937" s="17"/>
+      <c r="I937" s="17"/>
+      <c r="J937" s="17"/>
+    </row>
+    <row r="938" spans="1:10">
+      <c r="A938" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B938" s="17"/>
+      <c r="C938" s="17"/>
+      <c r="D938" s="17"/>
+      <c r="E938" s="17"/>
+      <c r="F938" s="17"/>
+      <c r="G938" s="17"/>
+      <c r="H938" s="17"/>
+      <c r="I938" s="17"/>
+      <c r="J938" s="17"/>
+    </row>
+    <row r="939" spans="1:10">
+      <c r="A939" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B939" s="17"/>
+      <c r="C939" s="17"/>
+      <c r="D939" s="17"/>
+      <c r="E939" s="17"/>
+      <c r="F939" s="17"/>
+      <c r="G939" s="17"/>
+      <c r="H939" s="17"/>
+      <c r="I939" s="17"/>
+      <c r="J939" s="17"/>
+    </row>
+    <row r="940" spans="1:10">
+      <c r="A940" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B940" s="17"/>
+      <c r="C940" s="17"/>
+      <c r="D940" s="17"/>
+      <c r="E940" s="17"/>
+      <c r="F940" s="17"/>
+      <c r="G940" s="17"/>
+      <c r="H940" s="17"/>
+      <c r="I940" s="17"/>
+      <c r="J940" s="17"/>
+    </row>
+    <row r="941" spans="1:10">
+      <c r="A941" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B941" s="17"/>
+      <c r="C941" s="17"/>
+      <c r="D941" s="17"/>
+      <c r="E941" s="17"/>
+      <c r="F941" s="17"/>
+      <c r="G941" s="17"/>
+      <c r="H941" s="17"/>
+      <c r="I941" s="17"/>
+      <c r="J941" s="17"/>
+    </row>
+    <row r="942" spans="1:10">
+      <c r="A942" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B942" s="17"/>
+      <c r="C942" s="17"/>
+      <c r="D942" s="17"/>
+      <c r="E942" s="17"/>
+      <c r="F942" s="17"/>
+      <c r="G942" s="17"/>
+      <c r="H942" s="17"/>
+      <c r="I942" s="17"/>
+      <c r="J942" s="17"/>
+    </row>
+    <row r="943" spans="1:10">
+      <c r="A943" s="5"/>
+      <c r="B943" s="7"/>
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+      <c r="E943" s="7"/>
+      <c r="F943" s="7"/>
+      <c r="G943" s="7"/>
+      <c r="H943" s="7"/>
+      <c r="I943" s="7"/>
+      <c r="J943" s="7"/>
+    </row>
+    <row r="944" spans="1:10">
+      <c r="A944" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B944" s="7"/>
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+      <c r="E944" s="7"/>
+      <c r="H944" s="7"/>
+      <c r="I944" s="7"/>
+      <c r="J944" s="7"/>
+    </row>
+    <row r="945" spans="1:10">
+      <c r="A945" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B945" s="5"/>
+      <c r="C945" s="5"/>
+      <c r="D945" s="5"/>
+      <c r="E945" s="5"/>
+      <c r="F945" s="5"/>
+      <c r="G945" s="5"/>
+      <c r="H945" s="5"/>
+      <c r="I945" s="5"/>
+      <c r="J945" s="5"/>
+    </row>
+    <row r="946" spans="1:10">
+      <c r="A946" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B946" s="5"/>
+      <c r="C946" s="5"/>
+      <c r="D946" s="5"/>
+      <c r="E946" s="5"/>
+      <c r="F946" s="5"/>
+      <c r="G946" s="5"/>
+      <c r="H946" s="5"/>
+      <c r="I946" s="5"/>
+      <c r="J946" s="5"/>
+    </row>
+    <row r="947" spans="1:10">
+      <c r="A947" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B947" s="5"/>
+      <c r="C947"/>
+      <c r="D947"/>
+      <c r="E947" s="7"/>
+      <c r="F947" s="5"/>
+      <c r="G947" s="11"/>
+      <c r="H947" s="10"/>
+      <c r="I947" s="5"/>
+      <c r="J947" s="5"/>
+    </row>
+    <row r="950" spans="1:10">
+      <c r="A950" s="20"/>
+      <c r="B950" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H950" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I950" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J950" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
+      <c r="A951" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B951" s="17"/>
+      <c r="C951" s="17"/>
+      <c r="D951" s="17"/>
+      <c r="E951" s="17"/>
+      <c r="F951" s="17"/>
+      <c r="G951" s="17"/>
+      <c r="H951" s="17"/>
+      <c r="I951" s="17"/>
+      <c r="J951" s="17"/>
+    </row>
+    <row r="952" spans="1:10">
+      <c r="A952" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B952" s="17"/>
+      <c r="C952" s="17"/>
+      <c r="D952" s="17"/>
+      <c r="E952" s="17"/>
+      <c r="F952" s="17"/>
+      <c r="G952" s="17"/>
+      <c r="H952" s="17"/>
+      <c r="I952" s="17"/>
+      <c r="J952" s="17"/>
+    </row>
+    <row r="953" spans="1:10">
+      <c r="A953" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B953" s="17"/>
+      <c r="C953" s="17"/>
+      <c r="D953" s="17"/>
+      <c r="E953" s="17"/>
+      <c r="F953" s="17"/>
+      <c r="G953" s="17"/>
+      <c r="H953" s="17"/>
+      <c r="I953" s="17"/>
+      <c r="J953" s="17"/>
+    </row>
+    <row r="954" spans="1:10">
+      <c r="A954" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B954" s="17"/>
+      <c r="C954" s="17"/>
+      <c r="D954" s="17"/>
+      <c r="E954" s="17"/>
+      <c r="F954" s="17"/>
+      <c r="G954" s="17"/>
+      <c r="H954" s="17"/>
+      <c r="I954" s="17"/>
+      <c r="J954" s="17"/>
+    </row>
+    <row r="955" spans="1:10">
+      <c r="A955" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B955" s="17"/>
+      <c r="C955" s="17"/>
+      <c r="D955" s="17"/>
+      <c r="E955" s="17"/>
+      <c r="F955" s="17"/>
+      <c r="G955" s="17"/>
+      <c r="H955" s="17"/>
+      <c r="I955" s="17"/>
+      <c r="J955" s="17"/>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B956" s="17"/>
+      <c r="C956" s="17"/>
+      <c r="D956" s="17"/>
+      <c r="E956" s="17"/>
+      <c r="F956" s="17"/>
+      <c r="G956" s="17"/>
+      <c r="H956" s="17"/>
+      <c r="I956" s="17"/>
+      <c r="J956" s="17"/>
+    </row>
+    <row r="957" spans="1:10">
+      <c r="A957" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B957" s="17"/>
+      <c r="C957" s="17"/>
+      <c r="D957" s="17"/>
+      <c r="E957" s="17"/>
+      <c r="F957" s="17"/>
+      <c r="G957" s="17"/>
+      <c r="H957" s="17"/>
+      <c r="I957" s="17"/>
+      <c r="J957" s="17"/>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B958" s="17"/>
+      <c r="C958" s="17"/>
+      <c r="D958" s="17"/>
+      <c r="E958" s="17"/>
+      <c r="F958" s="17"/>
+      <c r="G958" s="17"/>
+      <c r="H958" s="17"/>
+      <c r="I958" s="17"/>
+      <c r="J958" s="17"/>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B959" s="17"/>
+      <c r="C959" s="17"/>
+      <c r="D959" s="17"/>
+      <c r="E959" s="17"/>
+      <c r="F959" s="17"/>
+      <c r="G959" s="17"/>
+      <c r="H959" s="17"/>
+      <c r="I959" s="17"/>
+      <c r="J959" s="17"/>
+    </row>
+    <row r="960" spans="1:10">
+      <c r="A960" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B960" s="17"/>
+      <c r="C960" s="17"/>
+      <c r="D960" s="17"/>
+      <c r="E960" s="17"/>
+      <c r="F960" s="17"/>
+      <c r="G960" s="17"/>
+      <c r="H960" s="17"/>
+      <c r="I960" s="17"/>
+      <c r="J960" s="17"/>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B961" s="17"/>
+      <c r="C961" s="17"/>
+      <c r="D961" s="17"/>
+      <c r="E961" s="17"/>
+      <c r="F961" s="17"/>
+      <c r="G961" s="17"/>
+      <c r="H961" s="17"/>
+      <c r="I961" s="17"/>
+      <c r="J961" s="17"/>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B962" s="17"/>
+      <c r="C962" s="17"/>
+      <c r="D962" s="17"/>
+      <c r="E962" s="17"/>
+      <c r="F962" s="17"/>
+      <c r="G962" s="17"/>
+      <c r="H962" s="17"/>
+      <c r="I962" s="17"/>
+      <c r="J962" s="17"/>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B963" s="17"/>
+      <c r="C963" s="17"/>
+      <c r="D963" s="17"/>
+      <c r="E963" s="17"/>
+      <c r="F963" s="17"/>
+      <c r="G963" s="17"/>
+      <c r="H963" s="17"/>
+      <c r="I963" s="17"/>
+      <c r="J963" s="17"/>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B964" s="17"/>
+      <c r="C964" s="17"/>
+      <c r="D964" s="17"/>
+      <c r="E964" s="17"/>
+      <c r="F964" s="17"/>
+      <c r="G964" s="17"/>
+      <c r="H964" s="17"/>
+      <c r="I964" s="17"/>
+      <c r="J964" s="17"/>
+    </row>
+    <row r="965" spans="1:10">
+      <c r="A965" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B965" s="17"/>
+      <c r="C965" s="17"/>
+      <c r="D965" s="17"/>
+      <c r="E965" s="17"/>
+      <c r="F965" s="17"/>
+      <c r="G965" s="17"/>
+      <c r="H965" s="17"/>
+      <c r="I965" s="17"/>
+      <c r="J965" s="17"/>
+    </row>
+    <row r="966" spans="1:10">
+      <c r="A966" s="5"/>
+      <c r="B966" s="7"/>
+      <c r="C966" s="7"/>
+      <c r="D966" s="7"/>
+      <c r="E966" s="7"/>
+      <c r="F966" s="7"/>
+      <c r="G966" s="7"/>
+      <c r="H966" s="7"/>
+      <c r="I966" s="7"/>
+      <c r="J966" s="7"/>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B967" s="7"/>
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+      <c r="E967" s="7"/>
+      <c r="H967" s="7"/>
+      <c r="I967" s="7"/>
+      <c r="J967" s="7"/>
+    </row>
+    <row r="968" spans="1:10">
+      <c r="A968" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B968" s="5"/>
+      <c r="C968" s="5"/>
+      <c r="D968" s="5"/>
+      <c r="E968" s="5"/>
+      <c r="F968" s="5"/>
+      <c r="G968" s="5"/>
+      <c r="H968" s="5"/>
+      <c r="I968" s="5"/>
+      <c r="J968" s="5"/>
+    </row>
+    <row r="969" spans="1:10">
+      <c r="A969" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B969" s="5"/>
+      <c r="C969" s="5"/>
+      <c r="D969" s="5"/>
+      <c r="E969" s="5"/>
+      <c r="F969" s="5"/>
+      <c r="G969" s="5"/>
+      <c r="H969" s="5"/>
+      <c r="I969" s="5"/>
+      <c r="J969" s="5"/>
+    </row>
+    <row r="970" spans="1:10">
+      <c r="A970" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B970" s="5"/>
+      <c r="C970"/>
+      <c r="D970"/>
+      <c r="E970" s="7"/>
+      <c r="F970" s="5"/>
+      <c r="G970" s="11"/>
+      <c r="H970" s="10"/>
+      <c r="I970" s="5"/>
+      <c r="J970" s="5"/>
+    </row>
+    <row r="973" spans="1:10">
+      <c r="A973" s="20"/>
+      <c r="B973" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G973" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H973" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I973" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J973" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B974" s="17"/>
+      <c r="C974" s="17"/>
+      <c r="D974" s="17"/>
+      <c r="E974" s="17"/>
+      <c r="F974" s="17"/>
+      <c r="G974" s="17"/>
+      <c r="H974" s="17"/>
+      <c r="I974" s="17"/>
+      <c r="J974" s="17"/>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B975" s="17"/>
+      <c r="C975" s="17"/>
+      <c r="D975" s="17"/>
+      <c r="E975" s="17"/>
+      <c r="F975" s="17"/>
+      <c r="G975" s="17"/>
+      <c r="H975" s="17"/>
+      <c r="I975" s="17"/>
+      <c r="J975" s="17"/>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B976" s="17"/>
+      <c r="C976" s="17"/>
+      <c r="D976" s="17"/>
+      <c r="E976" s="17"/>
+      <c r="F976" s="17"/>
+      <c r="G976" s="17"/>
+      <c r="H976" s="17"/>
+      <c r="I976" s="17"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" spans="1:10">
+      <c r="A977" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B977" s="17"/>
+      <c r="C977" s="17"/>
+      <c r="D977" s="17"/>
+      <c r="E977" s="17"/>
+      <c r="F977" s="17"/>
+      <c r="G977" s="17"/>
+      <c r="H977" s="17"/>
+      <c r="I977" s="17"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" spans="1:10">
+      <c r="A978" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B978" s="17"/>
+      <c r="C978" s="17"/>
+      <c r="D978" s="17"/>
+      <c r="E978" s="17"/>
+      <c r="F978" s="17"/>
+      <c r="G978" s="17"/>
+      <c r="H978" s="17"/>
+      <c r="I978" s="17"/>
+      <c r="J978" s="17"/>
+    </row>
+    <row r="979" spans="1:10">
+      <c r="A979" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B979" s="17"/>
+      <c r="C979" s="17"/>
+      <c r="D979" s="17"/>
+      <c r="E979" s="17"/>
+      <c r="F979" s="17"/>
+      <c r="G979" s="17"/>
+      <c r="H979" s="17"/>
+      <c r="I979" s="17"/>
+      <c r="J979" s="17"/>
+    </row>
+    <row r="980" spans="1:10">
+      <c r="A980" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B980" s="17"/>
+      <c r="C980" s="17"/>
+      <c r="D980" s="17"/>
+      <c r="E980" s="17"/>
+      <c r="F980" s="17"/>
+      <c r="G980" s="17"/>
+      <c r="H980" s="17"/>
+      <c r="I980" s="17"/>
+      <c r="J980" s="17"/>
+    </row>
+    <row r="981" spans="1:10">
+      <c r="A981" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B981" s="17"/>
+      <c r="C981" s="17"/>
+      <c r="D981" s="17"/>
+      <c r="E981" s="17"/>
+      <c r="F981" s="17"/>
+      <c r="G981" s="17"/>
+      <c r="H981" s="17"/>
+      <c r="I981" s="17"/>
+      <c r="J981" s="17"/>
+    </row>
+    <row r="982" spans="1:10">
+      <c r="A982" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B982" s="17"/>
+      <c r="C982" s="17"/>
+      <c r="D982" s="17"/>
+      <c r="E982" s="17"/>
+      <c r="F982" s="17"/>
+      <c r="G982" s="17"/>
+      <c r="H982" s="17"/>
+      <c r="I982" s="17"/>
+      <c r="J982" s="17"/>
+    </row>
+    <row r="983" spans="1:10">
+      <c r="A983" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B983" s="17"/>
+      <c r="C983" s="17"/>
+      <c r="D983" s="17"/>
+      <c r="E983" s="17"/>
+      <c r="F983" s="17"/>
+      <c r="G983" s="17"/>
+      <c r="H983" s="17"/>
+      <c r="I983" s="17"/>
+      <c r="J983" s="17"/>
+    </row>
+    <row r="984" spans="1:10">
+      <c r="A984" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B984" s="17"/>
+      <c r="C984" s="17"/>
+      <c r="D984" s="17"/>
+      <c r="E984" s="17"/>
+      <c r="F984" s="17"/>
+      <c r="G984" s="17"/>
+      <c r="H984" s="17"/>
+      <c r="I984" s="17"/>
+      <c r="J984" s="17"/>
+    </row>
+    <row r="985" spans="1:10">
+      <c r="A985" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B985" s="17"/>
+      <c r="C985" s="17"/>
+      <c r="D985" s="17"/>
+      <c r="E985" s="17"/>
+      <c r="F985" s="17"/>
+      <c r="G985" s="17"/>
+      <c r="H985" s="17"/>
+      <c r="I985" s="17"/>
+      <c r="J985" s="17"/>
+    </row>
+    <row r="986" spans="1:10">
+      <c r="A986" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B986" s="17"/>
+      <c r="C986" s="17"/>
+      <c r="D986" s="17"/>
+      <c r="E986" s="17"/>
+      <c r="F986" s="17"/>
+      <c r="G986" s="17"/>
+      <c r="H986" s="17"/>
+      <c r="I986" s="17"/>
+      <c r="J986" s="17"/>
+    </row>
+    <row r="987" spans="1:10">
+      <c r="A987" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B987" s="17"/>
+      <c r="C987" s="17"/>
+      <c r="D987" s="17"/>
+      <c r="E987" s="17"/>
+      <c r="F987" s="17"/>
+      <c r="G987" s="17"/>
+      <c r="H987" s="17"/>
+      <c r="I987" s="17"/>
+      <c r="J987" s="17"/>
+    </row>
+    <row r="988" spans="1:10">
+      <c r="A988" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B988" s="17"/>
+      <c r="C988" s="17"/>
+      <c r="D988" s="17"/>
+      <c r="E988" s="17"/>
+      <c r="F988" s="17"/>
+      <c r="G988" s="17"/>
+      <c r="H988" s="17"/>
+      <c r="I988" s="17"/>
+      <c r="J988" s="17"/>
+    </row>
+    <row r="989" spans="1:10">
+      <c r="A989" s="5"/>
+      <c r="B989" s="7"/>
+      <c r="C989" s="7"/>
+      <c r="D989" s="7"/>
+      <c r="E989" s="7"/>
+      <c r="F989" s="7"/>
+      <c r="G989" s="7"/>
+      <c r="H989" s="7"/>
+      <c r="I989" s="7"/>
+      <c r="J989" s="7"/>
+    </row>
+    <row r="990" spans="1:10">
+      <c r="A990" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B990" s="7"/>
+      <c r="C990" s="7"/>
+      <c r="D990" s="7"/>
+      <c r="E990" s="7"/>
+      <c r="H990" s="7"/>
+      <c r="I990" s="7"/>
+      <c r="J990" s="7"/>
+    </row>
+    <row r="991" spans="1:10">
+      <c r="A991" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B991" s="5"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="5"/>
+      <c r="E991" s="5"/>
+      <c r="F991" s="5"/>
+      <c r="G991" s="5"/>
+      <c r="H991" s="5"/>
+      <c r="I991" s="5"/>
+      <c r="J991" s="5"/>
+    </row>
+    <row r="992" spans="1:10">
+      <c r="A992" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B992" s="5"/>
+      <c r="C992" s="5"/>
+      <c r="D992" s="5"/>
+      <c r="E992" s="5"/>
+      <c r="F992" s="5"/>
+      <c r="G992" s="5"/>
+      <c r="H992" s="5"/>
+      <c r="I992" s="5"/>
+      <c r="J992" s="5"/>
+    </row>
+    <row r="993" spans="1:10">
+      <c r="A993" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B993" s="5"/>
+      <c r="C993"/>
+      <c r="D993"/>
+      <c r="E993" s="7"/>
+      <c r="F993" s="5"/>
+      <c r="G993" s="11"/>
+      <c r="H993" s="10"/>
+      <c r="I993" s="5"/>
+      <c r="J993" s="5"/>
+    </row>
+    <row r="996" spans="1:10">
+      <c r="A996" s="20"/>
+      <c r="B996" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F996" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G996" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H996" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I996" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J996" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10">
+      <c r="A997" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B997" s="17"/>
+      <c r="C997" s="17"/>
+      <c r="D997" s="17"/>
+      <c r="E997" s="17"/>
+      <c r="F997" s="17"/>
+      <c r="G997" s="17"/>
+      <c r="H997" s="17"/>
+      <c r="I997" s="17"/>
+      <c r="J997" s="17"/>
+    </row>
+    <row r="998" spans="1:10">
+      <c r="A998" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B998" s="17"/>
+      <c r="C998" s="17"/>
+      <c r="D998" s="17"/>
+      <c r="E998" s="17"/>
+      <c r="F998" s="17"/>
+      <c r="G998" s="17"/>
+      <c r="H998" s="17"/>
+      <c r="I998" s="17"/>
+      <c r="J998" s="17"/>
+    </row>
+    <row r="999" spans="1:10">
+      <c r="A999" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B999" s="17"/>
+      <c r="C999" s="17"/>
+      <c r="D999" s="17"/>
+      <c r="E999" s="17"/>
+      <c r="F999" s="17"/>
+      <c r="G999" s="17"/>
+      <c r="H999" s="17"/>
+      <c r="I999" s="17"/>
+      <c r="J999" s="17"/>
+    </row>
+    <row r="1000" spans="1:10">
+      <c r="A1000" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1000" s="17"/>
+      <c r="C1000" s="17"/>
+      <c r="D1000" s="17"/>
+      <c r="E1000" s="17"/>
+      <c r="F1000" s="17"/>
+      <c r="G1000" s="17"/>
+      <c r="H1000" s="17"/>
+      <c r="I1000" s="17"/>
+      <c r="J1000" s="17"/>
+    </row>
+    <row r="1001" spans="1:10">
+      <c r="A1001" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1001" s="17"/>
+      <c r="C1001" s="17"/>
+      <c r="D1001" s="17"/>
+      <c r="E1001" s="17"/>
+      <c r="F1001" s="17"/>
+      <c r="G1001" s="17"/>
+      <c r="H1001" s="17"/>
+      <c r="I1001" s="17"/>
+      <c r="J1001" s="17"/>
+    </row>
+    <row r="1002" spans="1:10">
+      <c r="A1002" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="17"/>
+      <c r="E1002" s="17"/>
+      <c r="F1002" s="17"/>
+      <c r="G1002" s="17"/>
+      <c r="H1002" s="17"/>
+      <c r="I1002" s="17"/>
+      <c r="J1002" s="17"/>
+    </row>
+    <row r="1003" spans="1:10">
+      <c r="A1003" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1003" s="17"/>
+      <c r="C1003" s="17"/>
+      <c r="D1003" s="17"/>
+      <c r="E1003" s="17"/>
+      <c r="F1003" s="17"/>
+      <c r="G1003" s="17"/>
+      <c r="H1003" s="17"/>
+      <c r="I1003" s="17"/>
+      <c r="J1003" s="17"/>
+    </row>
+    <row r="1004" spans="1:10">
+      <c r="A1004" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1004" s="17"/>
+      <c r="C1004" s="17"/>
+      <c r="D1004" s="17"/>
+      <c r="E1004" s="17"/>
+      <c r="F1004" s="17"/>
+      <c r="G1004" s="17"/>
+      <c r="H1004" s="17"/>
+      <c r="I1004" s="17"/>
+      <c r="J1004" s="17"/>
+    </row>
+    <row r="1005" spans="1:10">
+      <c r="A1005" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1005" s="17"/>
+      <c r="C1005" s="17"/>
+      <c r="D1005" s="17"/>
+      <c r="E1005" s="17"/>
+      <c r="F1005" s="17"/>
+      <c r="G1005" s="17"/>
+      <c r="H1005" s="17"/>
+      <c r="I1005" s="17"/>
+      <c r="J1005" s="17"/>
+    </row>
+    <row r="1006" spans="1:10">
+      <c r="A1006" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1006" s="17"/>
+      <c r="C1006" s="17"/>
+      <c r="D1006" s="17"/>
+      <c r="E1006" s="17"/>
+      <c r="F1006" s="17"/>
+      <c r="G1006" s="17"/>
+      <c r="H1006" s="17"/>
+      <c r="I1006" s="17"/>
+      <c r="J1006" s="17"/>
+    </row>
+    <row r="1007" spans="1:10">
+      <c r="A1007" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1007" s="17"/>
+      <c r="C1007" s="17"/>
+      <c r="D1007" s="17"/>
+      <c r="E1007" s="17"/>
+      <c r="F1007" s="17"/>
+      <c r="G1007" s="17"/>
+      <c r="H1007" s="17"/>
+      <c r="I1007" s="17"/>
+      <c r="J1007" s="17"/>
+    </row>
+    <row r="1008" spans="1:10">
+      <c r="A1008" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1008" s="17"/>
+      <c r="C1008" s="17"/>
+      <c r="D1008" s="17"/>
+      <c r="E1008" s="17"/>
+      <c r="F1008" s="17"/>
+      <c r="G1008" s="17"/>
+      <c r="H1008" s="17"/>
+      <c r="I1008" s="17"/>
+      <c r="J1008" s="17"/>
+    </row>
+    <row r="1009" spans="1:10">
+      <c r="A1009" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1009" s="17"/>
+      <c r="C1009" s="17"/>
+      <c r="D1009" s="17"/>
+      <c r="E1009" s="17"/>
+      <c r="F1009" s="17"/>
+      <c r="G1009" s="17"/>
+      <c r="H1009" s="17"/>
+      <c r="I1009" s="17"/>
+      <c r="J1009" s="17"/>
+    </row>
+    <row r="1010" spans="1:10">
+      <c r="A1010" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1010" s="17"/>
+      <c r="C1010" s="17"/>
+      <c r="D1010" s="17"/>
+      <c r="E1010" s="17"/>
+      <c r="F1010" s="17"/>
+      <c r="G1010" s="17"/>
+      <c r="H1010" s="17"/>
+      <c r="I1010" s="17"/>
+      <c r="J1010" s="17"/>
+    </row>
+    <row r="1011" spans="1:10">
+      <c r="A1011" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1011" s="17"/>
+      <c r="C1011" s="17"/>
+      <c r="D1011" s="17"/>
+      <c r="E1011" s="17"/>
+      <c r="F1011" s="17"/>
+      <c r="G1011" s="17"/>
+      <c r="H1011" s="17"/>
+      <c r="I1011" s="17"/>
+      <c r="J1011" s="17"/>
+    </row>
+    <row r="1012" spans="1:10">
+      <c r="A1012" s="5"/>
+      <c r="B1012" s="7"/>
+      <c r="C1012" s="7"/>
+      <c r="D1012" s="7"/>
+      <c r="E1012" s="7"/>
+      <c r="F1012" s="7"/>
+      <c r="G1012" s="7"/>
+      <c r="H1012" s="7"/>
+      <c r="I1012" s="7"/>
+      <c r="J1012" s="7"/>
+    </row>
+    <row r="1013" spans="1:10">
+      <c r="A1013" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1013" s="7"/>
+      <c r="C1013" s="7"/>
+      <c r="D1013" s="7"/>
+      <c r="E1013" s="7"/>
+      <c r="H1013" s="7"/>
+      <c r="I1013" s="7"/>
+      <c r="J1013" s="7"/>
+    </row>
+    <row r="1014" spans="1:10">
+      <c r="A1014" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1014" s="5"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
+      <c r="F1014" s="5"/>
+      <c r="G1014" s="5"/>
+      <c r="H1014" s="5"/>
+      <c r="I1014" s="5"/>
+      <c r="J1014" s="5"/>
+    </row>
+    <row r="1015" spans="1:10">
+      <c r="A1015" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1015" s="5"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
+      <c r="E1015" s="5"/>
+      <c r="F1015" s="5"/>
+      <c r="G1015" s="5"/>
+      <c r="H1015" s="5"/>
+      <c r="I1015" s="5"/>
+      <c r="J1015" s="5"/>
+    </row>
+    <row r="1016" spans="1:10">
+      <c r="A1016" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1016" s="5"/>
+      <c r="C1016"/>
+      <c r="D1016"/>
+      <c r="E1016" s="7"/>
+      <c r="F1016" s="5"/>
+      <c r="G1016" s="11"/>
+      <c r="H1016" s="10"/>
+      <c r="I1016" s="5"/>
+      <c r="J1016" s="5"/>
+    </row>
+    <row r="1019" spans="1:10">
+      <c r="A1019" s="20"/>
+      <c r="B1019" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1019" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1019" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1019" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1019" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1019" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10">
+      <c r="A1020" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1020" s="17"/>
+      <c r="C1020" s="17"/>
+      <c r="D1020" s="17"/>
+      <c r="E1020" s="17"/>
+      <c r="F1020" s="17"/>
+      <c r="G1020" s="17"/>
+      <c r="H1020" s="17"/>
+      <c r="I1020" s="17"/>
+      <c r="J1020" s="17"/>
+    </row>
+    <row r="1021" spans="1:10">
+      <c r="A1021" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1021" s="17"/>
+      <c r="C1021" s="17"/>
+      <c r="D1021" s="17"/>
+      <c r="E1021" s="17"/>
+      <c r="F1021" s="17"/>
+      <c r="G1021" s="17"/>
+      <c r="H1021" s="17"/>
+      <c r="I1021" s="17"/>
+      <c r="J1021" s="17"/>
+    </row>
+    <row r="1022" spans="1:10">
+      <c r="A1022" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1022" s="17"/>
+      <c r="C1022" s="17"/>
+      <c r="D1022" s="17"/>
+      <c r="E1022" s="17"/>
+      <c r="F1022" s="17"/>
+      <c r="G1022" s="17"/>
+      <c r="H1022" s="17"/>
+      <c r="I1022" s="17"/>
+      <c r="J1022" s="17"/>
+    </row>
+    <row r="1023" spans="1:10">
+      <c r="A1023" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1023" s="17"/>
+      <c r="C1023" s="17"/>
+      <c r="D1023" s="17"/>
+      <c r="E1023" s="17"/>
+      <c r="F1023" s="17"/>
+      <c r="G1023" s="17"/>
+      <c r="H1023" s="17"/>
+      <c r="I1023" s="17"/>
+      <c r="J1023" s="17"/>
+    </row>
+    <row r="1024" spans="1:10">
+      <c r="A1024" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1024" s="17"/>
+      <c r="C1024" s="17"/>
+      <c r="D1024" s="17"/>
+      <c r="E1024" s="17"/>
+      <c r="F1024" s="17"/>
+      <c r="G1024" s="17"/>
+      <c r="H1024" s="17"/>
+      <c r="I1024" s="17"/>
+      <c r="J1024" s="17"/>
+    </row>
+    <row r="1025" spans="1:10">
+      <c r="A1025" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1025" s="17"/>
+      <c r="C1025" s="17"/>
+      <c r="D1025" s="17"/>
+      <c r="E1025" s="17"/>
+      <c r="F1025" s="17"/>
+      <c r="G1025" s="17"/>
+      <c r="H1025" s="17"/>
+      <c r="I1025" s="17"/>
+      <c r="J1025" s="17"/>
+    </row>
+    <row r="1026" spans="1:10">
+      <c r="A1026" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1026" s="17"/>
+      <c r="C1026" s="17"/>
+      <c r="D1026" s="17"/>
+      <c r="E1026" s="17"/>
+      <c r="F1026" s="17"/>
+      <c r="G1026" s="17"/>
+      <c r="H1026" s="17"/>
+      <c r="I1026" s="17"/>
+      <c r="J1026" s="17"/>
+    </row>
+    <row r="1027" spans="1:10">
+      <c r="A1027" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1027" s="17"/>
+      <c r="C1027" s="17"/>
+      <c r="D1027" s="17"/>
+      <c r="E1027" s="17"/>
+      <c r="F1027" s="17"/>
+      <c r="G1027" s="17"/>
+      <c r="H1027" s="17"/>
+      <c r="I1027" s="17"/>
+      <c r="J1027" s="17"/>
+    </row>
+    <row r="1028" spans="1:10">
+      <c r="A1028" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1028" s="17"/>
+      <c r="C1028" s="17"/>
+      <c r="D1028" s="17"/>
+      <c r="E1028" s="17"/>
+      <c r="F1028" s="17"/>
+      <c r="G1028" s="17"/>
+      <c r="H1028" s="17"/>
+      <c r="I1028" s="17"/>
+      <c r="J1028" s="17"/>
+    </row>
+    <row r="1029" spans="1:10">
+      <c r="A1029" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1029" s="17"/>
+      <c r="C1029" s="17"/>
+      <c r="D1029" s="17"/>
+      <c r="E1029" s="17"/>
+      <c r="F1029" s="17"/>
+      <c r="G1029" s="17"/>
+      <c r="H1029" s="17"/>
+      <c r="I1029" s="17"/>
+      <c r="J1029" s="17"/>
+    </row>
+    <row r="1030" spans="1:10">
+      <c r="A1030" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1030" s="17"/>
+      <c r="C1030" s="17"/>
+      <c r="D1030" s="17"/>
+      <c r="E1030" s="17"/>
+      <c r="F1030" s="17"/>
+      <c r="G1030" s="17"/>
+      <c r="H1030" s="17"/>
+      <c r="I1030" s="17"/>
+      <c r="J1030" s="17"/>
+    </row>
+    <row r="1031" spans="1:10">
+      <c r="A1031" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1031" s="17"/>
+      <c r="C1031" s="17"/>
+      <c r="D1031" s="17"/>
+      <c r="E1031" s="17"/>
+      <c r="F1031" s="17"/>
+      <c r="G1031" s="17"/>
+      <c r="H1031" s="17"/>
+      <c r="I1031" s="17"/>
+      <c r="J1031" s="17"/>
+    </row>
+    <row r="1032" spans="1:10">
+      <c r="A1032" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1032" s="17"/>
+      <c r="C1032" s="17"/>
+      <c r="D1032" s="17"/>
+      <c r="E1032" s="17"/>
+      <c r="F1032" s="17"/>
+      <c r="G1032" s="17"/>
+      <c r="H1032" s="17"/>
+      <c r="I1032" s="17"/>
+      <c r="J1032" s="17"/>
+    </row>
+    <row r="1033" spans="1:10">
+      <c r="A1033" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1033" s="17"/>
+      <c r="C1033" s="17"/>
+      <c r="D1033" s="17"/>
+      <c r="E1033" s="17"/>
+      <c r="F1033" s="17"/>
+      <c r="G1033" s="17"/>
+      <c r="H1033" s="17"/>
+      <c r="I1033" s="17"/>
+      <c r="J1033" s="17"/>
+    </row>
+    <row r="1034" spans="1:10">
+      <c r="A1034" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1034" s="17"/>
+      <c r="C1034" s="17"/>
+      <c r="D1034" s="17"/>
+      <c r="E1034" s="17"/>
+      <c r="F1034" s="17"/>
+      <c r="G1034" s="17"/>
+      <c r="H1034" s="17"/>
+      <c r="I1034" s="17"/>
+      <c r="J1034" s="17"/>
+    </row>
+    <row r="1035" spans="1:10">
+      <c r="A1035" s="5"/>
+      <c r="B1035" s="7"/>
+      <c r="C1035" s="7"/>
+      <c r="D1035" s="7"/>
+      <c r="E1035" s="7"/>
+      <c r="F1035" s="7"/>
+      <c r="G1035" s="7"/>
+      <c r="H1035" s="7"/>
+      <c r="I1035" s="7"/>
+      <c r="J1035" s="7"/>
+    </row>
+    <row r="1036" spans="1:10">
+      <c r="A1036" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1036" s="7"/>
+      <c r="C1036" s="7"/>
+      <c r="D1036" s="7"/>
+      <c r="E1036" s="7"/>
+      <c r="H1036" s="7"/>
+      <c r="I1036" s="7"/>
+      <c r="J1036" s="7"/>
+    </row>
+    <row r="1037" spans="1:10">
+      <c r="A1037" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1037" s="5"/>
+      <c r="C1037" s="5"/>
+      <c r="D1037" s="5"/>
+      <c r="E1037" s="5"/>
+      <c r="F1037" s="5"/>
+      <c r="G1037" s="5"/>
+      <c r="H1037" s="5"/>
+      <c r="I1037" s="5"/>
+      <c r="J1037" s="5"/>
+    </row>
+    <row r="1038" spans="1:10">
+      <c r="A1038" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1038" s="5"/>
+      <c r="C1038" s="5"/>
+      <c r="D1038" s="5"/>
+      <c r="E1038" s="5"/>
+      <c r="F1038" s="5"/>
+      <c r="G1038" s="5"/>
+      <c r="H1038" s="5"/>
+      <c r="I1038" s="5"/>
+      <c r="J1038" s="5"/>
+    </row>
+    <row r="1039" spans="1:10">
+      <c r="A1039" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1039" s="5"/>
+      <c r="C1039"/>
+      <c r="D1039"/>
+      <c r="E1039" s="7"/>
+      <c r="F1039" s="5"/>
+      <c r="G1039" s="11"/>
+      <c r="H1039" s="10"/>
+      <c r="I1039" s="5"/>
+      <c r="J1039" s="5"/>
+    </row>
+    <row r="1042" spans="1:10">
+      <c r="A1042" s="20"/>
+      <c r="B1042" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1042" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1042" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1042" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1042" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1042" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:10">
+      <c r="A1043" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1043" s="17"/>
+      <c r="C1043" s="17"/>
+      <c r="D1043" s="17"/>
+      <c r="E1043" s="17"/>
+      <c r="F1043" s="17"/>
+      <c r="G1043" s="17"/>
+      <c r="H1043" s="17"/>
+      <c r="I1043" s="17"/>
+      <c r="J1043" s="17"/>
+    </row>
+    <row r="1044" spans="1:10">
+      <c r="A1044" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1044" s="17"/>
+      <c r="C1044" s="17"/>
+      <c r="D1044" s="17"/>
+      <c r="E1044" s="17"/>
+      <c r="F1044" s="17"/>
+      <c r="G1044" s="17"/>
+      <c r="H1044" s="17"/>
+      <c r="I1044" s="17"/>
+      <c r="J1044" s="17"/>
+    </row>
+    <row r="1045" spans="1:10">
+      <c r="A1045" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1045" s="17"/>
+      <c r="C1045" s="17"/>
+      <c r="D1045" s="17"/>
+      <c r="E1045" s="17"/>
+      <c r="F1045" s="17"/>
+      <c r="G1045" s="17"/>
+      <c r="H1045" s="17"/>
+      <c r="I1045" s="17"/>
+      <c r="J1045" s="17"/>
+    </row>
+    <row r="1046" spans="1:10">
+      <c r="A1046" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1046" s="17"/>
+      <c r="C1046" s="17"/>
+      <c r="D1046" s="17"/>
+      <c r="E1046" s="17"/>
+      <c r="F1046" s="17"/>
+      <c r="G1046" s="17"/>
+      <c r="H1046" s="17"/>
+      <c r="I1046" s="17"/>
+      <c r="J1046" s="17"/>
+    </row>
+    <row r="1047" spans="1:10">
+      <c r="A1047" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1047" s="17"/>
+      <c r="C1047" s="17"/>
+      <c r="D1047" s="17"/>
+      <c r="E1047" s="17"/>
+      <c r="F1047" s="17"/>
+      <c r="G1047" s="17"/>
+      <c r="H1047" s="17"/>
+      <c r="I1047" s="17"/>
+      <c r="J1047" s="17"/>
+    </row>
+    <row r="1048" spans="1:10">
+      <c r="A1048" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1048" s="17"/>
+      <c r="C1048" s="17"/>
+      <c r="D1048" s="17"/>
+      <c r="E1048" s="17"/>
+      <c r="F1048" s="17"/>
+      <c r="G1048" s="17"/>
+      <c r="H1048" s="17"/>
+      <c r="I1048" s="17"/>
+      <c r="J1048" s="17"/>
+    </row>
+    <row r="1049" spans="1:10">
+      <c r="A1049" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1049" s="17"/>
+      <c r="C1049" s="17"/>
+      <c r="D1049" s="17"/>
+      <c r="E1049" s="17"/>
+      <c r="F1049" s="17"/>
+      <c r="G1049" s="17"/>
+      <c r="H1049" s="17"/>
+      <c r="I1049" s="17"/>
+      <c r="J1049" s="17"/>
+    </row>
+    <row r="1050" spans="1:10">
+      <c r="A1050" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1050" s="17"/>
+      <c r="C1050" s="17"/>
+      <c r="D1050" s="17"/>
+      <c r="E1050" s="17"/>
+      <c r="F1050" s="17"/>
+      <c r="G1050" s="17"/>
+      <c r="H1050" s="17"/>
+      <c r="I1050" s="17"/>
+      <c r="J1050" s="17"/>
+    </row>
+    <row r="1051" spans="1:10">
+      <c r="A1051" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1051" s="17"/>
+      <c r="C1051" s="17"/>
+      <c r="D1051" s="17"/>
+      <c r="E1051" s="17"/>
+      <c r="F1051" s="17"/>
+      <c r="G1051" s="17"/>
+      <c r="H1051" s="17"/>
+      <c r="I1051" s="17"/>
+      <c r="J1051" s="17"/>
+    </row>
+    <row r="1052" spans="1:10">
+      <c r="A1052" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1052" s="17"/>
+      <c r="C1052" s="17"/>
+      <c r="D1052" s="17"/>
+      <c r="E1052" s="17"/>
+      <c r="F1052" s="17"/>
+      <c r="G1052" s="17"/>
+      <c r="H1052" s="17"/>
+      <c r="I1052" s="17"/>
+      <c r="J1052" s="17"/>
+    </row>
+    <row r="1053" spans="1:10">
+      <c r="A1053" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1053" s="17"/>
+      <c r="C1053" s="17"/>
+      <c r="D1053" s="17"/>
+      <c r="E1053" s="17"/>
+      <c r="F1053" s="17"/>
+      <c r="G1053" s="17"/>
+      <c r="H1053" s="17"/>
+      <c r="I1053" s="17"/>
+      <c r="J1053" s="17"/>
+    </row>
+    <row r="1054" spans="1:10">
+      <c r="A1054" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1054" s="17"/>
+      <c r="C1054" s="17"/>
+      <c r="D1054" s="17"/>
+      <c r="E1054" s="17"/>
+      <c r="F1054" s="17"/>
+      <c r="G1054" s="17"/>
+      <c r="H1054" s="17"/>
+      <c r="I1054" s="17"/>
+      <c r="J1054" s="17"/>
+    </row>
+    <row r="1055" spans="1:10">
+      <c r="A1055" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1055" s="17"/>
+      <c r="C1055" s="17"/>
+      <c r="D1055" s="17"/>
+      <c r="E1055" s="17"/>
+      <c r="F1055" s="17"/>
+      <c r="G1055" s="17"/>
+      <c r="H1055" s="17"/>
+      <c r="I1055" s="17"/>
+      <c r="J1055" s="17"/>
+    </row>
+    <row r="1056" spans="1:10">
+      <c r="A1056" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1056" s="17"/>
+      <c r="C1056" s="17"/>
+      <c r="D1056" s="17"/>
+      <c r="E1056" s="17"/>
+      <c r="F1056" s="17"/>
+      <c r="G1056" s="17"/>
+      <c r="H1056" s="17"/>
+      <c r="I1056" s="17"/>
+      <c r="J1056" s="17"/>
+    </row>
+    <row r="1057" spans="1:10">
+      <c r="A1057" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1057" s="17"/>
+      <c r="C1057" s="17"/>
+      <c r="D1057" s="17"/>
+      <c r="E1057" s="17"/>
+      <c r="F1057" s="17"/>
+      <c r="G1057" s="17"/>
+      <c r="H1057" s="17"/>
+      <c r="I1057" s="17"/>
+      <c r="J1057" s="17"/>
+    </row>
+    <row r="1058" spans="1:10">
+      <c r="A1058" s="5"/>
+      <c r="B1058" s="7"/>
+      <c r="C1058" s="7"/>
+      <c r="D1058" s="7"/>
+      <c r="E1058" s="7"/>
+      <c r="F1058" s="7"/>
+      <c r="G1058" s="7"/>
+      <c r="H1058" s="7"/>
+      <c r="I1058" s="7"/>
+      <c r="J1058" s="7"/>
+    </row>
+    <row r="1059" spans="1:10">
+      <c r="A1059" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1059" s="7"/>
+      <c r="C1059" s="7"/>
+      <c r="D1059" s="7"/>
+      <c r="E1059" s="7"/>
+      <c r="H1059" s="7"/>
+      <c r="I1059" s="7"/>
+      <c r="J1059" s="7"/>
+    </row>
+    <row r="1060" spans="1:10">
+      <c r="A1060" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1060" s="5"/>
+      <c r="C1060" s="5"/>
+      <c r="D1060" s="5"/>
+      <c r="E1060" s="5"/>
+      <c r="F1060" s="5"/>
+      <c r="G1060" s="5"/>
+      <c r="H1060" s="5"/>
+      <c r="I1060" s="5"/>
+      <c r="J1060" s="5"/>
+    </row>
+    <row r="1061" spans="1:10">
+      <c r="A1061" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1061" s="5"/>
+      <c r="C1061" s="5"/>
+      <c r="D1061" s="5"/>
+      <c r="E1061" s="5"/>
+      <c r="F1061" s="5"/>
+      <c r="G1061" s="5"/>
+      <c r="H1061" s="5"/>
+      <c r="I1061" s="5"/>
+      <c r="J1061" s="5"/>
+    </row>
+    <row r="1062" spans="1:10">
+      <c r="A1062" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1062" s="5"/>
+      <c r="C1062"/>
+      <c r="D1062"/>
+      <c r="E1062" s="7"/>
+      <c r="F1062" s="5"/>
+      <c r="G1062" s="11"/>
+      <c r="H1062" s="10"/>
+      <c r="I1062" s="5"/>
+      <c r="J1062" s="5"/>
+    </row>
+    <row r="1065" spans="1:10">
+      <c r="A1065" s="20"/>
+      <c r="B1065" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1065" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1065" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1065" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1065" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1065" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10">
+      <c r="A1066" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1066" s="17"/>
+      <c r="C1066" s="17"/>
+      <c r="D1066" s="17"/>
+      <c r="E1066" s="17"/>
+      <c r="F1066" s="17"/>
+      <c r="G1066" s="17"/>
+      <c r="H1066" s="17"/>
+      <c r="I1066" s="17"/>
+      <c r="J1066" s="17"/>
+    </row>
+    <row r="1067" spans="1:10">
+      <c r="A1067" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1067" s="17"/>
+      <c r="C1067" s="17"/>
+      <c r="D1067" s="17"/>
+      <c r="E1067" s="17"/>
+      <c r="F1067" s="17"/>
+      <c r="G1067" s="17"/>
+      <c r="H1067" s="17"/>
+      <c r="I1067" s="17"/>
+      <c r="J1067" s="17"/>
+    </row>
+    <row r="1068" spans="1:10">
+      <c r="A1068" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1068" s="17"/>
+      <c r="C1068" s="17"/>
+      <c r="D1068" s="17"/>
+      <c r="E1068" s="17"/>
+      <c r="F1068" s="17"/>
+      <c r="G1068" s="17"/>
+      <c r="H1068" s="17"/>
+      <c r="I1068" s="17"/>
+      <c r="J1068" s="17"/>
+    </row>
+    <row r="1069" spans="1:10">
+      <c r="A1069" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1069" s="17"/>
+      <c r="C1069" s="17"/>
+      <c r="D1069" s="17"/>
+      <c r="E1069" s="17"/>
+      <c r="F1069" s="17"/>
+      <c r="G1069" s="17"/>
+      <c r="H1069" s="17"/>
+      <c r="I1069" s="17"/>
+      <c r="J1069" s="17"/>
+    </row>
+    <row r="1070" spans="1:10">
+      <c r="A1070" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1070" s="17"/>
+      <c r="C1070" s="17"/>
+      <c r="D1070" s="17"/>
+      <c r="E1070" s="17"/>
+      <c r="F1070" s="17"/>
+      <c r="G1070" s="17"/>
+      <c r="H1070" s="17"/>
+      <c r="I1070" s="17"/>
+      <c r="J1070" s="17"/>
+    </row>
+    <row r="1071" spans="1:10">
+      <c r="A1071" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1071" s="17"/>
+      <c r="C1071" s="17"/>
+      <c r="D1071" s="17"/>
+      <c r="E1071" s="17"/>
+      <c r="F1071" s="17"/>
+      <c r="G1071" s="17"/>
+      <c r="H1071" s="17"/>
+      <c r="I1071" s="17"/>
+      <c r="J1071" s="17"/>
+    </row>
+    <row r="1072" spans="1:10">
+      <c r="A1072" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1072" s="17"/>
+      <c r="C1072" s="17"/>
+      <c r="D1072" s="17"/>
+      <c r="E1072" s="17"/>
+      <c r="F1072" s="17"/>
+      <c r="G1072" s="17"/>
+      <c r="H1072" s="17"/>
+      <c r="I1072" s="17"/>
+      <c r="J1072" s="17"/>
+    </row>
+    <row r="1073" spans="1:10">
+      <c r="A1073" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1073" s="17"/>
+      <c r="C1073" s="17"/>
+      <c r="D1073" s="17"/>
+      <c r="E1073" s="17"/>
+      <c r="F1073" s="17"/>
+      <c r="G1073" s="17"/>
+      <c r="H1073" s="17"/>
+      <c r="I1073" s="17"/>
+      <c r="J1073" s="17"/>
+    </row>
+    <row r="1074" spans="1:10">
+      <c r="A1074" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1074" s="17"/>
+      <c r="C1074" s="17"/>
+      <c r="D1074" s="17"/>
+      <c r="E1074" s="17"/>
+      <c r="F1074" s="17"/>
+      <c r="G1074" s="17"/>
+      <c r="H1074" s="17"/>
+      <c r="I1074" s="17"/>
+      <c r="J1074" s="17"/>
+    </row>
+    <row r="1075" spans="1:10">
+      <c r="A1075" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1075" s="17"/>
+      <c r="C1075" s="17"/>
+      <c r="D1075" s="17"/>
+      <c r="E1075" s="17"/>
+      <c r="F1075" s="17"/>
+      <c r="G1075" s="17"/>
+      <c r="H1075" s="17"/>
+      <c r="I1075" s="17"/>
+      <c r="J1075" s="17"/>
+    </row>
+    <row r="1076" spans="1:10">
+      <c r="A1076" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1076" s="17"/>
+      <c r="C1076" s="17"/>
+      <c r="D1076" s="17"/>
+      <c r="E1076" s="17"/>
+      <c r="F1076" s="17"/>
+      <c r="G1076" s="17"/>
+      <c r="H1076" s="17"/>
+      <c r="I1076" s="17"/>
+      <c r="J1076" s="17"/>
+    </row>
+    <row r="1077" spans="1:10">
+      <c r="A1077" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1077" s="17"/>
+      <c r="C1077" s="17"/>
+      <c r="D1077" s="17"/>
+      <c r="E1077" s="17"/>
+      <c r="F1077" s="17"/>
+      <c r="G1077" s="17"/>
+      <c r="H1077" s="17"/>
+      <c r="I1077" s="17"/>
+      <c r="J1077" s="17"/>
+    </row>
+    <row r="1078" spans="1:10">
+      <c r="A1078" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1078" s="17"/>
+      <c r="C1078" s="17"/>
+      <c r="D1078" s="17"/>
+      <c r="E1078" s="17"/>
+      <c r="F1078" s="17"/>
+      <c r="G1078" s="17"/>
+      <c r="H1078" s="17"/>
+      <c r="I1078" s="17"/>
+      <c r="J1078" s="17"/>
+    </row>
+    <row r="1079" spans="1:10">
+      <c r="A1079" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1079" s="17"/>
+      <c r="C1079" s="17"/>
+      <c r="D1079" s="17"/>
+      <c r="E1079" s="17"/>
+      <c r="F1079" s="17"/>
+      <c r="G1079" s="17"/>
+      <c r="H1079" s="17"/>
+      <c r="I1079" s="17"/>
+      <c r="J1079" s="17"/>
+    </row>
+    <row r="1080" spans="1:10">
+      <c r="A1080" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1080" s="17"/>
+      <c r="C1080" s="17"/>
+      <c r="D1080" s="17"/>
+      <c r="E1080" s="17"/>
+      <c r="F1080" s="17"/>
+      <c r="G1080" s="17"/>
+      <c r="H1080" s="17"/>
+      <c r="I1080" s="17"/>
+      <c r="J1080" s="17"/>
+    </row>
+    <row r="1081" spans="1:10">
+      <c r="A1081" s="5"/>
+      <c r="B1081" s="7"/>
+      <c r="C1081" s="7"/>
+      <c r="D1081" s="7"/>
+      <c r="E1081" s="7"/>
+      <c r="F1081" s="7"/>
+      <c r="G1081" s="7"/>
+      <c r="H1081" s="7"/>
+      <c r="I1081" s="7"/>
+      <c r="J1081" s="7"/>
+    </row>
+    <row r="1082" spans="1:10">
+      <c r="A1082" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1082" s="7"/>
+      <c r="C1082" s="7"/>
+      <c r="D1082" s="7"/>
+      <c r="E1082" s="7"/>
+      <c r="H1082" s="7"/>
+      <c r="I1082" s="7"/>
+      <c r="J1082" s="7"/>
+    </row>
+    <row r="1083" spans="1:10">
+      <c r="A1083" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1083" s="5"/>
+      <c r="C1083" s="5"/>
+      <c r="D1083" s="5"/>
+      <c r="E1083" s="5"/>
+      <c r="F1083" s="5"/>
+      <c r="G1083" s="5"/>
+      <c r="H1083" s="5"/>
+      <c r="I1083" s="5"/>
+      <c r="J1083" s="5"/>
+    </row>
+    <row r="1084" spans="1:10">
+      <c r="A1084" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1084" s="5"/>
+      <c r="C1084" s="5"/>
+      <c r="D1084" s="5"/>
+      <c r="E1084" s="5"/>
+      <c r="F1084" s="5"/>
+      <c r="G1084" s="5"/>
+      <c r="H1084" s="5"/>
+      <c r="I1084" s="5"/>
+      <c r="J1084" s="5"/>
+    </row>
+    <row r="1085" spans="1:10">
+      <c r="A1085" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1085" s="5"/>
+      <c r="C1085"/>
+      <c r="D1085"/>
+      <c r="E1085" s="7"/>
+      <c r="F1085" s="5"/>
+      <c r="G1085" s="11"/>
+      <c r="H1085" s="10"/>
+      <c r="I1085" s="5"/>
+      <c r="J1085" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_all_result.xlsx
+++ b/new_all_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="29300" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="77">
   <si>
     <t>Glass1</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>page_blocks4</t>
+  </si>
+  <si>
+    <t>statlog_vehicle_silhouettes1</t>
+  </si>
+  <si>
+    <t>statlog_vehicle_silhouettes2</t>
+  </si>
+  <si>
+    <t>statlog_vehicle_silhouettes3</t>
+  </si>
+  <si>
+    <t>statlog_vehicle_silhouettes4</t>
   </si>
 </sst>
 </file>
@@ -950,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,11 +987,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1007,9 +1019,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1323,20 +1332,20 @@
   <sheetPr/>
   <dimension ref="A1:J1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A836" workbookViewId="0">
-      <selection activeCell="A836" sqref="A836"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A1015" workbookViewId="0">
+      <selection activeCell="A1019" sqref="A1019"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="46.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="18.2407407407407" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.8703703703704" customWidth="1"/>
-    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="22.962962962963" customWidth="1"/>
-    <col min="7" max="7" width="24.537037037037" customWidth="1"/>
-    <col min="8" max="8" width="25.7407407407407" customWidth="1"/>
+    <col min="1" max="1" width="46.5576923076923" customWidth="1"/>
+    <col min="2" max="2" width="10.6730769230769" customWidth="1"/>
+    <col min="3" max="3" width="9.21153846153846" customWidth="1"/>
+    <col min="4" max="4" width="9.34615384615385" customWidth="1"/>
+    <col min="5" max="5" width="24.4423076923077" customWidth="1"/>
+    <col min="6" max="6" width="22.9615384615385" customWidth="1"/>
+    <col min="7" max="7" width="24.5384615384615" customWidth="1"/>
+    <col min="8" max="8" width="25.7403846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3138,10 +3147,10 @@
       <c r="F69" s="6">
         <v>0.7797</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="11">
         <v>0.9408</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="11">
         <v>0.8923</v>
       </c>
       <c r="I69" s="6">
@@ -3152,7 +3161,7 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3730,16 +3739,16 @@
       <c r="D94" s="6">
         <v>0.8743</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="11">
         <v>0.8695</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="11">
         <v>0.8741</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="11">
         <v>0.9434</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="11">
         <v>0.9245</v>
       </c>
       <c r="I94" s="6">
@@ -3750,7 +3759,7 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4328,16 +4337,16 @@
       <c r="D118" s="6">
         <v>0.939</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="11">
         <v>0.8764</v>
       </c>
       <c r="F118" s="6">
         <v>0.8665</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="11">
         <v>0.9427</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="11">
         <v>0.89574</v>
       </c>
       <c r="I118" s="6">
@@ -4348,7 +4357,7 @@
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4924,16 +4933,16 @@
       <c r="D141" s="6">
         <v>0.9734</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="11">
         <v>0.8525</v>
       </c>
       <c r="F141" s="8">
         <v>0.8377</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="11">
         <v>0.9702</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="11">
         <v>0.8329</v>
       </c>
       <c r="I141" s="6">
@@ -4944,7 +4953,7 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -5520,16 +5529,16 @@
       <c r="D164" s="6">
         <v>0.9972</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="11">
         <v>0.9854</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="11">
         <v>0.9849</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="11">
         <v>0.9997</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="11">
         <v>0.9974</v>
       </c>
       <c r="I164" s="6">
@@ -5551,7 +5560,7 @@
       <c r="A169" s="12"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6127,16 +6136,16 @@
       <c r="D191" s="6">
         <v>0.9993</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="11">
         <v>0.9971</v>
       </c>
-      <c r="F191" s="10">
+      <c r="F191" s="11">
         <v>0.9973</v>
       </c>
-      <c r="G191" s="10">
+      <c r="G191" s="11">
         <v>0.9999</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="11">
         <v>0.9985</v>
       </c>
       <c r="I191" s="6">
@@ -6147,7 +6156,7 @@
       </c>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -6723,16 +6732,16 @@
       <c r="D215" s="6">
         <v>0.9876</v>
       </c>
-      <c r="E215" s="10">
+      <c r="E215" s="11">
         <v>0.9185</v>
       </c>
       <c r="F215" s="8">
         <v>0.9111</v>
       </c>
-      <c r="G215" s="10">
+      <c r="G215" s="11">
         <v>0.9924</v>
       </c>
-      <c r="H215" s="10">
+      <c r="H215" s="11">
         <v>0.9321</v>
       </c>
       <c r="I215" s="6">
@@ -7322,7 +7331,7 @@
       <c r="E239" s="8">
         <v>0.964</v>
       </c>
-      <c r="F239" s="10">
+      <c r="F239" s="11">
         <v>0.9906</v>
       </c>
       <c r="G239" s="8">
@@ -7339,7 +7348,7 @@
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="11" t="s">
+      <c r="A242" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -7915,16 +7924,16 @@
       <c r="D262" s="6">
         <v>0.9912</v>
       </c>
-      <c r="E262" s="10">
+      <c r="E262" s="11">
         <v>0.9528</v>
       </c>
-      <c r="F262" s="10">
+      <c r="F262" s="11">
         <v>0.9592</v>
       </c>
-      <c r="G262" s="10">
+      <c r="G262" s="11">
         <v>0.9972</v>
       </c>
-      <c r="H262" s="10">
+      <c r="H262" s="11">
         <v>0.9718</v>
       </c>
       <c r="I262" s="6">
@@ -7934,7 +7943,7 @@
         <v>0.9597</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="17" spans="1:1">
       <c r="A265" s="13" t="s">
         <v>40</v>
       </c>
@@ -7946,7 +7955,7 @@
       <c r="A267" s="14"/>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="11" t="s">
+      <c r="A271" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -8522,13 +8531,13 @@
       <c r="D291" s="6">
         <v>0.9652</v>
       </c>
-      <c r="E291" s="10">
+      <c r="E291" s="11">
         <v>0.7352</v>
       </c>
       <c r="F291" s="8">
         <v>0.6819</v>
       </c>
-      <c r="G291" s="10">
+      <c r="G291" s="11">
         <v>0.9243</v>
       </c>
       <c r="H291" s="8">
@@ -9120,10 +9129,10 @@
       <c r="F315" s="8">
         <v>0</v>
       </c>
-      <c r="G315" s="10">
+      <c r="G315" s="11">
         <v>0.7151</v>
       </c>
-      <c r="H315" s="10">
+      <c r="H315" s="11">
         <v>0.1405</v>
       </c>
       <c r="I315" s="6">
@@ -9719,7 +9728,7 @@
       <c r="G339" s="6">
         <v>0.7737</v>
       </c>
-      <c r="H339" s="10">
+      <c r="H339" s="11">
         <v>0.3239</v>
       </c>
       <c r="I339" s="6">
@@ -9730,7 +9739,7 @@
       </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="A344" s="11" t="s">
+      <c r="A344" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -10315,7 +10324,7 @@
       <c r="G364" s="6">
         <v>0.9952</v>
       </c>
-      <c r="H364" s="10">
+      <c r="H364" s="11">
         <v>0.9649</v>
       </c>
       <c r="I364" s="6">
@@ -10326,7 +10335,7 @@
       </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="A367" s="11" t="s">
+      <c r="A367" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -10911,7 +10920,7 @@
       <c r="G387" s="6">
         <v>0.9852</v>
       </c>
-      <c r="H387" s="10">
+      <c r="H387" s="11">
         <v>0.8679</v>
       </c>
       <c r="I387" s="6">
@@ -11507,7 +11516,7 @@
       <c r="G411" s="6">
         <v>0.6962</v>
       </c>
-      <c r="H411" s="10">
+      <c r="H411" s="11">
         <v>0.1392</v>
       </c>
       <c r="I411" s="6">
@@ -12094,7 +12103,7 @@
       <c r="D434">
         <v>0.9765</v>
       </c>
-      <c r="E434" s="10">
+      <c r="E434" s="11">
         <v>0.5821</v>
       </c>
       <c r="F434" s="6">
@@ -12103,7 +12112,7 @@
       <c r="G434" s="6">
         <v>0.7979</v>
       </c>
-      <c r="H434" s="10">
+      <c r="H434" s="11">
         <v>0.2139</v>
       </c>
       <c r="I434" s="6">
@@ -12114,7 +12123,7 @@
       </c>
     </row>
     <row r="438" spans="1:10">
-      <c r="A438" s="11" t="s">
+      <c r="A438" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -12699,7 +12708,7 @@
       <c r="G458" s="6">
         <v>0.9543</v>
       </c>
-      <c r="H458" s="10">
+      <c r="H458" s="11">
         <v>0.6082</v>
       </c>
       <c r="I458" s="6">
@@ -13288,7 +13297,7 @@
       </c>
     </row>
     <row r="485" spans="1:10">
-      <c r="A485" s="11" t="s">
+      <c r="A485" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -13855,7 +13864,7 @@
       <c r="G505" s="6">
         <v>0.8958</v>
       </c>
-      <c r="H505" s="10">
+      <c r="H505" s="11">
         <v>0.4484</v>
       </c>
       <c r="I505" s="6">
@@ -14433,7 +14442,7 @@
       <c r="G529" s="6">
         <v>0.9712</v>
       </c>
-      <c r="H529" s="10">
+      <c r="H529" s="11">
         <v>0.8094</v>
       </c>
       <c r="I529" s="6">
@@ -14444,7 +14453,7 @@
       </c>
     </row>
     <row r="534" spans="1:10">
-      <c r="A534" s="11" t="s">
+      <c r="A534" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B534" s="2" t="s">
@@ -15002,16 +15011,16 @@
       <c r="D554">
         <v>0.9991</v>
       </c>
-      <c r="E554" s="10">
+      <c r="E554" s="11">
         <v>0.9883</v>
       </c>
       <c r="F554" s="6">
         <v>0.9885</v>
       </c>
-      <c r="G554" s="10">
+      <c r="G554" s="11">
         <v>0.9999</v>
       </c>
-      <c r="H554" s="10">
+      <c r="H554" s="11">
         <v>0.9987</v>
       </c>
       <c r="I554" s="6">
@@ -15022,7 +15031,7 @@
       </c>
     </row>
     <row r="559" spans="1:10">
-      <c r="A559" s="11" t="s">
+      <c r="A559" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B559" s="2" t="s">
@@ -15598,16 +15607,16 @@
       <c r="D579">
         <v>0.9748</v>
       </c>
-      <c r="E579" s="10">
+      <c r="E579" s="11">
         <v>0.7117</v>
       </c>
       <c r="F579" s="6">
         <v>0.6834</v>
       </c>
-      <c r="G579" s="10">
+      <c r="G579" s="11">
         <v>0.9359</v>
       </c>
-      <c r="H579" s="10">
+      <c r="H579" s="11">
         <v>0.5062</v>
       </c>
       <c r="I579" s="6">
@@ -15618,7 +15627,7 @@
       </c>
     </row>
     <row r="582" spans="1:10">
-      <c r="A582" s="11" t="s">
+      <c r="A582" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -16182,10 +16191,10 @@
       <c r="F602" s="6">
         <v>0.5542</v>
       </c>
-      <c r="G602" s="10">
+      <c r="G602" s="11">
         <v>0.8984</v>
       </c>
-      <c r="H602" s="10">
+      <c r="H602" s="11">
         <v>0.3264</v>
       </c>
       <c r="I602" s="6">
@@ -16772,7 +16781,7 @@
       <c r="D625">
         <v>0.9921</v>
       </c>
-      <c r="E625" s="10">
+      <c r="E625" s="11">
         <v>0.8536</v>
       </c>
       <c r="F625" s="6">
@@ -17368,7 +17377,7 @@
       <c r="D648">
         <v>0.9688</v>
       </c>
-      <c r="E648" s="10">
+      <c r="E648" s="11">
         <v>0.4278</v>
       </c>
       <c r="F648" s="6">
@@ -17925,8 +17934,6 @@
         <v>28</v>
       </c>
       <c r="B671" s="6"/>
-      <c r="C671"/>
-      <c r="D671"/>
       <c r="E671" s="8">
         <v>0.953</v>
       </c>
@@ -18466,9 +18473,7 @@
         <v>28</v>
       </c>
       <c r="B694" s="6"/>
-      <c r="C694"/>
-      <c r="D694"/>
-      <c r="E694" s="10">
+      <c r="E694" s="11">
         <v>0.8866</v>
       </c>
       <c r="F694" s="6">
@@ -19034,8 +19039,6 @@
         <v>28</v>
       </c>
       <c r="B717" s="6"/>
-      <c r="C717"/>
-      <c r="D717"/>
       <c r="E717" s="8">
         <v>0.9696</v>
       </c>
@@ -19623,18 +19626,16 @@
         <v>28</v>
       </c>
       <c r="B740" s="6"/>
-      <c r="C740"/>
-      <c r="D740"/>
       <c r="E740" s="8">
         <v>0.9605</v>
       </c>
       <c r="F740" s="6">
         <v>0.9604</v>
       </c>
-      <c r="G740" s="10">
+      <c r="G740" s="11">
         <v>0.9944</v>
       </c>
-      <c r="H740" s="10">
+      <c r="H740" s="11">
         <v>0.9927</v>
       </c>
       <c r="I740" s="6"/>
@@ -20209,18 +20210,16 @@
         <v>28</v>
       </c>
       <c r="B764" s="6"/>
-      <c r="C764"/>
-      <c r="D764"/>
       <c r="E764" s="8">
         <v>0.4916</v>
       </c>
       <c r="F764" s="6">
         <v>0.3524</v>
       </c>
-      <c r="G764" s="10">
+      <c r="G764" s="11">
         <v>0.6212</v>
       </c>
-      <c r="H764" s="10">
+      <c r="H764" s="11">
         <v>0.4205</v>
       </c>
       <c r="I764" s="6"/>
@@ -20262,31 +20261,31 @@
       <c r="A768" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B768" s="21">
+      <c r="B768" s="4">
         <v>0.8544</v>
       </c>
-      <c r="C768" s="21">
+      <c r="C768" s="4">
         <v>0.5946</v>
       </c>
-      <c r="D768" s="21">
+      <c r="D768" s="4">
         <v>0.9056</v>
       </c>
-      <c r="E768" s="21">
+      <c r="E768" s="4">
         <v>0.7423</v>
       </c>
-      <c r="F768" s="21">
+      <c r="F768" s="4">
         <v>0.7322</v>
       </c>
-      <c r="G768" s="21">
+      <c r="G768" s="4">
         <v>0.8429</v>
       </c>
-      <c r="H768" s="21">
+      <c r="H768" s="4">
         <v>0.6397</v>
       </c>
-      <c r="I768" s="21">
+      <c r="I768" s="4">
         <v>0.7395</v>
       </c>
-      <c r="J768" s="21">
+      <c r="J768" s="4">
         <v>0.7501</v>
       </c>
     </row>
@@ -20294,31 +20293,31 @@
       <c r="A769" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B769" s="21">
+      <c r="B769" s="4">
         <v>0.8659</v>
       </c>
-      <c r="C769" s="21">
+      <c r="C769" s="4">
         <v>0.5906</v>
       </c>
-      <c r="D769" s="21">
+      <c r="D769" s="4">
         <v>0.9202</v>
       </c>
-      <c r="E769" s="21">
+      <c r="E769" s="4">
         <v>0.7549</v>
       </c>
-      <c r="F769" s="21">
+      <c r="F769" s="4">
         <v>0.7352</v>
       </c>
-      <c r="G769" s="21">
+      <c r="G769" s="4">
         <v>0.8375</v>
       </c>
-      <c r="H769" s="21">
+      <c r="H769" s="4">
         <v>0.6378</v>
       </c>
-      <c r="I769" s="21">
+      <c r="I769" s="4">
         <v>0.7583</v>
       </c>
-      <c r="J769" s="21">
+      <c r="J769" s="4">
         <v>0.7554</v>
       </c>
     </row>
@@ -20326,31 +20325,31 @@
       <c r="A770" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B770" s="21">
+      <c r="B770" s="4">
         <v>0.8363</v>
       </c>
-      <c r="C770" s="21">
+      <c r="C770" s="4">
         <v>0.7097</v>
       </c>
-      <c r="D770" s="21">
+      <c r="D770" s="4">
         <v>0.8613</v>
       </c>
-      <c r="E770" s="21">
+      <c r="E770" s="4">
         <v>0.7417</v>
       </c>
-      <c r="F770" s="21">
+      <c r="F770" s="4">
         <v>0.7795</v>
       </c>
-      <c r="G770" s="21">
+      <c r="G770" s="4">
         <v>0.8585</v>
       </c>
-      <c r="H770" s="21">
+      <c r="H770" s="4">
         <v>0.6433</v>
       </c>
-      <c r="I770" s="21">
+      <c r="I770" s="4">
         <v>0.7207</v>
       </c>
-      <c r="J770" s="21">
+      <c r="J770" s="4">
         <v>0.7855</v>
       </c>
     </row>
@@ -20358,31 +20357,31 @@
       <c r="A771" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B771" s="21">
+      <c r="B771" s="4">
         <v>0.8363</v>
       </c>
-      <c r="C771" s="21">
+      <c r="C771" s="4">
         <v>0.7011</v>
       </c>
-      <c r="D771" s="21">
+      <c r="D771" s="4">
         <v>0.8629</v>
       </c>
-      <c r="E771" s="21">
+      <c r="E771" s="4">
         <v>0.7408</v>
       </c>
-      <c r="F771" s="21">
+      <c r="F771" s="4">
         <v>0.7759</v>
       </c>
-      <c r="G771" s="21">
+      <c r="G771" s="4">
         <v>0.8558</v>
       </c>
-      <c r="H771" s="21">
+      <c r="H771" s="4">
         <v>0.6416</v>
       </c>
-      <c r="I771" s="21">
+      <c r="I771" s="4">
         <v>0.7207</v>
       </c>
-      <c r="J771" s="21">
+      <c r="J771" s="4">
         <v>0.782</v>
       </c>
     </row>
@@ -20390,31 +20389,31 @@
       <c r="A772" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B772" s="21">
+      <c r="B772" s="4">
         <v>0.7716</v>
       </c>
-      <c r="C772" s="21">
+      <c r="C772" s="4">
         <v>0.6238</v>
       </c>
-      <c r="D772" s="21">
+      <c r="D772" s="4">
         <v>0.8008</v>
       </c>
-      <c r="E772" s="21">
+      <c r="E772" s="4">
         <v>0.661</v>
       </c>
-      <c r="F772" s="21">
+      <c r="F772" s="4">
         <v>0.6949</v>
       </c>
-      <c r="G772" s="21">
+      <c r="G772" s="4">
         <v>0.7732</v>
       </c>
-      <c r="H772" s="21">
+      <c r="H772" s="4">
         <v>0.4771</v>
       </c>
-      <c r="I772" s="21">
+      <c r="I772" s="4">
         <v>0.6554</v>
       </c>
-      <c r="J772" s="21">
+      <c r="J772" s="4">
         <v>0.7123</v>
       </c>
     </row>
@@ -20422,31 +20421,31 @@
       <c r="A773" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B773" s="21">
+      <c r="B773" s="4">
         <v>0.8066</v>
       </c>
-      <c r="C773" s="21">
+      <c r="C773" s="4">
         <v>0.7339</v>
       </c>
-      <c r="D773" s="21">
+      <c r="D773" s="4">
         <v>0.821</v>
       </c>
-      <c r="E773" s="21">
+      <c r="E773" s="4">
         <v>0.715</v>
       </c>
-      <c r="F773" s="21">
+      <c r="F773" s="4">
         <v>0.7735</v>
       </c>
-      <c r="G773" s="21">
+      <c r="G773" s="4">
         <v>0.8617</v>
       </c>
-      <c r="H773" s="21">
+      <c r="H773" s="4">
         <v>0.6431</v>
       </c>
-      <c r="I773" s="21">
+      <c r="I773" s="4">
         <v>0.6955</v>
       </c>
-      <c r="J773" s="21">
+      <c r="J773" s="4">
         <v>0.7774</v>
       </c>
     </row>
@@ -20454,31 +20453,31 @@
       <c r="A774" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B774" s="21">
+      <c r="B774" s="4">
         <v>0.7285</v>
       </c>
-      <c r="C774" s="21">
+      <c r="C774" s="4">
         <v>0.775</v>
       </c>
-      <c r="D774" s="21">
+      <c r="D774" s="4">
         <v>0.7194</v>
       </c>
-      <c r="E774" s="21">
+      <c r="E774" s="4">
         <v>0.6496</v>
       </c>
-      <c r="F774" s="21">
+      <c r="F774" s="4">
         <v>0.7445</v>
       </c>
-      <c r="G774" s="21">
+      <c r="G774" s="4">
         <v>0.8395</v>
       </c>
-      <c r="H774" s="21">
+      <c r="H774" s="4">
         <v>0.5935</v>
       </c>
-      <c r="I774" s="21">
+      <c r="I774" s="4">
         <v>0.6483</v>
       </c>
-      <c r="J774" s="21">
+      <c r="J774" s="4">
         <v>0.7472</v>
       </c>
     </row>
@@ -20486,31 +20485,31 @@
       <c r="A775" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B775" s="21">
+      <c r="B775" s="4">
         <v>0.8066</v>
       </c>
-      <c r="C775" s="21">
+      <c r="C775" s="4">
         <v>0.7054</v>
       </c>
-      <c r="D775" s="21">
+      <c r="D775" s="4">
         <v>0.8266</v>
       </c>
-      <c r="E775" s="21">
+      <c r="E775" s="4">
         <v>0.7114</v>
       </c>
-      <c r="F775" s="21">
+      <c r="F775" s="4">
         <v>0.7623</v>
       </c>
-      <c r="G775" s="21">
+      <c r="G775" s="4">
         <v>0.83</v>
       </c>
-      <c r="H775" s="21">
+      <c r="H775" s="4">
         <v>0.6083</v>
       </c>
-      <c r="I775" s="21">
+      <c r="I775" s="4">
         <v>0.6915</v>
       </c>
-      <c r="J775" s="21">
+      <c r="J775" s="4">
         <v>0.766</v>
       </c>
     </row>
@@ -20518,31 +20517,31 @@
       <c r="A776" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B776" s="21">
+      <c r="B776" s="4">
         <v>0.8632</v>
       </c>
-      <c r="C776" s="21">
+      <c r="C776" s="4">
         <v>0.5783</v>
       </c>
-      <c r="D776" s="21">
+      <c r="D776" s="4">
         <v>0.9194</v>
       </c>
-      <c r="E776" s="21">
+      <c r="E776" s="4">
         <v>0.7502</v>
       </c>
-      <c r="F776" s="21">
+      <c r="F776" s="4">
         <v>0.7282</v>
       </c>
-      <c r="G776" s="21">
+      <c r="G776" s="4">
         <v>0.8354</v>
       </c>
-      <c r="H776" s="21">
+      <c r="H776" s="4">
         <v>0.6174</v>
       </c>
-      <c r="I776" s="21">
+      <c r="I776" s="4">
         <v>0.7538</v>
       </c>
-      <c r="J776" s="21">
+      <c r="J776" s="4">
         <v>0.7488</v>
       </c>
     </row>
@@ -20550,31 +20549,31 @@
       <c r="A777" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B777" s="21">
+      <c r="B777" s="4">
         <v>0.8868</v>
       </c>
-      <c r="C777" s="21">
+      <c r="C777" s="4">
         <v>0.4882</v>
       </c>
-      <c r="D777" s="21">
+      <c r="D777" s="4">
         <v>0.9653</v>
       </c>
-      <c r="E777" s="21">
+      <c r="E777" s="4">
         <v>0.7593</v>
       </c>
-      <c r="F777" s="21">
+      <c r="F777" s="4">
         <v>0.6847</v>
       </c>
-      <c r="G777" s="21">
+      <c r="G777" s="4">
         <v>0.8727</v>
       </c>
-      <c r="H777" s="21">
+      <c r="H777" s="4">
         <v>0.6771</v>
       </c>
-      <c r="I777" s="21">
+      <c r="I777" s="4">
         <v>0.8203</v>
       </c>
-      <c r="J777" s="21">
+      <c r="J777" s="4">
         <v>0.7268</v>
       </c>
     </row>
@@ -20582,31 +20581,31 @@
       <c r="A778" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B778" s="21">
+      <c r="B778" s="4">
         <v>0.8241</v>
       </c>
-      <c r="C778" s="21">
+      <c r="C778" s="4">
         <v>0.7013</v>
       </c>
-      <c r="D778" s="21">
+      <c r="D778" s="4">
         <v>0.8484</v>
       </c>
-      <c r="E778" s="21">
+      <c r="E778" s="4">
         <v>0.729</v>
       </c>
-      <c r="F778" s="21">
+      <c r="F778" s="4">
         <v>0.7702</v>
       </c>
-      <c r="G778" s="21">
+      <c r="G778" s="4">
         <v>0.8371</v>
       </c>
-      <c r="H778" s="21">
+      <c r="H778" s="4">
         <v>0.632</v>
       </c>
-      <c r="I778" s="21">
+      <c r="I778" s="4">
         <v>0.709</v>
       </c>
-      <c r="J778" s="21">
+      <c r="J778" s="4">
         <v>0.7748</v>
       </c>
     </row>
@@ -20614,31 +20613,31 @@
       <c r="A779" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B779" s="21">
+      <c r="B779" s="4">
         <v>0.8834</v>
       </c>
-      <c r="C779" s="21">
+      <c r="C779" s="4">
         <v>0.4554</v>
       </c>
-      <c r="D779" s="21">
+      <c r="D779" s="4">
         <v>0.9677</v>
       </c>
-      <c r="E779" s="21">
+      <c r="E779" s="4">
         <v>0.746</v>
       </c>
-      <c r="F779" s="21">
+      <c r="F779" s="4">
         <v>0.6616</v>
       </c>
-      <c r="G779" s="21">
+      <c r="G779" s="4">
         <v>0.8506</v>
       </c>
-      <c r="H779" s="21">
+      <c r="H779" s="4">
         <v>0.6394</v>
       </c>
-      <c r="I779" s="21">
+      <c r="I779" s="4">
         <v>0.8216</v>
       </c>
-      <c r="J779" s="21">
+      <c r="J779" s="4">
         <v>0.7116</v>
       </c>
     </row>
@@ -20646,31 +20645,31 @@
       <c r="A780" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B780" s="21">
+      <c r="B780" s="4">
         <v>0.8053</v>
       </c>
-      <c r="C780" s="21">
+      <c r="C780" s="4">
         <v>0.6849</v>
       </c>
-      <c r="D780" s="21">
+      <c r="D780" s="4">
         <v>0.829</v>
       </c>
-      <c r="E780" s="21">
+      <c r="E780" s="4">
         <v>0.7064</v>
       </c>
-      <c r="F780" s="21">
+      <c r="F780" s="4">
         <v>0.7524</v>
       </c>
-      <c r="G780" s="21">
+      <c r="G780" s="4">
         <v>0.8314</v>
       </c>
-      <c r="H780" s="21">
+      <c r="H780" s="4">
         <v>0.6168</v>
       </c>
-      <c r="I780" s="21">
+      <c r="I780" s="4">
         <v>0.6866</v>
       </c>
-      <c r="J780" s="21">
+      <c r="J780" s="4">
         <v>0.7569</v>
       </c>
     </row>
@@ -20678,31 +20677,31 @@
       <c r="A781" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B781" s="21">
+      <c r="B781" s="4">
         <v>0.8814</v>
       </c>
-      <c r="C781" s="21">
+      <c r="C781" s="4">
         <v>0.4676</v>
       </c>
-      <c r="D781" s="21">
+      <c r="D781" s="4">
         <v>0.9629</v>
       </c>
-      <c r="E781" s="21">
+      <c r="E781" s="4">
         <v>0.7468</v>
       </c>
-      <c r="F781" s="21">
+      <c r="F781" s="4">
         <v>0.6694</v>
       </c>
-      <c r="G781" s="21">
+      <c r="G781" s="4">
         <v>0.8481</v>
       </c>
-      <c r="H781" s="21">
+      <c r="H781" s="4">
         <v>0.6316</v>
       </c>
-      <c r="I781" s="21">
+      <c r="I781" s="4">
         <v>0.8091</v>
       </c>
-      <c r="J781" s="21">
+      <c r="J781" s="4">
         <v>0.7153</v>
       </c>
     </row>
@@ -20710,31 +20709,31 @@
       <c r="A782" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B782" s="21">
+      <c r="B782" s="4">
         <v>0.8423</v>
       </c>
-      <c r="C782" s="21">
+      <c r="C782" s="4">
         <v>0.5374</v>
       </c>
-      <c r="D782" s="21">
+      <c r="D782" s="4">
         <v>0.9024</v>
       </c>
-      <c r="E782" s="21">
+      <c r="E782" s="4">
         <v>0.7166</v>
       </c>
-      <c r="F782" s="21">
+      <c r="F782" s="4">
         <v>0.6942</v>
       </c>
-      <c r="G782" s="21">
+      <c r="G782" s="4">
         <v>0.8186</v>
       </c>
-      <c r="H782" s="21">
+      <c r="H782" s="4">
         <v>0.5136</v>
       </c>
-      <c r="I782" s="21">
+      <c r="I782" s="4">
         <v>0.7184</v>
       </c>
-      <c r="J782" s="21">
+      <c r="J782" s="4">
         <v>0.7199</v>
       </c>
     </row>
@@ -20797,15 +20796,13 @@
       <c r="B787" s="6">
         <v>0.8847</v>
       </c>
-      <c r="C787"/>
-      <c r="D787"/>
-      <c r="E787" s="10">
+      <c r="E787" s="11">
         <v>0.7681</v>
       </c>
       <c r="F787" s="6">
         <v>0.7169</v>
       </c>
-      <c r="G787" s="10">
+      <c r="G787" s="11">
         <v>0.8647</v>
       </c>
       <c r="H787" s="8">
@@ -20850,31 +20847,31 @@
       <c r="A791" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B791" s="21">
+      <c r="B791" s="4">
         <v>0.9434</v>
       </c>
-      <c r="C791" s="21">
+      <c r="C791" s="4">
         <v>0.7364</v>
       </c>
-      <c r="D791" s="21">
+      <c r="D791" s="4">
         <v>0.969</v>
       </c>
-      <c r="E791" s="21">
+      <c r="E791" s="4">
         <v>0.855</v>
       </c>
-      <c r="F791" s="21">
+      <c r="F791" s="4">
         <v>0.8445</v>
       </c>
-      <c r="G791" s="21">
+      <c r="G791" s="4">
         <v>0.9737</v>
       </c>
-      <c r="H791" s="21">
+      <c r="H791" s="4">
         <v>0.8249</v>
       </c>
-      <c r="I791" s="21">
+      <c r="I791" s="4">
         <v>0.8579</v>
       </c>
-      <c r="J791" s="21">
+      <c r="J791" s="4">
         <v>0.8527</v>
       </c>
     </row>
@@ -20882,31 +20879,31 @@
       <c r="A792" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B792" s="21">
+      <c r="B792" s="4">
         <v>0.9501</v>
       </c>
-      <c r="C792" s="21">
+      <c r="C792" s="4">
         <v>0.8775</v>
       </c>
-      <c r="D792" s="21">
+      <c r="D792" s="4">
         <v>0.9591</v>
       </c>
-      <c r="E792" s="21">
+      <c r="E792" s="4">
         <v>0.884</v>
       </c>
-      <c r="F792" s="21">
+      <c r="F792" s="4">
         <v>0.9171</v>
       </c>
-      <c r="G792" s="21">
+      <c r="G792" s="4">
         <v>0.9701</v>
       </c>
-      <c r="H792" s="21">
+      <c r="H792" s="4">
         <v>0.8315</v>
       </c>
-      <c r="I792" s="21">
+      <c r="I792" s="4">
         <v>0.859</v>
       </c>
-      <c r="J792" s="21">
+      <c r="J792" s="4">
         <v>0.9183</v>
       </c>
     </row>
@@ -20914,31 +20911,31 @@
       <c r="A793" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B793" s="21">
+      <c r="B793" s="4">
         <v>0.9367</v>
       </c>
-      <c r="C793" s="21">
+      <c r="C793" s="4">
         <v>0.9324</v>
       </c>
-      <c r="D793" s="21">
+      <c r="D793" s="4">
         <v>0.9372</v>
       </c>
-      <c r="E793" s="21">
+      <c r="E793" s="4">
         <v>0.8652</v>
       </c>
-      <c r="F793" s="21">
+      <c r="F793" s="4">
         <v>0.9344</v>
       </c>
-      <c r="G793" s="21">
+      <c r="G793" s="4">
         <v>0.9718</v>
       </c>
-      <c r="H793" s="21">
+      <c r="H793" s="4">
         <v>0.8177</v>
       </c>
-      <c r="I793" s="21">
+      <c r="I793" s="4">
         <v>0.8242</v>
       </c>
-      <c r="J793" s="21">
+      <c r="J793" s="4">
         <v>0.9348</v>
       </c>
     </row>
@@ -20946,31 +20943,31 @@
       <c r="A794" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B794" s="21">
+      <c r="B794" s="4">
         <v>0.9347</v>
       </c>
-      <c r="C794" s="21">
+      <c r="C794" s="4">
         <v>0.9201</v>
       </c>
-      <c r="D794" s="21">
+      <c r="D794" s="4">
         <v>0.9364</v>
       </c>
-      <c r="E794" s="21">
+      <c r="E794" s="4">
         <v>0.8599</v>
       </c>
-      <c r="F794" s="21">
+      <c r="F794" s="4">
         <v>0.9277</v>
       </c>
-      <c r="G794" s="21">
+      <c r="G794" s="4">
         <v>0.9788</v>
       </c>
-      <c r="H794" s="21">
+      <c r="H794" s="4">
         <v>0.8465</v>
       </c>
-      <c r="I794" s="21">
+      <c r="I794" s="4">
         <v>0.8194</v>
       </c>
-      <c r="J794" s="21">
+      <c r="J794" s="4">
         <v>0.9282</v>
       </c>
     </row>
@@ -20978,31 +20975,31 @@
       <c r="A795" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B795" s="21">
+      <c r="B795" s="4">
         <v>0.9151</v>
       </c>
-      <c r="C795" s="21">
+      <c r="C795" s="4">
         <v>0.7964</v>
       </c>
-      <c r="D795" s="21">
+      <c r="D795" s="4">
         <v>0.9296</v>
       </c>
-      <c r="E795" s="21">
+      <c r="E795" s="4">
         <v>0.8109</v>
       </c>
-      <c r="F795" s="21">
+      <c r="F795" s="4">
         <v>0.8578</v>
       </c>
-      <c r="G795" s="21">
+      <c r="G795" s="4">
         <v>0.9435</v>
       </c>
-      <c r="H795" s="21">
+      <c r="H795" s="4">
         <v>0.6991</v>
       </c>
-      <c r="I795" s="21">
+      <c r="I795" s="4">
         <v>0.7801</v>
       </c>
-      <c r="J795" s="21">
+      <c r="J795" s="4">
         <v>0.863</v>
       </c>
     </row>
@@ -21010,31 +21007,31 @@
       <c r="A796" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B796" s="21">
+      <c r="B796" s="4">
         <v>0.9319</v>
       </c>
-      <c r="C796" s="21">
+      <c r="C796" s="4">
         <v>0.9447</v>
       </c>
-      <c r="D796" s="21">
+      <c r="D796" s="4">
         <v>0.9304</v>
       </c>
-      <c r="E796" s="21">
+      <c r="E796" s="4">
         <v>0.8572</v>
       </c>
-      <c r="F796" s="21">
+      <c r="F796" s="4">
         <v>0.9374</v>
       </c>
-      <c r="G796" s="21">
+      <c r="G796" s="4">
         <v>0.9736</v>
       </c>
-      <c r="H796" s="21">
+      <c r="H796" s="4">
         <v>0.838</v>
       </c>
-      <c r="I796" s="21">
+      <c r="I796" s="4">
         <v>0.8105</v>
       </c>
-      <c r="J796" s="21">
+      <c r="J796" s="4">
         <v>0.9375</v>
       </c>
     </row>
@@ -21042,31 +21039,31 @@
       <c r="A797" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B797" s="21">
+      <c r="B797" s="4">
         <v>0.8976</v>
       </c>
-      <c r="C797" s="21">
+      <c r="C797" s="4">
         <v>0.9449</v>
       </c>
-      <c r="D797" s="21">
+      <c r="D797" s="4">
         <v>0.8918</v>
       </c>
-      <c r="E797" s="21">
+      <c r="E797" s="4">
         <v>0.808</v>
       </c>
-      <c r="F797" s="21">
+      <c r="F797" s="4">
         <v>0.9178</v>
       </c>
-      <c r="G797" s="21">
+      <c r="G797" s="4">
         <v>0.9673</v>
       </c>
-      <c r="H797" s="21">
+      <c r="H797" s="4">
         <v>0.7392</v>
       </c>
-      <c r="I797" s="21">
+      <c r="I797" s="4">
         <v>0.7626</v>
       </c>
-      <c r="J797" s="21">
+      <c r="J797" s="4">
         <v>0.9183</v>
       </c>
     </row>
@@ -21074,31 +21071,31 @@
       <c r="A798" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B798" s="21">
+      <c r="B798" s="4">
         <v>0.9367</v>
       </c>
-      <c r="C798" s="21">
+      <c r="C798" s="4">
         <v>0.8775</v>
       </c>
-      <c r="D798" s="21">
+      <c r="D798" s="4">
         <v>0.944</v>
       </c>
-      <c r="E798" s="21">
+      <c r="E798" s="4">
         <v>0.8595</v>
       </c>
-      <c r="F798" s="21">
+      <c r="F798" s="4">
         <v>0.9098</v>
       </c>
-      <c r="G798" s="21">
+      <c r="G798" s="4">
         <v>0.964</v>
       </c>
-      <c r="H798" s="21">
+      <c r="H798" s="4">
         <v>0.7362</v>
       </c>
-      <c r="I798" s="21">
+      <c r="I798" s="4">
         <v>0.8263</v>
       </c>
-      <c r="J798" s="21">
+      <c r="J798" s="4">
         <v>0.9107</v>
       </c>
     </row>
@@ -21106,31 +21103,31 @@
       <c r="A799" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B799" s="21">
+      <c r="B799" s="4">
         <v>0.9461</v>
       </c>
-      <c r="C799" s="21">
+      <c r="C799" s="4">
         <v>0.8284</v>
       </c>
-      <c r="D799" s="21">
+      <c r="D799" s="4">
         <v>0.9606</v>
       </c>
-      <c r="E799" s="21">
+      <c r="E799" s="4">
         <v>0.8709</v>
       </c>
-      <c r="F799" s="21">
+      <c r="F799" s="4">
         <v>0.8917</v>
       </c>
-      <c r="G799" s="21">
+      <c r="G799" s="4">
         <v>0.9634</v>
       </c>
-      <c r="H799" s="21">
+      <c r="H799" s="4">
         <v>0.7494</v>
       </c>
-      <c r="I799" s="21">
+      <c r="I799" s="4">
         <v>0.8528</v>
       </c>
-      <c r="J799" s="21">
+      <c r="J799" s="4">
         <v>0.8945</v>
       </c>
     </row>
@@ -21138,31 +21135,31 @@
       <c r="A800" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B800" s="21">
+      <c r="B800" s="4">
         <v>0.9528</v>
       </c>
-      <c r="C800" s="21">
+      <c r="C800" s="4">
         <v>0.7487</v>
       </c>
-      <c r="D800" s="21">
+      <c r="D800" s="4">
         <v>0.9781</v>
       </c>
-      <c r="E800" s="21">
+      <c r="E800" s="4">
         <v>0.8753</v>
       </c>
-      <c r="F800" s="21">
+      <c r="F800" s="4">
         <v>0.8551</v>
       </c>
-      <c r="G800" s="21">
+      <c r="G800" s="4">
         <v>0.9743</v>
       </c>
-      <c r="H800" s="21">
+      <c r="H800" s="4">
         <v>0.8459</v>
       </c>
-      <c r="I800" s="21">
+      <c r="I800" s="4">
         <v>0.8905</v>
       </c>
-      <c r="J800" s="21">
+      <c r="J800" s="4">
         <v>0.8634</v>
       </c>
     </row>
@@ -21170,31 +21167,31 @@
       <c r="A801" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B801" s="21">
+      <c r="B801" s="4">
         <v>0.938</v>
       </c>
-      <c r="C801" s="21">
+      <c r="C801" s="4">
         <v>0.8589</v>
       </c>
-      <c r="D801" s="21">
+      <c r="D801" s="4">
         <v>0.9478</v>
       </c>
-      <c r="E801" s="21">
+      <c r="E801" s="4">
         <v>0.8597</v>
       </c>
-      <c r="F801" s="21">
+      <c r="F801" s="4">
         <v>0.9015</v>
       </c>
-      <c r="G801" s="21">
+      <c r="G801" s="4">
         <v>0.9679</v>
       </c>
-      <c r="H801" s="21">
+      <c r="H801" s="4">
         <v>0.7682</v>
       </c>
-      <c r="I801" s="21">
+      <c r="I801" s="4">
         <v>0.8319</v>
       </c>
-      <c r="J801" s="21">
+      <c r="J801" s="4">
         <v>0.9033</v>
       </c>
     </row>
@@ -21202,31 +21199,31 @@
       <c r="A802" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B802" s="21">
+      <c r="B802" s="4">
         <v>0.9501</v>
       </c>
-      <c r="C802" s="21">
+      <c r="C802" s="4">
         <v>0.7364</v>
       </c>
-      <c r="D802" s="21">
+      <c r="D802" s="4">
         <v>0.9765</v>
       </c>
-      <c r="E802" s="21">
+      <c r="E802" s="4">
         <v>0.869</v>
       </c>
-      <c r="F802" s="21">
+      <c r="F802" s="4">
         <v>0.848</v>
       </c>
-      <c r="G802" s="21">
+      <c r="G802" s="4">
         <v>0.9626</v>
       </c>
-      <c r="H802" s="21">
+      <c r="H802" s="4">
         <v>0.8018</v>
       </c>
-      <c r="I802" s="21">
+      <c r="I802" s="4">
         <v>0.8841</v>
       </c>
-      <c r="J802" s="21">
+      <c r="J802" s="4">
         <v>0.8564</v>
       </c>
     </row>
@@ -21234,31 +21231,31 @@
       <c r="A803" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B803" s="21">
+      <c r="B803" s="4">
         <v>0.9326</v>
       </c>
-      <c r="C803" s="21">
+      <c r="C803" s="4">
         <v>0.8839</v>
       </c>
-      <c r="D803" s="21">
+      <c r="D803" s="4">
         <v>0.9387</v>
       </c>
-      <c r="E803" s="21">
+      <c r="E803" s="4">
         <v>0.8543</v>
       </c>
-      <c r="F803" s="21">
+      <c r="F803" s="4">
         <v>0.9105</v>
       </c>
-      <c r="G803" s="21">
+      <c r="G803" s="4">
         <v>0.9624</v>
       </c>
-      <c r="H803" s="21">
+      <c r="H803" s="4">
         <v>0.7272</v>
       </c>
-      <c r="I803" s="21">
+      <c r="I803" s="4">
         <v>0.8198</v>
       </c>
-      <c r="J803" s="21">
+      <c r="J803" s="4">
         <v>0.9113</v>
       </c>
     </row>
@@ -21266,31 +21263,31 @@
       <c r="A804" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B804" s="21">
+      <c r="B804" s="4">
         <v>0.9488</v>
       </c>
-      <c r="C804" s="21">
+      <c r="C804" s="4">
         <v>0.7608</v>
       </c>
-      <c r="D804" s="21">
+      <c r="D804" s="4">
         <v>0.972</v>
       </c>
-      <c r="E804" s="21">
+      <c r="E804" s="4">
         <v>0.8691</v>
       </c>
-      <c r="F804" s="21">
+      <c r="F804" s="4">
         <v>0.8598</v>
       </c>
-      <c r="G804" s="21">
+      <c r="G804" s="4">
         <v>0.9653</v>
       </c>
-      <c r="H804" s="21">
+      <c r="H804" s="4">
         <v>0.8131</v>
       </c>
-      <c r="I804" s="21">
+      <c r="I804" s="4">
         <v>0.874</v>
       </c>
-      <c r="J804" s="21">
+      <c r="J804" s="4">
         <v>0.8664</v>
       </c>
     </row>
@@ -21298,31 +21295,31 @@
       <c r="A805" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B805" s="21">
+      <c r="B805" s="4">
         <v>0.938</v>
       </c>
-      <c r="C805" s="21">
+      <c r="C805" s="4">
         <v>0.7862</v>
       </c>
-      <c r="D805" s="21">
+      <c r="D805" s="4">
         <v>0.9569</v>
       </c>
-      <c r="E805" s="21">
+      <c r="E805" s="4">
         <v>0.8506</v>
       </c>
-      <c r="F805" s="21">
+      <c r="F805" s="4">
         <v>0.8662</v>
       </c>
-      <c r="G805" s="21">
+      <c r="G805" s="4">
         <v>0.9607</v>
       </c>
-      <c r="H805" s="21">
+      <c r="H805" s="4">
         <v>0.7502</v>
       </c>
-      <c r="I805" s="21">
+      <c r="I805" s="4">
         <v>0.8352</v>
       </c>
-      <c r="J805" s="21">
+      <c r="J805" s="4">
         <v>0.8715</v>
       </c>
     </row>
@@ -21383,18 +21380,16 @@
         <v>28</v>
       </c>
       <c r="B810" s="6"/>
-      <c r="C810"/>
-      <c r="D810"/>
-      <c r="E810" s="10">
+      <c r="E810" s="11">
         <v>0.8756</v>
       </c>
-      <c r="F810" s="22">
+      <c r="F810" s="11">
         <v>0.9737</v>
       </c>
-      <c r="G810" s="10">
+      <c r="G810" s="11">
         <v>0.9737</v>
       </c>
-      <c r="H810" s="10">
+      <c r="H810" s="11">
         <v>0.8447</v>
       </c>
       <c r="I810" s="6"/>
@@ -21436,31 +21431,31 @@
       <c r="A814" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B814" s="21">
+      <c r="B814" s="4">
         <v>0.9313</v>
       </c>
-      <c r="C814" s="21">
+      <c r="C814" s="4">
         <v>0.6855</v>
       </c>
-      <c r="D814" s="21">
+      <c r="D814" s="4">
         <v>0.94</v>
       </c>
-      <c r="E814" s="21">
+      <c r="E814" s="4">
         <v>0.6827</v>
       </c>
-      <c r="F814" s="21">
+      <c r="F814" s="4">
         <v>0.7964</v>
       </c>
-      <c r="G814" s="21">
+      <c r="G814" s="4">
         <v>0.9324</v>
       </c>
-      <c r="H814" s="21">
+      <c r="H814" s="4">
         <v>0.4665</v>
       </c>
-      <c r="I814" s="21">
+      <c r="I814" s="4">
         <v>0.639</v>
       </c>
-      <c r="J814" s="21">
+      <c r="J814" s="4">
         <v>0.8127</v>
       </c>
     </row>
@@ -21468,31 +21463,31 @@
       <c r="A815" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B815" s="21">
+      <c r="B815" s="4">
         <v>0.936</v>
       </c>
-      <c r="C815" s="21">
+      <c r="C815" s="4">
         <v>0.6855</v>
       </c>
-      <c r="D815" s="21">
+      <c r="D815" s="4">
         <v>0.9449</v>
       </c>
-      <c r="E815" s="21">
+      <c r="E815" s="4">
         <v>0.6942</v>
       </c>
-      <c r="F815" s="21">
+      <c r="F815" s="4">
         <v>0.8014</v>
       </c>
-      <c r="G815" s="21">
+      <c r="G815" s="4">
         <v>0.9152</v>
       </c>
-      <c r="H815" s="21">
+      <c r="H815" s="4">
         <v>0.4274</v>
       </c>
-      <c r="I815" s="21">
+      <c r="I815" s="4">
         <v>0.648</v>
       </c>
-      <c r="J815" s="21">
+      <c r="J815" s="4">
         <v>0.8152</v>
       </c>
     </row>
@@ -21500,31 +21495,31 @@
       <c r="A816" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B816" s="21">
+      <c r="B816" s="4">
         <v>0.845</v>
       </c>
-      <c r="C816" s="21">
+      <c r="C816" s="4">
         <v>0.8436</v>
       </c>
-      <c r="D816" s="21">
+      <c r="D816" s="4">
         <v>0.8451</v>
       </c>
-      <c r="E816" s="21">
+      <c r="E816" s="4">
         <v>0.5919</v>
       </c>
-      <c r="F816" s="21">
+      <c r="F816" s="4">
         <v>0.8406</v>
       </c>
-      <c r="G816" s="21">
+      <c r="G816" s="4">
         <v>0.9332</v>
       </c>
-      <c r="H816" s="21">
+      <c r="H816" s="4">
         <v>0.4003</v>
       </c>
-      <c r="I816" s="21">
+      <c r="I816" s="4">
         <v>0.5777</v>
       </c>
-      <c r="J816" s="21">
+      <c r="J816" s="4">
         <v>0.8444</v>
       </c>
     </row>
@@ -21532,31 +21527,31 @@
       <c r="A817" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B817" s="21">
+      <c r="B817" s="4">
         <v>0.8807</v>
       </c>
-      <c r="C817" s="21">
+      <c r="C817" s="4">
         <v>0.7455</v>
       </c>
-      <c r="D817" s="21">
+      <c r="D817" s="4">
         <v>0.8855</v>
       </c>
-      <c r="E817" s="21">
+      <c r="E817" s="4">
         <v>0.617</v>
       </c>
-      <c r="F817" s="21">
+      <c r="F817" s="4">
         <v>0.807</v>
       </c>
-      <c r="G817" s="21">
+      <c r="G817" s="4">
         <v>0.9207</v>
       </c>
-      <c r="H817" s="21">
+      <c r="H817" s="4">
         <v>0.387</v>
       </c>
-      <c r="I817" s="21">
+      <c r="I817" s="4">
         <v>0.5896</v>
       </c>
-      <c r="J817" s="21">
+      <c r="J817" s="4">
         <v>0.8155</v>
       </c>
     </row>
@@ -21564,31 +21559,31 @@
       <c r="A818" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B818" s="21">
+      <c r="B818" s="4">
         <v>0.7971</v>
       </c>
-      <c r="C818" s="21">
+      <c r="C818" s="4">
         <v>0.5109</v>
       </c>
-      <c r="D818" s="21">
+      <c r="D818" s="4">
         <v>0.8074</v>
       </c>
-      <c r="E818" s="21">
+      <c r="E818" s="4">
         <v>0.5158</v>
       </c>
-      <c r="F818" s="21">
+      <c r="F818" s="4">
         <v>0.633</v>
       </c>
-      <c r="G818" s="21">
+      <c r="G818" s="4">
         <v>0.7581</v>
       </c>
-      <c r="H818" s="21">
+      <c r="H818" s="4">
         <v>0.1449</v>
       </c>
-      <c r="I818" s="21">
+      <c r="I818" s="4">
         <v>0.5329</v>
       </c>
-      <c r="J818" s="21">
+      <c r="J818" s="4">
         <v>0.6591</v>
       </c>
     </row>
@@ -21596,31 +21591,31 @@
       <c r="A819" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B819" s="21">
+      <c r="B819" s="4">
         <v>0.8241</v>
       </c>
-      <c r="C819" s="21">
+      <c r="C819" s="4">
         <v>0.8218</v>
       </c>
-      <c r="D819" s="21">
+      <c r="D819" s="4">
         <v>0.8241</v>
       </c>
-      <c r="E819" s="21">
+      <c r="E819" s="4">
         <v>0.5713</v>
       </c>
-      <c r="F819" s="21">
+      <c r="F819" s="4">
         <v>0.8201</v>
       </c>
-      <c r="G819" s="21">
+      <c r="G819" s="4">
         <v>0.922</v>
       </c>
-      <c r="H819" s="21">
+      <c r="H819" s="4">
         <v>0.3734</v>
       </c>
-      <c r="I819" s="21">
+      <c r="I819" s="4">
         <v>0.5673</v>
       </c>
-      <c r="J819" s="21">
+      <c r="J819" s="4">
         <v>0.823</v>
       </c>
     </row>
@@ -21628,31 +21623,31 @@
       <c r="A820" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B820" s="21">
+      <c r="B820" s="4">
         <v>0.7197</v>
       </c>
-      <c r="C820" s="21">
+      <c r="C820" s="4">
         <v>0.98</v>
       </c>
-      <c r="D820" s="21">
+      <c r="D820" s="4">
         <v>0.7104</v>
       </c>
-      <c r="E820" s="21">
+      <c r="E820" s="4">
         <v>0.512</v>
       </c>
-      <c r="F820" s="21">
+      <c r="F820" s="4">
         <v>0.8342</v>
       </c>
-      <c r="G820" s="21">
+      <c r="G820" s="4">
         <v>0.921</v>
       </c>
-      <c r="H820" s="21">
+      <c r="H820" s="4">
         <v>0.2455</v>
       </c>
-      <c r="I820" s="21">
+      <c r="I820" s="4">
         <v>0.5533</v>
       </c>
-      <c r="J820" s="21">
+      <c r="J820" s="4">
         <v>0.8452</v>
       </c>
     </row>
@@ -21660,31 +21655,31 @@
       <c r="A821" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B821" s="21">
+      <c r="B821" s="4">
         <v>0.9117</v>
       </c>
-      <c r="C821" s="21">
+      <c r="C821" s="4">
         <v>0.5709</v>
       </c>
-      <c r="D821" s="21">
+      <c r="D821" s="4">
         <v>0.9239</v>
       </c>
-      <c r="E821" s="21">
+      <c r="E821" s="4">
         <v>0.6299</v>
       </c>
-      <c r="F821" s="21">
+      <c r="F821" s="4">
         <v>0.7241</v>
       </c>
-      <c r="G821" s="21">
+      <c r="G821" s="4">
         <v>0.8181</v>
       </c>
-      <c r="H821" s="21">
+      <c r="H821" s="4">
         <v>0.2985</v>
       </c>
-      <c r="I821" s="21">
+      <c r="I821" s="4">
         <v>0.5975</v>
       </c>
-      <c r="J821" s="21">
+      <c r="J821" s="4">
         <v>0.7474</v>
       </c>
     </row>
@@ -21692,31 +21687,31 @@
       <c r="A822" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B822" s="21">
+      <c r="B822" s="4">
         <v>0.9549</v>
       </c>
-      <c r="C822" s="21">
+      <c r="C822" s="4">
         <v>0.4164</v>
       </c>
-      <c r="D822" s="21">
+      <c r="D822" s="4">
         <v>0.9742</v>
       </c>
-      <c r="E822" s="21">
+      <c r="E822" s="4">
         <v>0.6801</v>
       </c>
-      <c r="F822" s="21">
+      <c r="F822" s="4">
         <v>0.6263</v>
       </c>
-      <c r="G822" s="21">
+      <c r="G822" s="4">
         <v>0.8114</v>
       </c>
-      <c r="H822" s="21">
+      <c r="H822" s="4">
         <v>0.2884</v>
       </c>
-      <c r="I822" s="21">
+      <c r="I822" s="4">
         <v>0.6714</v>
       </c>
-      <c r="J822" s="21">
+      <c r="J822" s="4">
         <v>0.6953</v>
       </c>
     </row>
@@ -21724,31 +21719,31 @@
       <c r="A823" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B823" s="21">
+      <c r="B823" s="4">
         <v>0.969</v>
       </c>
-      <c r="C823" s="21">
+      <c r="C823" s="4">
         <v>0.2127</v>
       </c>
-      <c r="D823" s="21">
+      <c r="D823" s="4">
         <v>0.9958</v>
       </c>
-      <c r="E823" s="21">
+      <c r="E823" s="4">
         <v>0.6541</v>
       </c>
-      <c r="F823" s="21">
+      <c r="F823" s="4">
         <v>0.4454</v>
       </c>
-      <c r="G823" s="21">
+      <c r="G823" s="4">
         <v>0.9314</v>
       </c>
-      <c r="H823" s="21">
+      <c r="H823" s="4">
         <v>0.5071</v>
       </c>
-      <c r="I823" s="21">
+      <c r="I823" s="4">
         <v>0.853</v>
       </c>
-      <c r="J823" s="21">
+      <c r="J823" s="4">
         <v>0.6043</v>
       </c>
     </row>
@@ -21756,31 +21751,31 @@
       <c r="A824" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B824" s="21">
+      <c r="B824" s="4">
         <v>0.9279</v>
       </c>
-      <c r="C824" s="21">
+      <c r="C824" s="4">
         <v>0.7073</v>
       </c>
-      <c r="D824" s="21">
+      <c r="D824" s="4">
         <v>0.9358</v>
       </c>
-      <c r="E824" s="21">
+      <c r="E824" s="4">
         <v>0.6832</v>
       </c>
-      <c r="F824" s="21">
+      <c r="F824" s="4">
         <v>0.8081</v>
       </c>
-      <c r="G824" s="21">
+      <c r="G824" s="4">
         <v>0.8675</v>
       </c>
-      <c r="H824" s="21">
+      <c r="H824" s="4">
         <v>0.3828</v>
       </c>
-      <c r="I824" s="21">
+      <c r="I824" s="4">
         <v>0.6382</v>
       </c>
-      <c r="J824" s="21">
+      <c r="J824" s="4">
         <v>0.8215</v>
       </c>
     </row>
@@ -21788,31 +21783,31 @@
       <c r="A825" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B825" s="21">
+      <c r="B825" s="4">
         <v>0.9663</v>
       </c>
-      <c r="C825" s="21">
+      <c r="C825" s="4">
         <v>0.1564</v>
       </c>
-      <c r="D825" s="21">
+      <c r="D825" s="4">
         <v>0.9951</v>
       </c>
-      <c r="E825" s="21">
+      <c r="E825" s="4">
         <v>0.6069</v>
       </c>
-      <c r="F825" s="21">
+      <c r="F825" s="4">
         <v>0.3466</v>
       </c>
-      <c r="G825" s="21">
+      <c r="G825" s="4">
         <v>0.899</v>
       </c>
-      <c r="H825" s="21">
+      <c r="H825" s="4">
         <v>0.4331</v>
       </c>
-      <c r="I825" s="21">
+      <c r="I825" s="4">
         <v>0.7304</v>
       </c>
-      <c r="J825" s="21">
+      <c r="J825" s="4">
         <v>0.5757</v>
       </c>
     </row>
@@ -21820,31 +21815,31 @@
       <c r="A826" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B826" s="21">
+      <c r="B826" s="4">
         <v>0.9137</v>
       </c>
-      <c r="C826" s="21">
+      <c r="C826" s="4">
         <v>0.5909</v>
       </c>
-      <c r="D826" s="21">
+      <c r="D826" s="4">
         <v>0.9253</v>
       </c>
-      <c r="E826" s="21">
+      <c r="E826" s="4">
         <v>0.6367</v>
       </c>
-      <c r="F826" s="21">
+      <c r="F826" s="4">
         <v>0.7366</v>
       </c>
-      <c r="G826" s="21">
+      <c r="G826" s="4">
         <v>0.8118</v>
       </c>
-      <c r="H826" s="21">
+      <c r="H826" s="4">
         <v>0.303</v>
       </c>
-      <c r="I826" s="21">
+      <c r="I826" s="4">
         <v>0.6022</v>
       </c>
-      <c r="J826" s="21">
+      <c r="J826" s="4">
         <v>0.7581</v>
       </c>
     </row>
@@ -21852,31 +21847,31 @@
       <c r="A827" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B827" s="21">
+      <c r="B827" s="4">
         <v>0.969</v>
       </c>
-      <c r="C827" s="21">
+      <c r="C827" s="4">
         <v>0.2345</v>
       </c>
-      <c r="D827" s="21">
+      <c r="D827" s="4">
         <v>0.9951</v>
       </c>
-      <c r="E827" s="21">
+      <c r="E827" s="4">
         <v>0.6644</v>
       </c>
-      <c r="F827" s="21">
+      <c r="F827" s="4">
         <v>0.4752</v>
       </c>
-      <c r="G827" s="21">
+      <c r="G827" s="4">
         <v>0.925</v>
       </c>
-      <c r="H827" s="21">
+      <c r="H827" s="4">
         <v>0.4569</v>
       </c>
-      <c r="I827" s="21">
+      <c r="I827" s="4">
         <v>0.8317</v>
       </c>
-      <c r="J827" s="21">
+      <c r="J827" s="4">
         <v>0.6148</v>
       </c>
     </row>
@@ -21884,31 +21879,31 @@
       <c r="A828" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B828" s="21">
+      <c r="B828" s="4">
         <v>0.9434</v>
       </c>
-      <c r="C828" s="21">
+      <c r="C828" s="4">
         <v>0.4945</v>
       </c>
-      <c r="D828" s="21">
+      <c r="D828" s="4">
         <v>0.9595</v>
       </c>
-      <c r="E828" s="21">
+      <c r="E828" s="4">
         <v>0.6683</v>
       </c>
-      <c r="F828" s="21">
+      <c r="F828" s="4">
         <v>0.6748</v>
       </c>
-      <c r="G828" s="21">
+      <c r="G828" s="4">
         <v>0.8361</v>
       </c>
-      <c r="H828" s="21">
+      <c r="H828" s="4">
         <v>0.3085</v>
       </c>
-      <c r="I828" s="21">
+      <c r="I828" s="4">
         <v>0.6407</v>
       </c>
-      <c r="J828" s="21">
+      <c r="J828" s="4">
         <v>0.727</v>
       </c>
     </row>
@@ -21969,18 +21964,16 @@
         <v>28</v>
       </c>
       <c r="B833" s="6"/>
-      <c r="C833"/>
-      <c r="D833"/>
-      <c r="E833" s="10">
+      <c r="E833" s="11">
         <v>0.7082</v>
       </c>
       <c r="F833" s="6">
         <v>0.6693</v>
       </c>
-      <c r="G833" s="10">
+      <c r="G833" s="11">
         <v>0.9368</v>
       </c>
-      <c r="H833" s="10">
+      <c r="H833" s="11">
         <v>0.4831</v>
       </c>
       <c r="I833" s="6"/>
@@ -22022,31 +22015,31 @@
       <c r="A837" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B837" s="21">
+      <c r="B837" s="4">
         <v>0.8798</v>
       </c>
-      <c r="C837" s="21">
+      <c r="C837" s="4">
         <v>0.7984</v>
       </c>
-      <c r="D837" s="21">
+      <c r="D837" s="4">
         <v>0.9201</v>
       </c>
-      <c r="E837" s="21">
+      <c r="E837" s="4">
         <v>0.8629</v>
       </c>
-      <c r="F837" s="21">
+      <c r="F837" s="4">
         <v>0.857</v>
       </c>
-      <c r="G837" s="21">
+      <c r="G837" s="4">
         <v>0.9519</v>
       </c>
-      <c r="H837" s="21">
+      <c r="H837" s="4">
         <v>0.9099</v>
       </c>
-      <c r="I837" s="21">
+      <c r="I837" s="4">
         <v>0.8673</v>
       </c>
-      <c r="J837" s="21">
+      <c r="J837" s="4">
         <v>0.8593</v>
       </c>
     </row>
@@ -22054,31 +22047,31 @@
       <c r="A838" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B838" s="21">
+      <c r="B838" s="4">
         <v>0.8682</v>
       </c>
-      <c r="C838" s="21">
+      <c r="C838" s="4">
         <v>0.8166</v>
       </c>
-      <c r="D838" s="21">
+      <c r="D838" s="4">
         <v>0.8938</v>
       </c>
-      <c r="E838" s="21">
+      <c r="E838" s="4">
         <v>0.8524</v>
       </c>
-      <c r="F838" s="21">
+      <c r="F838" s="4">
         <v>0.8542</v>
       </c>
-      <c r="G838" s="21">
+      <c r="G838" s="4">
         <v>0.9486</v>
       </c>
-      <c r="H838" s="21">
+      <c r="H838" s="4">
         <v>0.9037</v>
       </c>
-      <c r="I838" s="21">
+      <c r="I838" s="4">
         <v>0.8501</v>
       </c>
-      <c r="J838" s="21">
+      <c r="J838" s="4">
         <v>0.8552</v>
       </c>
     </row>
@@ -22086,31 +22079,31 @@
       <c r="A839" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B839" s="21">
+      <c r="B839" s="4">
         <v>0.8634</v>
       </c>
-      <c r="C839" s="21">
+      <c r="C839" s="4">
         <v>0.8455</v>
       </c>
-      <c r="D839" s="21">
+      <c r="D839" s="4">
         <v>0.8723</v>
       </c>
-      <c r="E839" s="21">
+      <c r="E839" s="4">
         <v>0.8496</v>
       </c>
-      <c r="F839" s="21">
+      <c r="F839" s="4">
         <v>0.8586</v>
       </c>
-      <c r="G839" s="21">
+      <c r="G839" s="4">
         <v>0.9473</v>
       </c>
-      <c r="H839" s="21">
+      <c r="H839" s="4">
         <v>0.9005</v>
       </c>
-      <c r="I839" s="21">
+      <c r="I839" s="4">
         <v>0.8433</v>
       </c>
-      <c r="J839" s="21">
+      <c r="J839" s="4">
         <v>0.8589</v>
       </c>
     </row>
@@ -22118,31 +22111,31 @@
       <c r="A840" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B840" s="21">
+      <c r="B840" s="4">
         <v>0.8458</v>
       </c>
-      <c r="C840" s="21">
+      <c r="C840" s="4">
         <v>0.8823</v>
       </c>
-      <c r="D840" s="21">
+      <c r="D840" s="4">
         <v>0.8277</v>
       </c>
-      <c r="E840" s="21">
+      <c r="E840" s="4">
         <v>0.8345</v>
       </c>
-      <c r="F840" s="21">
+      <c r="F840" s="4">
         <v>0.8545</v>
       </c>
-      <c r="G840" s="21">
+      <c r="G840" s="4">
         <v>0.9388</v>
       </c>
-      <c r="H840" s="21">
+      <c r="H840" s="4">
         <v>0.8885</v>
       </c>
-      <c r="I840" s="21">
+      <c r="I840" s="4">
         <v>0.8259</v>
       </c>
-      <c r="J840" s="21">
+      <c r="J840" s="4">
         <v>0.855</v>
       </c>
     </row>
@@ -22150,31 +22143,31 @@
       <c r="A841" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B841" s="21">
+      <c r="B841" s="4">
         <v>0.8636</v>
       </c>
-      <c r="C841" s="21">
+      <c r="C841" s="4">
         <v>0.8612</v>
       </c>
-      <c r="D841" s="21">
+      <c r="D841" s="4">
         <v>0.8648</v>
       </c>
-      <c r="E841" s="21">
+      <c r="E841" s="4">
         <v>0.8508</v>
       </c>
-      <c r="F841" s="21">
+      <c r="F841" s="4">
         <v>0.8629</v>
       </c>
-      <c r="G841" s="21">
+      <c r="G841" s="4">
         <v>0.9435</v>
       </c>
-      <c r="H841" s="21">
+      <c r="H841" s="4">
         <v>0.8917</v>
       </c>
-      <c r="I841" s="21">
+      <c r="I841" s="4">
         <v>0.8432</v>
       </c>
-      <c r="J841" s="21">
+      <c r="J841" s="4">
         <v>0.863</v>
       </c>
     </row>
@@ -22182,31 +22175,31 @@
       <c r="A842" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B842" s="21">
+      <c r="B842" s="4">
         <v>0.8658</v>
       </c>
-      <c r="C842" s="21">
+      <c r="C842" s="4">
         <v>0.8956</v>
       </c>
-      <c r="D842" s="21">
+      <c r="D842" s="4">
         <v>0.851</v>
       </c>
-      <c r="E842" s="21">
+      <c r="E842" s="4">
         <v>0.8551</v>
       </c>
-      <c r="F842" s="21">
+      <c r="F842" s="4">
         <v>0.8729</v>
       </c>
-      <c r="G842" s="21">
+      <c r="G842" s="4">
         <v>0.9536</v>
       </c>
-      <c r="H842" s="21">
+      <c r="H842" s="4">
         <v>0.9091</v>
       </c>
-      <c r="I842" s="21">
+      <c r="I842" s="4">
         <v>0.8461</v>
       </c>
-      <c r="J842" s="21">
+      <c r="J842" s="4">
         <v>0.8733</v>
       </c>
     </row>
@@ -22214,31 +22207,31 @@
       <c r="A843" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B843" s="21">
+      <c r="B843" s="4">
         <v>0.7808</v>
       </c>
-      <c r="C843" s="21">
+      <c r="C843" s="4">
         <v>0.9837</v>
       </c>
-      <c r="D843" s="21">
+      <c r="D843" s="4">
         <v>0.6802</v>
       </c>
-      <c r="E843" s="21">
+      <c r="E843" s="4">
         <v>0.7771</v>
       </c>
-      <c r="F843" s="21">
+      <c r="F843" s="4">
         <v>0.818</v>
       </c>
-      <c r="G843" s="21">
+      <c r="G843" s="4">
         <v>0.9469</v>
       </c>
-      <c r="H843" s="21">
+      <c r="H843" s="4">
         <v>0.8946</v>
       </c>
-      <c r="I843" s="21">
+      <c r="I843" s="4">
         <v>0.7962</v>
       </c>
-      <c r="J843" s="21">
+      <c r="J843" s="4">
         <v>0.832</v>
       </c>
     </row>
@@ -22246,31 +22239,31 @@
       <c r="A844" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B844" s="21">
+      <c r="B844" s="4">
         <v>0.8654</v>
       </c>
-      <c r="C844" s="21">
+      <c r="C844" s="4">
         <v>0.8697</v>
       </c>
-      <c r="D844" s="21">
+      <c r="D844" s="4">
         <v>0.8633</v>
       </c>
-      <c r="E844" s="21">
+      <c r="E844" s="4">
         <v>0.8531</v>
       </c>
-      <c r="F844" s="21">
+      <c r="F844" s="4">
         <v>0.8664</v>
       </c>
-      <c r="G844" s="21">
+      <c r="G844" s="4">
         <v>0.9479</v>
       </c>
-      <c r="H844" s="21">
+      <c r="H844" s="4">
         <v>0.9006</v>
       </c>
-      <c r="I844" s="21">
+      <c r="I844" s="4">
         <v>0.845</v>
       </c>
-      <c r="J844" s="21">
+      <c r="J844" s="4">
         <v>0.8665</v>
       </c>
     </row>
@@ -22278,31 +22271,31 @@
       <c r="A845" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B845" s="21">
+      <c r="B845" s="4">
         <v>0.8736</v>
       </c>
-      <c r="C845" s="21">
+      <c r="C845" s="4">
         <v>0.8413</v>
       </c>
-      <c r="D845" s="21">
+      <c r="D845" s="4">
         <v>0.8896</v>
       </c>
-      <c r="E845" s="21">
+      <c r="E845" s="4">
         <v>0.8595</v>
       </c>
-      <c r="F845" s="21">
+      <c r="F845" s="4">
         <v>0.8651</v>
       </c>
-      <c r="G845" s="21">
+      <c r="G845" s="4">
         <v>0.9477</v>
       </c>
-      <c r="H845" s="21">
+      <c r="H845" s="4">
         <v>0.9024</v>
       </c>
-      <c r="I845" s="21">
+      <c r="I845" s="4">
         <v>0.8548</v>
       </c>
-      <c r="J845" s="21">
+      <c r="J845" s="4">
         <v>0.8655</v>
       </c>
     </row>
@@ -22310,31 +22303,31 @@
       <c r="A846" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B846" s="21">
+      <c r="B846" s="4">
         <v>0.8802</v>
       </c>
-      <c r="C846" s="21">
+      <c r="C846" s="4">
         <v>0.8045</v>
       </c>
-      <c r="D846" s="21">
+      <c r="D846" s="4">
         <v>0.9177</v>
       </c>
-      <c r="E846" s="21">
+      <c r="E846" s="4">
         <v>0.8638</v>
       </c>
-      <c r="F846" s="21">
+      <c r="F846" s="4">
         <v>0.8591</v>
       </c>
-      <c r="G846" s="21">
+      <c r="G846" s="4">
         <v>0.9537</v>
       </c>
-      <c r="H846" s="21">
+      <c r="H846" s="4">
         <v>0.9159</v>
       </c>
-      <c r="I846" s="21">
+      <c r="I846" s="4">
         <v>0.867</v>
       </c>
-      <c r="J846" s="21">
+      <c r="J846" s="4">
         <v>0.8611</v>
       </c>
     </row>
@@ -22342,31 +22335,31 @@
       <c r="A847" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B847" s="21">
+      <c r="B847" s="4">
         <v>0.8668</v>
       </c>
-      <c r="C847" s="21">
+      <c r="C847" s="4">
         <v>0.8624</v>
       </c>
-      <c r="D847" s="21">
+      <c r="D847" s="4">
         <v>0.869</v>
       </c>
-      <c r="E847" s="21">
+      <c r="E847" s="4">
         <v>0.8541</v>
       </c>
-      <c r="F847" s="21">
+      <c r="F847" s="4">
         <v>0.8656</v>
       </c>
-      <c r="G847" s="21">
+      <c r="G847" s="4">
         <v>0.9472</v>
       </c>
-      <c r="H847" s="21">
+      <c r="H847" s="4">
         <v>0.9009</v>
       </c>
-      <c r="I847" s="21">
+      <c r="I847" s="4">
         <v>0.8466</v>
       </c>
-      <c r="J847" s="21">
+      <c r="J847" s="4">
         <v>0.8657</v>
       </c>
     </row>
@@ -22374,31 +22367,31 @@
       <c r="A848" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B848" s="21">
+      <c r="B848" s="4">
         <v>0.871</v>
       </c>
-      <c r="C848" s="21">
+      <c r="C848" s="4">
         <v>0.7635</v>
       </c>
-      <c r="D848" s="21">
+      <c r="D848" s="4">
         <v>0.9243</v>
       </c>
-      <c r="E848" s="21">
+      <c r="E848" s="4">
         <v>0.8511</v>
       </c>
-      <c r="F848" s="21">
+      <c r="F848" s="4">
         <v>0.84</v>
       </c>
-      <c r="G848" s="21">
+      <c r="G848" s="4">
         <v>0.9456</v>
       </c>
-      <c r="H848" s="21">
+      <c r="H848" s="4">
         <v>0.8991</v>
       </c>
-      <c r="I848" s="21">
+      <c r="I848" s="4">
         <v>0.8605</v>
       </c>
-      <c r="J848" s="21">
+      <c r="J848" s="4">
         <v>0.8439</v>
       </c>
     </row>
@@ -22406,31 +22399,31 @@
       <c r="A849" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B849" s="21">
+      <c r="B849" s="4">
         <v>0.8748</v>
       </c>
-      <c r="C849" s="21">
+      <c r="C849" s="4">
         <v>0.8787</v>
       </c>
-      <c r="D849" s="21">
+      <c r="D849" s="4">
         <v>0.8729</v>
       </c>
-      <c r="E849" s="21">
+      <c r="E849" s="4">
         <v>0.863</v>
       </c>
-      <c r="F849" s="21">
+      <c r="F849" s="4">
         <v>0.8757</v>
       </c>
-      <c r="G849" s="21">
+      <c r="G849" s="4">
         <v>0.9498</v>
       </c>
-      <c r="H849" s="21">
+      <c r="H849" s="4">
         <v>0.9053</v>
       </c>
-      <c r="I849" s="21">
+      <c r="I849" s="4">
         <v>0.8549</v>
       </c>
-      <c r="J849" s="21">
+      <c r="J849" s="4">
         <v>0.8758</v>
       </c>
     </row>
@@ -22438,31 +22431,31 @@
       <c r="A850" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B850" s="21">
+      <c r="B850" s="4">
         <v>0.8686</v>
       </c>
-      <c r="C850" s="21">
+      <c r="C850" s="4">
         <v>0.7816</v>
       </c>
-      <c r="D850" s="21">
+      <c r="D850" s="4">
         <v>0.9118</v>
       </c>
-      <c r="E850" s="21">
+      <c r="E850" s="4">
         <v>0.8502</v>
       </c>
-      <c r="F850" s="21">
+      <c r="F850" s="4">
         <v>0.8441</v>
       </c>
-      <c r="G850" s="21">
+      <c r="G850" s="4">
         <v>0.9462</v>
       </c>
-      <c r="H850" s="21">
+      <c r="H850" s="4">
         <v>0.8979</v>
       </c>
-      <c r="I850" s="21">
+      <c r="I850" s="4">
         <v>0.8543</v>
       </c>
-      <c r="J850" s="21">
+      <c r="J850" s="4">
         <v>0.8467</v>
       </c>
     </row>
@@ -22470,31 +22463,31 @@
       <c r="A851" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B851" s="21">
+      <c r="B851" s="4">
         <v>0.8744</v>
       </c>
-      <c r="C851" s="21">
+      <c r="C851" s="4">
         <v>0.8401</v>
       </c>
-      <c r="D851" s="21">
+      <c r="D851" s="4">
         <v>0.8914</v>
       </c>
-      <c r="E851" s="21">
+      <c r="E851" s="4">
         <v>0.8603</v>
       </c>
-      <c r="F851" s="21">
+      <c r="F851" s="4">
         <v>0.8653</v>
       </c>
-      <c r="G851" s="21">
+      <c r="G851" s="4">
         <v>0.9496</v>
       </c>
-      <c r="H851" s="21">
+      <c r="H851" s="4">
         <v>0.9075</v>
       </c>
-      <c r="I851" s="21">
+      <c r="I851" s="4">
         <v>0.856</v>
       </c>
-      <c r="J851" s="21">
+      <c r="J851" s="4">
         <v>0.8658</v>
       </c>
     </row>
@@ -22555,18 +22548,16 @@
         <v>28</v>
       </c>
       <c r="B856" s="6"/>
-      <c r="C856"/>
-      <c r="D856"/>
-      <c r="E856" s="10">
+      <c r="E856" s="11">
         <v>0.8715</v>
       </c>
       <c r="F856" s="6">
         <v>0.8506</v>
       </c>
-      <c r="G856" s="10">
+      <c r="G856" s="11">
         <v>0.9639</v>
       </c>
-      <c r="H856" s="10">
+      <c r="H856" s="11">
         <v>0.9356</v>
       </c>
       <c r="I856" s="6"/>
@@ -22608,31 +22599,31 @@
       <c r="A860" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B860" s="21">
+      <c r="B860" s="4">
         <v>0.9012</v>
       </c>
-      <c r="C860" s="21">
+      <c r="C860" s="4">
         <v>0.8622</v>
       </c>
-      <c r="D860" s="21">
+      <c r="D860" s="4">
         <v>0.9204</v>
       </c>
-      <c r="E860" s="21">
+      <c r="E860" s="4">
         <v>0.8889</v>
       </c>
-      <c r="F860" s="21">
+      <c r="F860" s="4">
         <v>0.8907</v>
       </c>
-      <c r="G860" s="21">
+      <c r="G860" s="4">
         <v>0.9661</v>
       </c>
-      <c r="H860" s="21">
+      <c r="H860" s="4">
         <v>0.9257</v>
       </c>
-      <c r="I860" s="21">
+      <c r="I860" s="4">
         <v>0.8872</v>
       </c>
-      <c r="J860" s="21">
+      <c r="J860" s="4">
         <v>0.8913</v>
       </c>
     </row>
@@ -22640,31 +22631,31 @@
       <c r="A861" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B861" s="21">
+      <c r="B861" s="4">
         <v>0.8928</v>
       </c>
-      <c r="C861" s="21">
+      <c r="C861" s="4">
         <v>0.8786</v>
       </c>
-      <c r="D861" s="21">
+      <c r="D861" s="4">
         <v>0.8998</v>
       </c>
-      <c r="E861" s="21">
+      <c r="E861" s="4">
         <v>0.881</v>
       </c>
-      <c r="F861" s="21">
+      <c r="F861" s="4">
         <v>0.8889</v>
       </c>
-      <c r="G861" s="21">
+      <c r="G861" s="4">
         <v>0.9626</v>
       </c>
-      <c r="H861" s="21">
+      <c r="H861" s="4">
         <v>0.9168</v>
       </c>
-      <c r="I861" s="21">
+      <c r="I861" s="4">
         <v>0.8751</v>
       </c>
-      <c r="J861" s="21">
+      <c r="J861" s="4">
         <v>0.8892</v>
       </c>
     </row>
@@ -22672,31 +22663,31 @@
       <c r="A862" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B862" s="21">
+      <c r="B862" s="4">
         <v>0.8884</v>
       </c>
-      <c r="C862" s="21">
+      <c r="C862" s="4">
         <v>0.8949</v>
       </c>
-      <c r="D862" s="21">
+      <c r="D862" s="4">
         <v>0.8852</v>
       </c>
-      <c r="E862" s="21">
+      <c r="E862" s="4">
         <v>0.8774</v>
       </c>
-      <c r="F862" s="21">
+      <c r="F862" s="4">
         <v>0.8899</v>
       </c>
-      <c r="G862" s="21">
+      <c r="G862" s="4">
         <v>0.9612</v>
       </c>
-      <c r="H862" s="21">
+      <c r="H862" s="4">
         <v>0.9135</v>
       </c>
-      <c r="I862" s="21">
+      <c r="I862" s="4">
         <v>0.8693</v>
       </c>
-      <c r="J862" s="21">
+      <c r="J862" s="4">
         <v>0.8901</v>
       </c>
     </row>
@@ -22704,31 +22695,31 @@
       <c r="A863" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B863" s="21">
+      <c r="B863" s="4">
         <v>0.8734</v>
       </c>
-      <c r="C863" s="21">
+      <c r="C863" s="4">
         <v>0.9174</v>
       </c>
-      <c r="D863" s="21">
+      <c r="D863" s="4">
         <v>0.8518</v>
       </c>
-      <c r="E863" s="21">
+      <c r="E863" s="4">
         <v>0.8635</v>
       </c>
-      <c r="F863" s="21">
+      <c r="F863" s="4">
         <v>0.8839</v>
       </c>
-      <c r="G863" s="21">
+      <c r="G863" s="4">
         <v>0.9518</v>
       </c>
-      <c r="H863" s="21">
+      <c r="H863" s="4">
         <v>0.8898</v>
       </c>
-      <c r="I863" s="21">
+      <c r="I863" s="4">
         <v>0.8539</v>
       </c>
-      <c r="J863" s="21">
+      <c r="J863" s="4">
         <v>0.8846</v>
       </c>
     </row>
@@ -22736,31 +22727,31 @@
       <c r="A864" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B864" s="21">
+      <c r="B864" s="4">
         <v>0.8798</v>
       </c>
-      <c r="C864" s="21">
+      <c r="C864" s="4">
         <v>0.878</v>
       </c>
-      <c r="D864" s="21">
+      <c r="D864" s="4">
         <v>0.8807</v>
       </c>
-      <c r="E864" s="21">
+      <c r="E864" s="4">
         <v>0.8678</v>
       </c>
-      <c r="F864" s="21">
+      <c r="F864" s="4">
         <v>0.8792</v>
       </c>
-      <c r="G864" s="21">
+      <c r="G864" s="4">
         <v>0.9499</v>
       </c>
-      <c r="H864" s="21">
+      <c r="H864" s="4">
         <v>0.8899</v>
       </c>
-      <c r="I864" s="21">
+      <c r="I864" s="4">
         <v>0.8602</v>
       </c>
-      <c r="J864" s="21">
+      <c r="J864" s="4">
         <v>0.8793</v>
       </c>
     </row>
@@ -22768,31 +22759,31 @@
       <c r="A865" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B865" s="21">
+      <c r="B865" s="4">
         <v>0.887</v>
       </c>
-      <c r="C865" s="21">
+      <c r="C865" s="4">
         <v>0.9478</v>
       </c>
-      <c r="D865" s="21">
+      <c r="D865" s="4">
         <v>0.8572</v>
       </c>
-      <c r="E865" s="21">
+      <c r="E865" s="4">
         <v>0.8787</v>
       </c>
-      <c r="F865" s="21">
+      <c r="F865" s="4">
         <v>0.9013</v>
       </c>
-      <c r="G865" s="21">
+      <c r="G865" s="4">
         <v>0.9641</v>
       </c>
-      <c r="H865" s="21">
+      <c r="H865" s="4">
         <v>0.9182</v>
       </c>
-      <c r="I865" s="21">
+      <c r="I865" s="4">
         <v>0.8684</v>
       </c>
-      <c r="J865" s="21">
+      <c r="J865" s="4">
         <v>0.9025</v>
       </c>
     </row>
@@ -22800,31 +22791,31 @@
       <c r="A866" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B866" s="21">
+      <c r="B866" s="4">
         <v>0.8322</v>
       </c>
-      <c r="C866" s="21">
+      <c r="C866" s="4">
         <v>0.9872</v>
       </c>
-      <c r="D866" s="21">
+      <c r="D866" s="4">
         <v>0.756</v>
       </c>
-      <c r="E866" s="21">
+      <c r="E866" s="4">
         <v>0.8265</v>
       </c>
-      <c r="F866" s="21">
+      <c r="F866" s="4">
         <v>0.8639</v>
       </c>
-      <c r="G866" s="21">
+      <c r="G866" s="4">
         <v>0.9572</v>
       </c>
-      <c r="H866" s="21">
+      <c r="H866" s="4">
         <v>0.8998</v>
       </c>
-      <c r="I866" s="21">
+      <c r="I866" s="4">
         <v>0.8288</v>
       </c>
-      <c r="J866" s="21">
+      <c r="J866" s="4">
         <v>0.8716</v>
       </c>
     </row>
@@ -22832,31 +22823,31 @@
       <c r="A867" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B867" s="21">
+      <c r="B867" s="4">
         <v>0.8902</v>
       </c>
-      <c r="C867" s="21">
+      <c r="C867" s="4">
         <v>0.898</v>
       </c>
-      <c r="D867" s="21">
+      <c r="D867" s="4">
         <v>0.8864</v>
       </c>
-      <c r="E867" s="21">
+      <c r="E867" s="4">
         <v>0.8794</v>
       </c>
-      <c r="F867" s="21">
+      <c r="F867" s="4">
         <v>0.8921</v>
       </c>
-      <c r="G867" s="21">
+      <c r="G867" s="4">
         <v>0.9591</v>
       </c>
-      <c r="H867" s="21">
+      <c r="H867" s="4">
         <v>0.9072</v>
       </c>
-      <c r="I867" s="21">
+      <c r="I867" s="4">
         <v>0.8712</v>
       </c>
-      <c r="J867" s="21">
+      <c r="J867" s="4">
         <v>0.8922</v>
       </c>
     </row>
@@ -22864,31 +22855,31 @@
       <c r="A868" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B868" s="21">
+      <c r="B868" s="4">
         <v>0.891</v>
       </c>
-      <c r="C868" s="21">
+      <c r="C868" s="4">
         <v>0.8634</v>
       </c>
-      <c r="D868" s="21">
+      <c r="D868" s="4">
         <v>0.9046</v>
       </c>
-      <c r="E868" s="21">
+      <c r="E868" s="4">
         <v>0.8784</v>
       </c>
-      <c r="F868" s="21">
+      <c r="F868" s="4">
         <v>0.8837</v>
       </c>
-      <c r="G868" s="21">
+      <c r="G868" s="4">
         <v>0.9572</v>
       </c>
-      <c r="H868" s="21">
+      <c r="H868" s="4">
         <v>0.9044</v>
       </c>
-      <c r="I868" s="21">
+      <c r="I868" s="4">
         <v>0.874</v>
       </c>
-      <c r="J868" s="21">
+      <c r="J868" s="4">
         <v>0.884</v>
       </c>
     </row>
@@ -22896,31 +22887,31 @@
       <c r="A869" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B869" s="21">
+      <c r="B869" s="4">
         <v>0.8976</v>
       </c>
-      <c r="C869" s="21">
+      <c r="C869" s="4">
         <v>0.8609</v>
       </c>
-      <c r="D869" s="21">
+      <c r="D869" s="4">
         <v>0.9156</v>
       </c>
-      <c r="E869" s="21">
+      <c r="E869" s="4">
         <v>0.8851</v>
       </c>
-      <c r="F869" s="21">
+      <c r="F869" s="4">
         <v>0.8878</v>
       </c>
-      <c r="G869" s="21">
+      <c r="G869" s="4">
         <v>0.9655</v>
       </c>
-      <c r="H869" s="21">
+      <c r="H869" s="4">
         <v>0.9282</v>
       </c>
-      <c r="I869" s="21">
+      <c r="I869" s="4">
         <v>0.8823</v>
       </c>
-      <c r="J869" s="21">
+      <c r="J869" s="4">
         <v>0.8883</v>
       </c>
     </row>
@@ -22928,31 +22919,31 @@
       <c r="A870" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B870" s="21">
+      <c r="B870" s="4">
         <v>0.8932</v>
       </c>
-      <c r="C870" s="21">
+      <c r="C870" s="4">
         <v>0.8865</v>
       </c>
-      <c r="D870" s="21">
+      <c r="D870" s="4">
         <v>0.8965</v>
       </c>
-      <c r="E870" s="21">
+      <c r="E870" s="4">
         <v>0.8819</v>
       </c>
-      <c r="F870" s="21">
+      <c r="F870" s="4">
         <v>0.8913</v>
       </c>
-      <c r="G870" s="21">
+      <c r="G870" s="4">
         <v>0.9578</v>
       </c>
-      <c r="H870" s="21">
+      <c r="H870" s="4">
         <v>0.9003</v>
       </c>
-      <c r="I870" s="21">
+      <c r="I870" s="4">
         <v>0.8751</v>
       </c>
-      <c r="J870" s="21">
+      <c r="J870" s="4">
         <v>0.8915</v>
       </c>
     </row>
@@ -22960,31 +22951,31 @@
       <c r="A871" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B871" s="21">
+      <c r="B871" s="4">
         <v>0.8878</v>
       </c>
-      <c r="C871" s="21">
+      <c r="C871" s="4">
         <v>0.8142</v>
       </c>
-      <c r="D871" s="21">
+      <c r="D871" s="4">
         <v>0.924</v>
       </c>
-      <c r="E871" s="21">
+      <c r="E871" s="4">
         <v>0.8719</v>
       </c>
-      <c r="F871" s="21">
+      <c r="F871" s="4">
         <v>0.867</v>
       </c>
-      <c r="G871" s="21">
+      <c r="G871" s="4">
         <v>0.9612</v>
       </c>
-      <c r="H871" s="21">
+      <c r="H871" s="4">
         <v>0.9145</v>
       </c>
-      <c r="I871" s="21">
+      <c r="I871" s="4">
         <v>0.8759</v>
       </c>
-      <c r="J871" s="21">
+      <c r="J871" s="4">
         <v>0.8691</v>
       </c>
     </row>
@@ -22992,31 +22983,31 @@
       <c r="A872" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B872" s="21">
+      <c r="B872" s="4">
         <v>0.8892</v>
       </c>
-      <c r="C872" s="21">
+      <c r="C872" s="4">
         <v>0.8919</v>
       </c>
-      <c r="D872" s="21">
+      <c r="D872" s="4">
         <v>0.8879</v>
       </c>
-      <c r="E872" s="21">
+      <c r="E872" s="4">
         <v>0.8781</v>
       </c>
-      <c r="F872" s="21">
+      <c r="F872" s="4">
         <v>0.8898</v>
       </c>
-      <c r="G872" s="21">
+      <c r="G872" s="4">
         <v>0.9582</v>
       </c>
-      <c r="H872" s="21">
+      <c r="H872" s="4">
         <v>0.9096</v>
       </c>
-      <c r="I872" s="21">
+      <c r="I872" s="4">
         <v>0.8701</v>
       </c>
-      <c r="J872" s="21">
+      <c r="J872" s="4">
         <v>0.8899</v>
       </c>
     </row>
@@ -23024,31 +23015,31 @@
       <c r="A873" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B873" s="21">
+      <c r="B873" s="4">
         <v>0.8888</v>
       </c>
-      <c r="C873" s="21">
+      <c r="C873" s="4">
         <v>0.8318</v>
       </c>
-      <c r="D873" s="21">
+      <c r="D873" s="4">
         <v>0.9168</v>
       </c>
-      <c r="E873" s="21">
+      <c r="E873" s="4">
         <v>0.8741</v>
       </c>
-      <c r="F873" s="21">
+      <c r="F873" s="4">
         <v>0.8729</v>
       </c>
-      <c r="G873" s="21">
+      <c r="G873" s="4">
         <v>0.9606</v>
       </c>
-      <c r="H873" s="21">
+      <c r="H873" s="4">
         <v>0.9125</v>
       </c>
-      <c r="I873" s="21">
+      <c r="I873" s="4">
         <v>0.8748</v>
       </c>
-      <c r="J873" s="21">
+      <c r="J873" s="4">
         <v>0.8743</v>
       </c>
     </row>
@@ -23056,31 +23047,31 @@
       <c r="A874" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B874" s="21">
+      <c r="B874" s="4">
         <v>0.8926</v>
       </c>
-      <c r="C874" s="21">
+      <c r="C874" s="4">
         <v>0.864</v>
       </c>
-      <c r="D874" s="21">
+      <c r="D874" s="4">
         <v>0.9067</v>
       </c>
-      <c r="E874" s="21">
+      <c r="E874" s="4">
         <v>0.88</v>
       </c>
-      <c r="F874" s="21">
+      <c r="F874" s="4">
         <v>0.885</v>
       </c>
-      <c r="G874" s="21">
+      <c r="G874" s="4">
         <v>0.9589</v>
       </c>
-      <c r="H874" s="21">
+      <c r="H874" s="4">
         <v>0.9123</v>
       </c>
-      <c r="I874" s="21">
+      <c r="I874" s="4">
         <v>0.8757</v>
       </c>
-      <c r="J874" s="21">
+      <c r="J874" s="4">
         <v>0.8853</v>
       </c>
     </row>
@@ -23141,18 +23132,16 @@
         <v>28</v>
       </c>
       <c r="B879" s="6"/>
-      <c r="C879"/>
-      <c r="D879"/>
-      <c r="E879" s="10">
+      <c r="E879" s="11">
         <v>0.8989</v>
       </c>
-      <c r="F879" s="22">
+      <c r="F879" s="11">
         <v>0.9015</v>
       </c>
-      <c r="G879" s="10">
+      <c r="G879" s="11">
         <v>0.9736</v>
       </c>
-      <c r="H879" s="10">
+      <c r="H879" s="11">
         <v>0.9464</v>
       </c>
       <c r="I879" s="6"/>
@@ -23194,31 +23183,31 @@
       <c r="A882" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B882" s="21">
+      <c r="B882" s="4">
         <v>0.9056</v>
       </c>
-      <c r="C882" s="21">
+      <c r="C882" s="4">
         <v>0.8762</v>
       </c>
-      <c r="D882" s="21">
+      <c r="D882" s="4">
         <v>0.9207</v>
       </c>
-      <c r="E882" s="21">
+      <c r="E882" s="4">
         <v>0.8955</v>
       </c>
-      <c r="F882" s="21">
+      <c r="F882" s="4">
         <v>0.8981</v>
       </c>
-      <c r="G882" s="21">
+      <c r="G882" s="4">
         <v>0.9689</v>
       </c>
-      <c r="H882" s="21">
+      <c r="H882" s="4">
         <v>0.93</v>
       </c>
-      <c r="I882" s="21">
+      <c r="I882" s="4">
         <v>0.8929</v>
       </c>
-      <c r="J882" s="21">
+      <c r="J882" s="4">
         <v>0.8984</v>
       </c>
     </row>
@@ -23226,31 +23215,31 @@
       <c r="A883" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B883" s="21">
+      <c r="B883" s="4">
         <v>0.8972</v>
       </c>
-      <c r="C883" s="21">
+      <c r="C883" s="4">
         <v>0.8998</v>
       </c>
-      <c r="D883" s="21">
+      <c r="D883" s="4">
         <v>0.8959</v>
       </c>
-      <c r="E883" s="21">
+      <c r="E883" s="4">
         <v>0.888</v>
       </c>
-      <c r="F883" s="21">
+      <c r="F883" s="4">
         <v>0.8978</v>
       </c>
-      <c r="G883" s="21">
+      <c r="G883" s="4">
         <v>0.9642</v>
       </c>
-      <c r="H883" s="21">
+      <c r="H883" s="4">
         <v>0.9182</v>
       </c>
-      <c r="I883" s="21">
+      <c r="I883" s="4">
         <v>0.881</v>
       </c>
-      <c r="J883" s="21">
+      <c r="J883" s="4">
         <v>0.8978</v>
       </c>
     </row>
@@ -23258,31 +23247,31 @@
       <c r="A884" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B884" s="21">
+      <c r="B884" s="4">
         <v>0.899</v>
       </c>
-      <c r="C884" s="21">
+      <c r="C884" s="4">
         <v>0.9192</v>
       </c>
-      <c r="D884" s="21">
+      <c r="D884" s="4">
         <v>0.8886</v>
       </c>
-      <c r="E884" s="21">
+      <c r="E884" s="4">
         <v>0.8907</v>
       </c>
-      <c r="F884" s="21">
+      <c r="F884" s="4">
         <v>0.9038</v>
       </c>
-      <c r="G884" s="21">
+      <c r="G884" s="4">
         <v>0.9628</v>
       </c>
-      <c r="H884" s="21">
+      <c r="H884" s="4">
         <v>0.9154</v>
       </c>
-      <c r="I884" s="21">
+      <c r="I884" s="4">
         <v>0.8824</v>
       </c>
-      <c r="J884" s="21">
+      <c r="J884" s="4">
         <v>0.9039</v>
       </c>
     </row>
@@ -23290,31 +23279,31 @@
       <c r="A885" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B885" s="21">
+      <c r="B885" s="4">
         <v>0.8882</v>
       </c>
-      <c r="C885" s="21">
+      <c r="C885" s="4">
         <v>0.9263</v>
       </c>
-      <c r="D885" s="21">
+      <c r="D885" s="4">
         <v>0.8686</v>
       </c>
-      <c r="E885" s="21">
+      <c r="E885" s="4">
         <v>0.8801</v>
       </c>
-      <c r="F885" s="21">
+      <c r="F885" s="4">
         <v>0.897</v>
       </c>
-      <c r="G885" s="21">
+      <c r="G885" s="4">
         <v>0.9576</v>
       </c>
-      <c r="H885" s="21">
+      <c r="H885" s="4">
         <v>0.9056</v>
       </c>
-      <c r="I885" s="21">
+      <c r="I885" s="4">
         <v>0.8709</v>
       </c>
-      <c r="J885" s="21">
+      <c r="J885" s="4">
         <v>0.8975</v>
       </c>
     </row>
@@ -23322,31 +23311,31 @@
       <c r="A886" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B886" s="21">
+      <c r="B886" s="4">
         <v>0.8716</v>
       </c>
-      <c r="C886" s="21">
+      <c r="C886" s="4">
         <v>0.8372</v>
       </c>
-      <c r="D886" s="21">
+      <c r="D886" s="4">
         <v>0.8892</v>
       </c>
-      <c r="E886" s="21">
+      <c r="E886" s="4">
         <v>0.8572</v>
       </c>
-      <c r="F886" s="21">
+      <c r="F886" s="4">
         <v>0.8611</v>
       </c>
-      <c r="G886" s="21">
+      <c r="G886" s="4">
         <v>0.9389</v>
       </c>
-      <c r="H886" s="21">
+      <c r="H886" s="4">
         <v>0.8735</v>
       </c>
-      <c r="I886" s="21">
+      <c r="I886" s="4">
         <v>0.8537</v>
       </c>
-      <c r="J886" s="21">
+      <c r="J886" s="4">
         <v>0.8632</v>
       </c>
     </row>
@@ -23354,31 +23343,31 @@
       <c r="A887" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B887" s="21">
+      <c r="B887" s="4">
         <v>0.8972</v>
       </c>
-      <c r="C887" s="21">
+      <c r="C887" s="4">
         <v>0.9552</v>
       </c>
-      <c r="D887" s="21">
+      <c r="D887" s="4">
         <v>0.8674</v>
       </c>
-      <c r="E887" s="21">
+      <c r="E887" s="4">
         <v>0.8904</v>
       </c>
-      <c r="F887" s="21">
+      <c r="F887" s="4">
         <v>0.9102</v>
       </c>
-      <c r="G887" s="21">
+      <c r="G887" s="4">
         <v>0.9677</v>
       </c>
-      <c r="H887" s="21">
+      <c r="H887" s="4">
         <v>0.9262</v>
       </c>
-      <c r="I887" s="21">
+      <c r="I887" s="4">
         <v>0.8808</v>
       </c>
-      <c r="J887" s="21">
+      <c r="J887" s="4">
         <v>0.9113</v>
       </c>
     </row>
@@ -23386,31 +23375,31 @@
       <c r="A888" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B888" s="21">
+      <c r="B888" s="4">
         <v>0.8482</v>
       </c>
-      <c r="C888" s="21">
+      <c r="C888" s="4">
         <v>0.9947</v>
       </c>
-      <c r="D888" s="21">
+      <c r="D888" s="4">
         <v>0.773</v>
       </c>
-      <c r="E888" s="21">
+      <c r="E888" s="4">
         <v>0.8435</v>
       </c>
-      <c r="F888" s="21">
+      <c r="F888" s="4">
         <v>0.8768</v>
       </c>
-      <c r="G888" s="21">
+      <c r="G888" s="4">
         <v>0.9671</v>
       </c>
-      <c r="H888" s="21">
+      <c r="H888" s="4">
         <v>0.928</v>
       </c>
-      <c r="I888" s="21">
+      <c r="I888" s="4">
         <v>0.8445</v>
       </c>
-      <c r="J888" s="21">
+      <c r="J888" s="4">
         <v>0.8838</v>
       </c>
     </row>
@@ -23418,31 +23407,31 @@
       <c r="A889" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B889" s="21">
+      <c r="B889" s="4">
         <v>0.8994</v>
       </c>
-      <c r="C889" s="21">
+      <c r="C889" s="4">
         <v>0.9098</v>
       </c>
-      <c r="D889" s="21">
+      <c r="D889" s="4">
         <v>0.8941</v>
       </c>
-      <c r="E889" s="21">
+      <c r="E889" s="4">
         <v>0.8907</v>
       </c>
-      <c r="F889" s="21">
+      <c r="F889" s="4">
         <v>0.9019</v>
       </c>
-      <c r="G889" s="21">
+      <c r="G889" s="4">
         <v>0.9657</v>
       </c>
-      <c r="H889" s="21">
+      <c r="H889" s="4">
         <v>0.9274</v>
       </c>
-      <c r="I889" s="21">
+      <c r="I889" s="4">
         <v>0.883</v>
       </c>
-      <c r="J889" s="21">
+      <c r="J889" s="4">
         <v>0.9019</v>
       </c>
     </row>
@@ -23450,31 +23439,31 @@
       <c r="A890" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B890" s="21">
+      <c r="B890" s="4">
         <v>0.9006</v>
       </c>
-      <c r="C890" s="21">
+      <c r="C890" s="4">
         <v>0.8886</v>
       </c>
-      <c r="D890" s="21">
+      <c r="D890" s="4">
         <v>0.9068</v>
       </c>
-      <c r="E890" s="21">
+      <c r="E890" s="4">
         <v>0.8909</v>
       </c>
-      <c r="F890" s="21">
+      <c r="F890" s="4">
         <v>0.8976</v>
       </c>
-      <c r="G890" s="21">
+      <c r="G890" s="4">
         <v>0.9654</v>
       </c>
-      <c r="H890" s="21">
+      <c r="H890" s="4">
         <v>0.9278</v>
       </c>
-      <c r="I890" s="21">
+      <c r="I890" s="4">
         <v>0.8855</v>
       </c>
-      <c r="J890" s="21">
+      <c r="J890" s="4">
         <v>0.8977</v>
       </c>
     </row>
@@ -23482,31 +23471,31 @@
       <c r="A891" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B891" s="21">
+      <c r="B891" s="4">
         <v>0.9062</v>
       </c>
-      <c r="C891" s="21">
+      <c r="C891" s="4">
         <v>0.8779</v>
       </c>
-      <c r="D891" s="21">
+      <c r="D891" s="4">
         <v>0.9207</v>
       </c>
-      <c r="E891" s="21">
+      <c r="E891" s="4">
         <v>0.8962</v>
       </c>
-      <c r="F891" s="21">
+      <c r="F891" s="4">
         <v>0.899</v>
       </c>
-      <c r="G891" s="21">
+      <c r="G891" s="4">
         <v>0.969</v>
       </c>
-      <c r="H891" s="21">
+      <c r="H891" s="4">
         <v>0.9354</v>
       </c>
-      <c r="I891" s="21">
+      <c r="I891" s="4">
         <v>0.8935</v>
       </c>
-      <c r="J891" s="21">
+      <c r="J891" s="4">
         <v>0.8993</v>
       </c>
     </row>
@@ -23514,31 +23503,31 @@
       <c r="A892" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B892" s="21">
+      <c r="B892" s="4">
         <v>0.8984</v>
       </c>
-      <c r="C892" s="21">
+      <c r="C892" s="4">
         <v>0.8891</v>
       </c>
-      <c r="D892" s="21">
+      <c r="D892" s="4">
         <v>0.9032</v>
       </c>
-      <c r="E892" s="21">
+      <c r="E892" s="4">
         <v>0.8887</v>
       </c>
-      <c r="F892" s="21">
+      <c r="F892" s="4">
         <v>0.8961</v>
       </c>
-      <c r="G892" s="21">
+      <c r="G892" s="4">
         <v>0.9646</v>
       </c>
-      <c r="H892" s="21">
+      <c r="H892" s="4">
         <v>0.924</v>
       </c>
-      <c r="I892" s="21">
+      <c r="I892" s="4">
         <v>0.8828</v>
       </c>
-      <c r="J892" s="21">
+      <c r="J892" s="4">
         <v>0.8961</v>
       </c>
     </row>
@@ -23546,31 +23535,31 @@
       <c r="A893" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B893" s="21">
+      <c r="B893" s="4">
         <v>0.8966</v>
       </c>
-      <c r="C893" s="21">
+      <c r="C893" s="4">
         <v>0.8508</v>
       </c>
-      <c r="D893" s="21">
+      <c r="D893" s="4">
         <v>0.9201</v>
       </c>
-      <c r="E893" s="21">
+      <c r="E893" s="4">
         <v>0.8849</v>
       </c>
-      <c r="F893" s="21">
+      <c r="F893" s="4">
         <v>0.8847</v>
       </c>
-      <c r="G893" s="21">
+      <c r="G893" s="4">
         <v>0.9634</v>
       </c>
-      <c r="H893" s="21">
+      <c r="H893" s="4">
         <v>0.9187</v>
       </c>
-      <c r="I893" s="21">
+      <c r="I893" s="4">
         <v>0.8844</v>
       </c>
-      <c r="J893" s="21">
+      <c r="J893" s="4">
         <v>0.8855</v>
       </c>
     </row>
@@ -23578,31 +23567,31 @@
       <c r="A894" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B894" s="21">
+      <c r="B894" s="4">
         <v>0.902</v>
       </c>
-      <c r="C894" s="21">
+      <c r="C894" s="4">
         <v>0.9104</v>
       </c>
-      <c r="D894" s="21">
+      <c r="D894" s="4">
         <v>0.8977</v>
       </c>
-      <c r="E894" s="21">
+      <c r="E894" s="4">
         <v>0.8934</v>
       </c>
-      <c r="F894" s="21">
+      <c r="F894" s="4">
         <v>0.904</v>
       </c>
-      <c r="G894" s="21">
+      <c r="G894" s="4">
         <v>0.9659</v>
       </c>
-      <c r="H894" s="21">
+      <c r="H894" s="4">
         <v>0.9259</v>
       </c>
-      <c r="I894" s="21">
+      <c r="I894" s="4">
         <v>0.8859</v>
       </c>
-      <c r="J894" s="21">
+      <c r="J894" s="4">
         <v>0.904</v>
       </c>
     </row>
@@ -23610,31 +23599,31 @@
       <c r="A895" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B895" s="21">
+      <c r="B895" s="4">
         <v>0.8976</v>
       </c>
-      <c r="C895" s="21">
+      <c r="C895" s="4">
         <v>0.8656</v>
       </c>
-      <c r="D895" s="21">
+      <c r="D895" s="4">
         <v>0.914</v>
       </c>
-      <c r="E895" s="21">
+      <c r="E895" s="4">
         <v>0.8867</v>
       </c>
-      <c r="F895" s="21">
+      <c r="F895" s="4">
         <v>0.8894</v>
       </c>
-      <c r="G895" s="21">
+      <c r="G895" s="4">
         <v>0.9629</v>
       </c>
-      <c r="H895" s="21">
+      <c r="H895" s="4">
         <v>0.916</v>
       </c>
-      <c r="I895" s="21">
+      <c r="I895" s="4">
         <v>0.884</v>
       </c>
-      <c r="J895" s="21">
+      <c r="J895" s="4">
         <v>0.8898</v>
       </c>
     </row>
@@ -23642,31 +23631,31 @@
       <c r="A896" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B896" s="21">
+      <c r="B896" s="4">
         <v>0.9026</v>
       </c>
-      <c r="C896" s="21">
+      <c r="C896" s="4">
         <v>0.8891</v>
       </c>
-      <c r="D896" s="21">
+      <c r="D896" s="4">
         <v>0.9095</v>
       </c>
-      <c r="E896" s="21">
+      <c r="E896" s="4">
         <v>0.893</v>
       </c>
-      <c r="F896" s="21">
+      <c r="F896" s="4">
         <v>0.8993</v>
       </c>
-      <c r="G896" s="21">
+      <c r="G896" s="4">
         <v>0.9662</v>
       </c>
-      <c r="H896" s="21">
+      <c r="H896" s="4">
         <v>0.929</v>
       </c>
-      <c r="I896" s="21">
+      <c r="I896" s="4">
         <v>0.888</v>
       </c>
-      <c r="J896" s="21">
+      <c r="J896" s="4">
         <v>0.8993</v>
       </c>
     </row>
@@ -23727,18 +23716,16 @@
         <v>28</v>
       </c>
       <c r="B901" s="6"/>
-      <c r="C901"/>
-      <c r="D901"/>
-      <c r="E901" s="10">
+      <c r="E901" s="11">
         <v>0.9049</v>
       </c>
-      <c r="F901" s="22">
+      <c r="F901" s="11">
         <v>0.9116</v>
       </c>
-      <c r="G901" s="10">
+      <c r="G901" s="11">
         <v>0.9752</v>
       </c>
-      <c r="H901" s="10">
+      <c r="H901" s="11">
         <v>0.9487</v>
       </c>
       <c r="I901" s="6"/>
@@ -23780,31 +23767,31 @@
       <c r="A905" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B905" s="21">
+      <c r="B905" s="4">
         <v>0.989</v>
       </c>
-      <c r="C905" s="21">
+      <c r="C905" s="4">
         <v>0.8877</v>
       </c>
-      <c r="D905" s="21">
+      <c r="D905" s="4">
         <v>0.9955</v>
       </c>
-      <c r="E905" s="21">
+      <c r="E905" s="4">
         <v>0.9506</v>
       </c>
-      <c r="F905" s="21">
+      <c r="F905" s="4">
         <v>0.94</v>
       </c>
-      <c r="G905" s="21">
+      <c r="G905" s="4">
         <v>0.9916</v>
       </c>
-      <c r="H905" s="21">
+      <c r="H905" s="4">
         <v>0.9359</v>
       </c>
-      <c r="I905" s="21">
+      <c r="I905" s="4">
         <v>0.9609</v>
       </c>
-      <c r="J905" s="21">
+      <c r="J905" s="4">
         <v>0.9416</v>
       </c>
     </row>
@@ -23812,31 +23799,31 @@
       <c r="A906" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B906" s="21">
+      <c r="B906" s="4">
         <v>0.9874</v>
       </c>
-      <c r="C906" s="21">
+      <c r="C906" s="4">
         <v>0.9271</v>
       </c>
-      <c r="D906" s="21">
+      <c r="D906" s="4">
         <v>0.9913</v>
       </c>
-      <c r="E906" s="21">
+      <c r="E906" s="4">
         <v>0.946</v>
       </c>
-      <c r="F906" s="21">
+      <c r="F906" s="4">
         <v>0.9584</v>
       </c>
-      <c r="G906" s="21">
+      <c r="G906" s="4">
         <v>0.9903</v>
       </c>
-      <c r="H906" s="21">
+      <c r="H906" s="4">
         <v>0.9321</v>
       </c>
-      <c r="I906" s="21">
+      <c r="I906" s="4">
         <v>0.9353</v>
       </c>
-      <c r="J906" s="21">
+      <c r="J906" s="4">
         <v>0.9592</v>
       </c>
     </row>
@@ -23844,31 +23831,31 @@
       <c r="A907" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B907" s="21">
+      <c r="B907" s="4">
         <v>0.9783</v>
       </c>
-      <c r="C907" s="21">
+      <c r="C907" s="4">
         <v>0.9606</v>
       </c>
-      <c r="D907" s="21">
+      <c r="D907" s="4">
         <v>0.9794</v>
       </c>
-      <c r="E907" s="21">
+      <c r="E907" s="4">
         <v>0.9158</v>
       </c>
-      <c r="F907" s="21">
+      <c r="F907" s="4">
         <v>0.9698</v>
       </c>
-      <c r="G907" s="21">
+      <c r="G907" s="4">
         <v>0.9918</v>
       </c>
-      <c r="H907" s="21">
+      <c r="H907" s="4">
         <v>0.9158</v>
       </c>
-      <c r="I907" s="21">
+      <c r="I907" s="4">
         <v>0.8764</v>
       </c>
-      <c r="J907" s="21">
+      <c r="J907" s="4">
         <v>0.97</v>
       </c>
     </row>
@@ -23876,31 +23863,31 @@
       <c r="A908" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B908" s="21">
+      <c r="B908" s="4">
         <v>0.9677</v>
       </c>
-      <c r="C908" s="21">
+      <c r="C908" s="4">
         <v>0.9666</v>
       </c>
-      <c r="D908" s="21">
+      <c r="D908" s="4">
         <v>0.9677</v>
       </c>
-      <c r="E908" s="21">
+      <c r="E908" s="4">
         <v>0.8831</v>
       </c>
-      <c r="F908" s="21">
+      <c r="F908" s="4">
         <v>0.967</v>
       </c>
-      <c r="G908" s="21">
+      <c r="G908" s="4">
         <v>0.9888</v>
       </c>
-      <c r="H908" s="21">
+      <c r="H908" s="4">
         <v>0.9295</v>
       </c>
-      <c r="I908" s="21">
+      <c r="I908" s="4">
         <v>0.8299</v>
       </c>
-      <c r="J908" s="21">
+      <c r="J908" s="4">
         <v>0.9672</v>
       </c>
     </row>
@@ -23908,31 +23895,31 @@
       <c r="A909" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B909" s="21">
+      <c r="B909" s="4">
         <v>0.9527</v>
       </c>
-      <c r="C909" s="21">
+      <c r="C909" s="4">
         <v>0.8965</v>
       </c>
-      <c r="D909" s="21">
+      <c r="D909" s="4">
         <v>0.9563</v>
       </c>
-      <c r="E909" s="21">
+      <c r="E909" s="4">
         <v>0.8375</v>
       </c>
-      <c r="F909" s="21">
+      <c r="F909" s="4">
         <v>0.9257</v>
       </c>
-      <c r="G909" s="21">
+      <c r="G909" s="4">
         <v>0.9722</v>
       </c>
-      <c r="H909" s="21">
+      <c r="H909" s="4">
         <v>0.8407</v>
       </c>
-      <c r="I909" s="21">
+      <c r="I909" s="4">
         <v>0.7864</v>
       </c>
-      <c r="J909" s="21">
+      <c r="J909" s="4">
         <v>0.9264</v>
       </c>
     </row>
@@ -23940,31 +23927,31 @@
       <c r="A910" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B910" s="21">
+      <c r="B910" s="4">
         <v>0.9719</v>
       </c>
-      <c r="C910" s="21">
+      <c r="C910" s="4">
         <v>0.9697</v>
       </c>
-      <c r="D910" s="21">
+      <c r="D910" s="4">
         <v>0.972</v>
       </c>
-      <c r="E910" s="21">
+      <c r="E910" s="4">
         <v>0.8963</v>
       </c>
-      <c r="F910" s="21">
+      <c r="F910" s="4">
         <v>0.9707</v>
       </c>
-      <c r="G910" s="21">
+      <c r="G910" s="4">
         <v>0.9917</v>
       </c>
-      <c r="H910" s="21">
+      <c r="H910" s="4">
         <v>0.9282</v>
       </c>
-      <c r="I910" s="21">
+      <c r="I910" s="4">
         <v>0.8469</v>
       </c>
-      <c r="J910" s="21">
+      <c r="J910" s="4">
         <v>0.9708</v>
       </c>
     </row>
@@ -23972,31 +23959,31 @@
       <c r="A911" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B911" s="21">
+      <c r="B911" s="4">
         <v>0.8381</v>
       </c>
-      <c r="C911" s="21">
+      <c r="C911" s="4">
         <v>0.9879</v>
       </c>
-      <c r="D911" s="21">
+      <c r="D911" s="4">
         <v>0.8285</v>
       </c>
-      <c r="E911" s="21">
+      <c r="E911" s="4">
         <v>0.6646</v>
       </c>
-      <c r="F911" s="21">
+      <c r="F911" s="4">
         <v>0.9047</v>
       </c>
-      <c r="G911" s="21">
+      <c r="G911" s="4">
         <v>0.9828</v>
       </c>
-      <c r="H911" s="21">
+      <c r="H911" s="4">
         <v>0.8471</v>
       </c>
-      <c r="I911" s="21">
+      <c r="I911" s="4">
         <v>0.6342</v>
       </c>
-      <c r="J911" s="21">
+      <c r="J911" s="4">
         <v>0.9082</v>
       </c>
     </row>
@@ -24004,31 +23991,31 @@
       <c r="A912" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B912" s="21">
+      <c r="B912" s="4">
         <v>0.9744</v>
       </c>
-      <c r="C912" s="21">
+      <c r="C912" s="4">
         <v>0.9514</v>
       </c>
-      <c r="D912" s="21">
+      <c r="D912" s="4">
         <v>0.9759</v>
       </c>
-      <c r="E912" s="21">
+      <c r="E912" s="4">
         <v>0.9026</v>
       </c>
-      <c r="F912" s="21">
+      <c r="F912" s="4">
         <v>0.9633</v>
       </c>
-      <c r="G912" s="21">
+      <c r="G912" s="4">
         <v>0.9816</v>
       </c>
-      <c r="H912" s="21">
+      <c r="H912" s="4">
         <v>0.927</v>
       </c>
-      <c r="I912" s="21">
+      <c r="I912" s="4">
         <v>0.8604</v>
       </c>
-      <c r="J912" s="21">
+      <c r="J912" s="4">
         <v>0.9636</v>
       </c>
     </row>
@@ -24036,31 +24023,31 @@
       <c r="A913" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B913" s="21">
+      <c r="B913" s="4">
         <v>0.9857</v>
       </c>
-      <c r="C913" s="21">
+      <c r="C913" s="4">
         <v>0.9149</v>
       </c>
-      <c r="D913" s="21">
+      <c r="D913" s="4">
         <v>0.9903</v>
       </c>
-      <c r="E913" s="21">
+      <c r="E913" s="4">
         <v>0.9394</v>
       </c>
-      <c r="F913" s="21">
+      <c r="F913" s="4">
         <v>0.9517</v>
       </c>
-      <c r="G913" s="21">
+      <c r="G913" s="4">
         <v>0.9811</v>
       </c>
-      <c r="H913" s="21">
+      <c r="H913" s="4">
         <v>0.9309</v>
       </c>
-      <c r="I913" s="21">
+      <c r="I913" s="4">
         <v>0.9289</v>
       </c>
-      <c r="J913" s="21">
+      <c r="J913" s="4">
         <v>0.9526</v>
       </c>
     </row>
@@ -24068,31 +24055,31 @@
       <c r="A914" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B914" s="21">
+      <c r="B914" s="4">
         <v>0.9879</v>
       </c>
-      <c r="C914" s="21">
+      <c r="C914" s="4">
         <v>0.8816</v>
       </c>
-      <c r="D914" s="21">
+      <c r="D914" s="4">
         <v>0.9948</v>
       </c>
-      <c r="E914" s="21">
+      <c r="E914" s="4">
         <v>0.9457</v>
       </c>
-      <c r="F914" s="21">
+      <c r="F914" s="4">
         <v>0.9363</v>
       </c>
-      <c r="G914" s="21">
+      <c r="G914" s="4">
         <v>0.993</v>
       </c>
-      <c r="H914" s="21">
+      <c r="H914" s="4">
         <v>0.9472</v>
       </c>
-      <c r="I914" s="21">
+      <c r="I914" s="4">
         <v>0.9546</v>
       </c>
-      <c r="J914" s="21">
+      <c r="J914" s="4">
         <v>0.9382</v>
       </c>
     </row>
@@ -24100,31 +24087,31 @@
       <c r="A915" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B915" s="21">
+      <c r="B915" s="4">
         <v>0.979</v>
       </c>
-      <c r="C915" s="21">
+      <c r="C915" s="4">
         <v>0.9392</v>
       </c>
-      <c r="D915" s="21">
+      <c r="D915" s="4">
         <v>0.9815</v>
       </c>
-      <c r="E915" s="21">
+      <c r="E915" s="4">
         <v>0.9165</v>
       </c>
-      <c r="F915" s="21">
+      <c r="F915" s="4">
         <v>0.96</v>
       </c>
-      <c r="G915" s="21">
+      <c r="G915" s="4">
         <v>0.9851</v>
       </c>
-      <c r="H915" s="21">
+      <c r="H915" s="4">
         <v>0.9342</v>
       </c>
-      <c r="I915" s="21">
+      <c r="I915" s="4">
         <v>0.8831</v>
       </c>
-      <c r="J915" s="21">
+      <c r="J915" s="4">
         <v>0.9604</v>
       </c>
     </row>
@@ -24132,31 +24119,31 @@
       <c r="A916" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B916" s="21">
+      <c r="B916" s="4">
         <v>0.9881</v>
       </c>
-      <c r="C916" s="21">
+      <c r="C916" s="4">
         <v>0.8726</v>
       </c>
-      <c r="D916" s="21">
+      <c r="D916" s="4">
         <v>0.9955</v>
       </c>
-      <c r="E916" s="21">
+      <c r="E916" s="4">
         <v>0.9459</v>
       </c>
-      <c r="F916" s="21">
+      <c r="F916" s="4">
         <v>0.9317</v>
       </c>
-      <c r="G916" s="21">
+      <c r="G916" s="4">
         <v>0.986</v>
       </c>
-      <c r="H916" s="21">
+      <c r="H916" s="4">
         <v>0.9175</v>
       </c>
-      <c r="I916" s="21">
+      <c r="I916" s="4">
         <v>0.9597</v>
       </c>
-      <c r="J916" s="21">
+      <c r="J916" s="4">
         <v>0.9341</v>
       </c>
     </row>
@@ -24164,31 +24151,31 @@
       <c r="A917" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B917" s="21">
+      <c r="B917" s="4">
         <v>0.9777</v>
       </c>
-      <c r="C917" s="21">
+      <c r="C917" s="4">
         <v>0.9423</v>
       </c>
-      <c r="D917" s="21">
+      <c r="D917" s="4">
         <v>0.98</v>
       </c>
-      <c r="E917" s="21">
+      <c r="E917" s="4">
         <v>0.912</v>
       </c>
-      <c r="F917" s="21">
+      <c r="F917" s="4">
         <v>0.9608</v>
       </c>
-      <c r="G917" s="21">
+      <c r="G917" s="4">
         <v>0.9822</v>
       </c>
-      <c r="H917" s="21">
+      <c r="H917" s="4">
         <v>0.9253</v>
       </c>
-      <c r="I917" s="21">
+      <c r="I917" s="4">
         <v>0.8746</v>
       </c>
-      <c r="J917" s="21">
+      <c r="J917" s="4">
         <v>0.9611</v>
       </c>
     </row>
@@ -24196,31 +24183,31 @@
       <c r="A918" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B918" s="21">
+      <c r="B918" s="4">
         <v>0.9883</v>
       </c>
-      <c r="C918" s="21">
+      <c r="C918" s="4">
         <v>0.8877</v>
       </c>
-      <c r="D918" s="21">
+      <c r="D918" s="4">
         <v>0.9948</v>
       </c>
-      <c r="E918" s="21">
+      <c r="E918" s="4">
         <v>0.9475</v>
       </c>
-      <c r="F918" s="21">
+      <c r="F918" s="4">
         <v>0.9395</v>
       </c>
-      <c r="G918" s="21">
+      <c r="G918" s="4">
         <v>0.9847</v>
       </c>
-      <c r="H918" s="21">
+      <c r="H918" s="4">
         <v>0.9228</v>
       </c>
-      <c r="I918" s="21">
+      <c r="I918" s="4">
         <v>0.9553</v>
       </c>
-      <c r="J918" s="21">
+      <c r="J918" s="4">
         <v>0.9412</v>
       </c>
     </row>
@@ -24295,8 +24282,6 @@
         <v>28</v>
       </c>
       <c r="B924" s="6"/>
-      <c r="C924"/>
-      <c r="D924"/>
       <c r="E924" s="8">
         <v>0.9461</v>
       </c>
@@ -24348,31 +24333,31 @@
       <c r="A928" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B928" s="21">
+      <c r="B928" s="4">
         <v>0.9868</v>
       </c>
-      <c r="C928" s="21">
+      <c r="C928" s="4">
         <v>0.7565</v>
       </c>
-      <c r="D928" s="21">
+      <c r="D928" s="4">
         <v>0.9918</v>
       </c>
-      <c r="E928" s="21">
+      <c r="E928" s="4">
         <v>0.8491</v>
       </c>
-      <c r="F928" s="21">
+      <c r="F928" s="4">
         <v>0.8629</v>
       </c>
-      <c r="G928" s="21">
+      <c r="G928" s="4">
         <v>0.9906</v>
       </c>
-      <c r="H928" s="21">
+      <c r="H928" s="4">
         <v>0.7614</v>
       </c>
-      <c r="I928" s="21">
+      <c r="I928" s="4">
         <v>0.8313</v>
       </c>
-      <c r="J928" s="21">
+      <c r="J928" s="4">
         <v>0.8742</v>
       </c>
     </row>
@@ -24380,31 +24365,31 @@
       <c r="A929" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B929" s="21">
+      <c r="B929" s="4">
         <v>0.9826</v>
       </c>
-      <c r="C929" s="21">
+      <c r="C929" s="4">
         <v>0.8435</v>
       </c>
-      <c r="D929" s="21">
+      <c r="D929" s="4">
         <v>0.9856</v>
       </c>
-      <c r="E929" s="21">
+      <c r="E929" s="4">
         <v>0.8317</v>
       </c>
-      <c r="F929" s="21">
+      <c r="F929" s="4">
         <v>0.911</v>
       </c>
-      <c r="G929" s="21">
+      <c r="G929" s="4">
         <v>0.9903</v>
       </c>
-      <c r="H929" s="21">
+      <c r="H929" s="4">
         <v>0.7702</v>
       </c>
-      <c r="I929" s="21">
+      <c r="I929" s="4">
         <v>0.7789</v>
       </c>
-      <c r="J929" s="21">
+      <c r="J929" s="4">
         <v>0.9146</v>
       </c>
     </row>
@@ -24412,31 +24397,31 @@
       <c r="A930" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B930" s="21">
+      <c r="B930" s="4">
         <v>0.947</v>
       </c>
-      <c r="C930" s="21">
+      <c r="C930" s="4">
         <v>0.9391</v>
       </c>
-      <c r="D930" s="21">
+      <c r="D930" s="4">
         <v>0.9472</v>
       </c>
-      <c r="E930" s="21">
+      <c r="E930" s="4">
         <v>0.7019</v>
       </c>
-      <c r="F930" s="21">
+      <c r="F930" s="4">
         <v>0.9429</v>
       </c>
-      <c r="G930" s="21">
+      <c r="G930" s="4">
         <v>0.987</v>
       </c>
-      <c r="H930" s="21">
+      <c r="H930" s="4">
         <v>0.6738</v>
       </c>
-      <c r="I930" s="21">
+      <c r="I930" s="4">
         <v>0.6398</v>
       </c>
-      <c r="J930" s="21">
+      <c r="J930" s="4">
         <v>0.9432</v>
       </c>
     </row>
@@ -24444,31 +24429,31 @@
       <c r="A931" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B931" s="21">
+      <c r="B931" s="4">
         <v>0.9508</v>
       </c>
-      <c r="C931" s="21">
+      <c r="C931" s="4">
         <v>0.9304</v>
       </c>
-      <c r="D931" s="21">
+      <c r="D931" s="4">
         <v>0.9513</v>
       </c>
-      <c r="E931" s="21">
+      <c r="E931" s="4">
         <v>0.7103</v>
       </c>
-      <c r="F931" s="21">
+      <c r="F931" s="4">
         <v>0.9407</v>
       </c>
-      <c r="G931" s="21">
+      <c r="G931" s="4">
         <v>0.9845</v>
       </c>
-      <c r="H931" s="21">
+      <c r="H931" s="4">
         <v>0.7074</v>
       </c>
-      <c r="I931" s="21">
+      <c r="I931" s="4">
         <v>0.6465</v>
       </c>
-      <c r="J931" s="21">
+      <c r="J931" s="4">
         <v>0.9409</v>
       </c>
     </row>
@@ -24476,31 +24461,31 @@
       <c r="A932" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B932" s="21">
+      <c r="B932" s="4">
         <v>0.9618</v>
       </c>
-      <c r="C932" s="21">
+      <c r="C932" s="4">
         <v>0.8087</v>
       </c>
-      <c r="D932" s="21">
+      <c r="D932" s="4">
         <v>0.9651</v>
       </c>
-      <c r="E932" s="21">
+      <c r="E932" s="4">
         <v>0.729</v>
       </c>
-      <c r="F932" s="21">
+      <c r="F932" s="4">
         <v>0.8809</v>
       </c>
-      <c r="G932" s="21">
+      <c r="G932" s="4">
         <v>0.9778</v>
       </c>
-      <c r="H932" s="21">
+      <c r="H932" s="4">
         <v>0.52</v>
       </c>
-      <c r="I932" s="21">
+      <c r="I932" s="4">
         <v>0.6709</v>
       </c>
-      <c r="J932" s="21">
+      <c r="J932" s="4">
         <v>0.8869</v>
       </c>
     </row>
@@ -24508,31 +24493,31 @@
       <c r="A933" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B933" s="21">
+      <c r="B933" s="4">
         <v>0.9282</v>
       </c>
-      <c r="C933" s="21">
+      <c r="C933" s="4">
         <v>0.9565</v>
       </c>
-      <c r="D933" s="21">
+      <c r="D933" s="4">
         <v>0.9276</v>
       </c>
-      <c r="E933" s="21">
+      <c r="E933" s="4">
         <v>0.6617</v>
       </c>
-      <c r="F933" s="21">
+      <c r="F933" s="4">
         <v>0.9415</v>
       </c>
-      <c r="G933" s="21">
+      <c r="G933" s="4">
         <v>0.9879</v>
       </c>
-      <c r="H933" s="21">
+      <c r="H933" s="4">
         <v>0.7271</v>
       </c>
-      <c r="I933" s="21">
+      <c r="I933" s="4">
         <v>0.6113</v>
       </c>
-      <c r="J933" s="21">
+      <c r="J933" s="4">
         <v>0.9421</v>
       </c>
     </row>
@@ -24540,31 +24525,31 @@
       <c r="A934" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B934" s="21">
+      <c r="B934" s="4">
         <v>0.8381</v>
       </c>
-      <c r="C934" s="21">
+      <c r="C934" s="4">
         <v>0.9826</v>
       </c>
-      <c r="D934" s="21">
+      <c r="D934" s="4">
         <v>0.835</v>
       </c>
-      <c r="E934" s="21">
+      <c r="E934" s="4">
         <v>0.5568</v>
       </c>
-      <c r="F934" s="21">
+      <c r="F934" s="4">
         <v>0.9058</v>
       </c>
-      <c r="G934" s="21">
+      <c r="G934" s="4">
         <v>0.9523</v>
       </c>
-      <c r="H934" s="21">
+      <c r="H934" s="4">
         <v>0.3178</v>
       </c>
-      <c r="I934" s="21">
+      <c r="I934" s="4">
         <v>0.5566</v>
       </c>
-      <c r="J934" s="21">
+      <c r="J934" s="4">
         <v>0.9088</v>
       </c>
     </row>
@@ -24572,31 +24557,31 @@
       <c r="A935" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B935" s="21">
+      <c r="B935" s="4">
         <v>0.973</v>
       </c>
-      <c r="C935" s="21">
+      <c r="C935" s="4">
         <v>0.8783</v>
       </c>
-      <c r="D935" s="21">
+      <c r="D935" s="4">
         <v>0.975</v>
       </c>
-      <c r="E935" s="21">
+      <c r="E935" s="4">
         <v>0.7849</v>
       </c>
-      <c r="F935" s="21">
+      <c r="F935" s="4">
         <v>0.9249</v>
       </c>
-      <c r="G935" s="21">
+      <c r="G935" s="4">
         <v>0.9712</v>
       </c>
-      <c r="H935" s="21">
+      <c r="H935" s="4">
         <v>0.7491</v>
       </c>
-      <c r="I935" s="21">
+      <c r="I935" s="4">
         <v>0.7204</v>
       </c>
-      <c r="J935" s="21">
+      <c r="J935" s="4">
         <v>0.9266</v>
       </c>
     </row>
@@ -24604,31 +24589,31 @@
       <c r="A936" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B936" s="21">
+      <c r="B936" s="4">
         <v>0.9852</v>
       </c>
-      <c r="C936" s="21">
+      <c r="C936" s="4">
         <v>0.7739</v>
       </c>
-      <c r="D936" s="21">
+      <c r="D936" s="4">
         <v>0.9897</v>
       </c>
-      <c r="E936" s="21">
+      <c r="E936" s="4">
         <v>0.8391</v>
       </c>
-      <c r="F936" s="21">
+      <c r="F936" s="4">
         <v>0.8737</v>
       </c>
-      <c r="G936" s="21">
+      <c r="G936" s="4">
         <v>0.9703</v>
       </c>
-      <c r="H936" s="21">
+      <c r="H936" s="4">
         <v>0.7412</v>
       </c>
-      <c r="I936" s="21">
+      <c r="I936" s="4">
         <v>0.8091</v>
       </c>
-      <c r="J936" s="21">
+      <c r="J936" s="4">
         <v>0.8818</v>
       </c>
     </row>
@@ -24636,31 +24621,31 @@
       <c r="A937" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B937" s="21">
+      <c r="B937" s="4">
         <v>0.9896</v>
       </c>
-      <c r="C937" s="21">
+      <c r="C937" s="4">
         <v>0.6261</v>
       </c>
-      <c r="D937" s="21">
+      <c r="D937" s="4">
         <v>0.9974</v>
       </c>
-      <c r="E937" s="21">
+      <c r="E937" s="4">
         <v>0.8541</v>
       </c>
-      <c r="F937" s="21">
+      <c r="F937" s="4">
         <v>0.7879</v>
       </c>
-      <c r="G937" s="21">
+      <c r="G937" s="4">
         <v>0.9934</v>
       </c>
-      <c r="H937" s="21">
+      <c r="H937" s="4">
         <v>0.8025</v>
       </c>
-      <c r="I937" s="21">
+      <c r="I937" s="4">
         <v>0.9171</v>
       </c>
-      <c r="J937" s="21">
+      <c r="J937" s="4">
         <v>0.8117</v>
       </c>
     </row>
@@ -24668,31 +24653,31 @@
       <c r="A938" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B938" s="21">
+      <c r="B938" s="4">
         <v>0.9741</v>
       </c>
-      <c r="C938" s="21">
+      <c r="C938" s="4">
         <v>0.8609</v>
       </c>
-      <c r="D938" s="21">
+      <c r="D938" s="4">
         <v>0.9765</v>
       </c>
-      <c r="E938" s="21">
+      <c r="E938" s="4">
         <v>0.7854</v>
       </c>
-      <c r="F938" s="21">
+      <c r="F938" s="4">
         <v>0.9167</v>
       </c>
-      <c r="G938" s="21">
+      <c r="G938" s="4">
         <v>0.9813</v>
       </c>
-      <c r="H938" s="21">
+      <c r="H938" s="4">
         <v>0.7416</v>
       </c>
-      <c r="I938" s="21">
+      <c r="I938" s="4">
         <v>0.7202</v>
       </c>
-      <c r="J938" s="21">
+      <c r="J938" s="4">
         <v>0.9187</v>
       </c>
     </row>
@@ -24700,31 +24685,31 @@
       <c r="A939" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B939" s="21">
+      <c r="B939" s="4">
         <v>0.9885</v>
       </c>
-      <c r="C939" s="21">
+      <c r="C939" s="4">
         <v>0.5652</v>
       </c>
-      <c r="D939" s="21">
+      <c r="D939" s="4">
         <v>0.9976</v>
       </c>
-      <c r="E939" s="21">
+      <c r="E939" s="4">
         <v>0.8319</v>
       </c>
-      <c r="F939" s="21">
+      <c r="F939" s="4">
         <v>0.7474</v>
       </c>
-      <c r="G939" s="21">
+      <c r="G939" s="4">
         <v>0.9694</v>
       </c>
-      <c r="H939" s="21">
+      <c r="H939" s="4">
         <v>0.7228</v>
       </c>
-      <c r="I939" s="21">
+      <c r="I939" s="4">
         <v>0.9094</v>
       </c>
-      <c r="J939" s="21">
+      <c r="J939" s="4">
         <v>0.7814</v>
       </c>
     </row>
@@ -24732,31 +24717,31 @@
       <c r="A940" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B940" s="21">
+      <c r="B940" s="4">
         <v>0.9717</v>
       </c>
-      <c r="C940" s="21">
+      <c r="C940" s="4">
         <v>0.8348</v>
       </c>
-      <c r="D940" s="21">
+      <c r="D940" s="4">
         <v>0.9746</v>
       </c>
-      <c r="E940" s="21">
+      <c r="E940" s="4">
         <v>0.7709</v>
       </c>
-      <c r="F940" s="21">
+      <c r="F940" s="4">
         <v>0.9012</v>
       </c>
-      <c r="G940" s="21">
+      <c r="G940" s="4">
         <v>0.9721</v>
       </c>
-      <c r="H940" s="21">
+      <c r="H940" s="4">
         <v>0.726</v>
       </c>
-      <c r="I940" s="21">
+      <c r="I940" s="4">
         <v>0.7088</v>
       </c>
-      <c r="J940" s="21">
+      <c r="J940" s="4">
         <v>0.9047</v>
       </c>
     </row>
@@ -24764,31 +24749,31 @@
       <c r="A941" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B941" s="21">
+      <c r="B941" s="4">
         <v>0.9879</v>
       </c>
-      <c r="C941" s="21">
+      <c r="C941" s="4">
         <v>0.6261</v>
       </c>
-      <c r="D941" s="21">
+      <c r="D941" s="4">
         <v>0.9957</v>
       </c>
-      <c r="E941" s="21">
+      <c r="E941" s="4">
         <v>0.8379</v>
       </c>
-      <c r="F941" s="21">
+      <c r="F941" s="4">
         <v>0.7865</v>
       </c>
-      <c r="G941" s="21">
+      <c r="G941" s="4">
         <v>0.9779</v>
       </c>
-      <c r="H941" s="21">
+      <c r="H941" s="4">
         <v>0.7521</v>
       </c>
-      <c r="I941" s="21">
+      <c r="I941" s="4">
         <v>0.8755</v>
       </c>
-      <c r="J941" s="21">
+      <c r="J941" s="4">
         <v>0.8109</v>
       </c>
     </row>
@@ -24796,31 +24781,31 @@
       <c r="A942" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B942" s="21">
+      <c r="B942" s="4">
         <v>0.9848</v>
       </c>
-      <c r="C942" s="21">
+      <c r="C942" s="4">
         <v>0.5826</v>
       </c>
-      <c r="D942" s="21">
+      <c r="D942" s="4">
         <v>0.9935</v>
       </c>
-      <c r="E942" s="21">
+      <c r="E942" s="4">
         <v>0.8045</v>
       </c>
-      <c r="F942" s="21">
+      <c r="F942" s="4">
         <v>0.759</v>
       </c>
-      <c r="G942" s="21">
+      <c r="G942" s="4">
         <v>0.9642</v>
       </c>
-      <c r="H942" s="21">
+      <c r="H942" s="4">
         <v>0.6746</v>
       </c>
-      <c r="I942" s="21">
+      <c r="I942" s="4">
         <v>0.8266</v>
       </c>
-      <c r="J942" s="21">
+      <c r="J942" s="4">
         <v>0.788</v>
       </c>
     </row>
@@ -24881,8 +24866,6 @@
         <v>28</v>
       </c>
       <c r="B947" s="6"/>
-      <c r="C947"/>
-      <c r="D947"/>
       <c r="E947" s="8">
         <v>0.8484</v>
       </c>
@@ -24892,7 +24875,7 @@
       <c r="G947" s="8">
         <v>0.9851</v>
       </c>
-      <c r="H947" s="10">
+      <c r="H947" s="11">
         <v>0.7725</v>
       </c>
       <c r="I947" s="6"/>
@@ -24934,31 +24917,31 @@
       <c r="A951" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B951" s="21">
+      <c r="B951" s="4">
         <v>0.9947</v>
       </c>
-      <c r="C951" s="21">
+      <c r="C951" s="4">
         <v>0.8163</v>
       </c>
-      <c r="D951" s="21">
+      <c r="D951" s="4">
         <v>0.9976</v>
       </c>
-      <c r="E951" s="21">
+      <c r="E951" s="4">
         <v>0.9136</v>
       </c>
-      <c r="F951" s="21">
+      <c r="F951" s="4">
         <v>0.9006</v>
       </c>
-      <c r="G951" s="21">
+      <c r="G951" s="4">
         <v>0.9968</v>
       </c>
-      <c r="H951" s="21">
+      <c r="H951" s="4">
         <v>0.8606</v>
       </c>
-      <c r="I951" s="21">
+      <c r="I951" s="4">
         <v>0.9299</v>
       </c>
-      <c r="J951" s="21">
+      <c r="J951" s="4">
         <v>0.907</v>
       </c>
     </row>
@@ -24966,31 +24949,31 @@
       <c r="A952" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B952" s="21">
+      <c r="B952" s="4">
         <v>0.9945</v>
       </c>
-      <c r="C952" s="21">
+      <c r="C952" s="4">
         <v>0.9418</v>
       </c>
-      <c r="D952" s="21">
+      <c r="D952" s="4">
         <v>0.9954</v>
       </c>
-      <c r="E952" s="21">
+      <c r="E952" s="4">
         <v>0.9221</v>
       </c>
-      <c r="F952" s="21">
+      <c r="F952" s="4">
         <v>0.9676</v>
       </c>
-      <c r="G952" s="21">
+      <c r="G952" s="4">
         <v>0.9835</v>
       </c>
-      <c r="H952" s="21">
+      <c r="H952" s="4">
         <v>0.8792</v>
       </c>
-      <c r="I952" s="21">
+      <c r="I952" s="4">
         <v>0.8871</v>
       </c>
-      <c r="J952" s="21">
+      <c r="J952" s="4">
         <v>0.9686</v>
       </c>
     </row>
@@ -24998,31 +24981,31 @@
       <c r="A953" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B953" s="21">
+      <c r="B953" s="4">
         <v>0.987</v>
       </c>
-      <c r="C953" s="21">
+      <c r="C953" s="4">
         <v>0.9765</v>
       </c>
-      <c r="D953" s="21">
+      <c r="D953" s="4">
         <v>0.9872</v>
       </c>
-      <c r="E953" s="21">
+      <c r="E953" s="4">
         <v>0.8535</v>
       </c>
-      <c r="F953" s="21">
+      <c r="F953" s="4">
         <v>0.9817</v>
       </c>
-      <c r="G953" s="21">
+      <c r="G953" s="4">
         <v>0.9858</v>
       </c>
-      <c r="H953" s="21">
+      <c r="H953" s="4">
         <v>0.8702</v>
       </c>
-      <c r="I953" s="21">
+      <c r="I953" s="4">
         <v>0.7833</v>
       </c>
-      <c r="J953" s="21">
+      <c r="J953" s="4">
         <v>0.9818</v>
       </c>
     </row>
@@ -25030,31 +25013,31 @@
       <c r="A954" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B954" s="21">
+      <c r="B954" s="4">
         <v>0.9903</v>
       </c>
-      <c r="C954" s="21">
+      <c r="C954" s="4">
         <v>0.9765</v>
       </c>
-      <c r="D954" s="21">
+      <c r="D954" s="4">
         <v>0.9905</v>
       </c>
-      <c r="E954" s="21">
+      <c r="E954" s="4">
         <v>0.8819</v>
       </c>
-      <c r="F954" s="21">
+      <c r="F954" s="4">
         <v>0.9834</v>
       </c>
-      <c r="G954" s="21">
+      <c r="G954" s="4">
         <v>0.9943</v>
       </c>
-      <c r="H954" s="21">
+      <c r="H954" s="4">
         <v>0.9024</v>
       </c>
-      <c r="I954" s="21">
+      <c r="I954" s="4">
         <v>0.8188</v>
       </c>
-      <c r="J954" s="21">
+      <c r="J954" s="4">
         <v>0.9835</v>
       </c>
     </row>
@@ -25062,31 +25045,31 @@
       <c r="A955" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B955" s="21">
+      <c r="B955" s="4">
         <v>0.9894</v>
       </c>
-      <c r="C955" s="21">
+      <c r="C955" s="4">
         <v>0.9301</v>
       </c>
-      <c r="D955" s="21">
+      <c r="D955" s="4">
         <v>0.9903</v>
       </c>
-      <c r="E955" s="21">
+      <c r="E955" s="4">
         <v>0.8694</v>
       </c>
-      <c r="F955" s="21">
+      <c r="F955" s="4">
         <v>0.9586</v>
       </c>
-      <c r="G955" s="21">
+      <c r="G955" s="4">
         <v>0.9783</v>
       </c>
-      <c r="H955" s="21">
+      <c r="H955" s="4">
         <v>0.826</v>
       </c>
-      <c r="I955" s="21">
+      <c r="I955" s="4">
         <v>0.8155</v>
       </c>
-      <c r="J955" s="21">
+      <c r="J955" s="4">
         <v>0.9602</v>
       </c>
     </row>
@@ -25094,31 +25077,31 @@
       <c r="A956" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B956" s="21">
+      <c r="B956" s="4">
         <v>0.9801</v>
       </c>
-      <c r="C956" s="21">
+      <c r="C956" s="4">
         <v>0.9765</v>
       </c>
-      <c r="D956" s="21">
+      <c r="D956" s="4">
         <v>0.9801</v>
       </c>
-      <c r="E956" s="21">
+      <c r="E956" s="4">
         <v>0.8084</v>
       </c>
-      <c r="F956" s="21">
+      <c r="F956" s="4">
         <v>0.9782</v>
       </c>
-      <c r="G956" s="21">
+      <c r="G956" s="4">
         <v>0.9904</v>
       </c>
-      <c r="H956" s="21">
+      <c r="H956" s="4">
         <v>0.8536</v>
       </c>
-      <c r="I956" s="21">
+      <c r="I956" s="4">
         <v>0.7359</v>
       </c>
-      <c r="J956" s="21">
+      <c r="J956" s="4">
         <v>0.9783</v>
       </c>
     </row>
@@ -25126,31 +25109,31 @@
       <c r="A957" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B957" s="21">
+      <c r="B957" s="4">
         <v>0.9574</v>
       </c>
-      <c r="C957" s="21">
+      <c r="C957" s="4">
         <v>0.9647</v>
       </c>
-      <c r="D957" s="21">
+      <c r="D957" s="4">
         <v>0.9573</v>
       </c>
-      <c r="E957" s="21">
+      <c r="E957" s="4">
         <v>0.7057</v>
       </c>
-      <c r="F957" s="21">
+      <c r="F957" s="4">
         <v>0.9608</v>
       </c>
-      <c r="G957" s="21">
+      <c r="G957" s="4">
         <v>0.9749</v>
       </c>
-      <c r="H957" s="21">
+      <c r="H957" s="4">
         <v>0.8477</v>
       </c>
-      <c r="I957" s="21">
+      <c r="I957" s="4">
         <v>0.6404</v>
       </c>
-      <c r="J957" s="21">
+      <c r="J957" s="4">
         <v>0.961</v>
       </c>
     </row>
@@ -25158,31 +25141,31 @@
       <c r="A958" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B958" s="21">
+      <c r="B958" s="4">
         <v>0.9949</v>
       </c>
-      <c r="C958" s="21">
+      <c r="C958" s="4">
         <v>0.9085</v>
       </c>
-      <c r="D958" s="21">
+      <c r="D958" s="4">
         <v>0.9963</v>
       </c>
-      <c r="E958" s="21">
+      <c r="E958" s="4">
         <v>0.9255</v>
       </c>
-      <c r="F958" s="21">
+      <c r="F958" s="4">
         <v>0.9509</v>
       </c>
-      <c r="G958" s="21">
+      <c r="G958" s="4">
         <v>0.9886</v>
       </c>
-      <c r="H958" s="21">
+      <c r="H958" s="4">
         <v>0.8694</v>
       </c>
-      <c r="I958" s="21">
+      <c r="I958" s="4">
         <v>0.9054</v>
       </c>
-      <c r="J958" s="21">
+      <c r="J958" s="4">
         <v>0.9524</v>
       </c>
     </row>
@@ -25190,31 +25173,31 @@
       <c r="A959" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B959" s="21">
+      <c r="B959" s="4">
         <v>0.9954</v>
       </c>
-      <c r="C959" s="21">
+      <c r="C959" s="4">
         <v>0.8745</v>
       </c>
-      <c r="D959" s="21">
+      <c r="D959" s="4">
         <v>0.9974</v>
       </c>
-      <c r="E959" s="21">
+      <c r="E959" s="4">
         <v>0.9302</v>
       </c>
-      <c r="F959" s="21">
+      <c r="F959" s="4">
         <v>0.9334</v>
       </c>
-      <c r="G959" s="21">
+      <c r="G959" s="4">
         <v>0.9883</v>
       </c>
-      <c r="H959" s="21">
+      <c r="H959" s="4">
         <v>0.8871</v>
       </c>
-      <c r="I959" s="21">
+      <c r="I959" s="4">
         <v>0.9297</v>
       </c>
-      <c r="J959" s="21">
+      <c r="J959" s="4">
         <v>0.936</v>
       </c>
     </row>
@@ -25222,31 +25205,31 @@
       <c r="A960" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B960" s="21">
+      <c r="B960" s="4">
         <v>0.9958</v>
       </c>
-      <c r="C960" s="21">
+      <c r="C960" s="4">
         <v>0.8739</v>
       </c>
-      <c r="D960" s="21">
+      <c r="D960" s="4">
         <v>0.9978</v>
       </c>
-      <c r="E960" s="21">
+      <c r="E960" s="4">
         <v>0.9336</v>
       </c>
-      <c r="F960" s="21">
+      <c r="F960" s="4">
         <v>0.9332</v>
       </c>
-      <c r="G960" s="21">
+      <c r="G960" s="4">
         <v>0.9956</v>
       </c>
-      <c r="H960" s="21">
+      <c r="H960" s="4">
         <v>0.891</v>
       </c>
-      <c r="I960" s="21">
+      <c r="I960" s="4">
         <v>0.9331</v>
       </c>
-      <c r="J960" s="21">
+      <c r="J960" s="4">
         <v>0.9358</v>
       </c>
     </row>
@@ -25254,31 +25237,31 @@
       <c r="A961" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B961" s="21">
+      <c r="B961" s="4">
         <v>0.9945</v>
       </c>
-      <c r="C961" s="21">
+      <c r="C961" s="4">
         <v>0.9307</v>
       </c>
-      <c r="D961" s="21">
+      <c r="D961" s="4">
         <v>0.9955</v>
       </c>
-      <c r="E961" s="21">
+      <c r="E961" s="4">
         <v>0.9222</v>
       </c>
-      <c r="F961" s="21">
+      <c r="F961" s="4">
         <v>0.9621</v>
       </c>
-      <c r="G961" s="21">
+      <c r="G961" s="4">
         <v>0.9875</v>
       </c>
-      <c r="H961" s="21">
+      <c r="H961" s="4">
         <v>0.8862</v>
       </c>
-      <c r="I961" s="21">
+      <c r="I961" s="4">
         <v>0.891</v>
       </c>
-      <c r="J961" s="21">
+      <c r="J961" s="4">
         <v>0.9631</v>
       </c>
     </row>
@@ -25286,31 +25269,31 @@
       <c r="A962" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B962" s="21">
+      <c r="B962" s="4">
         <v>0.9951</v>
       </c>
-      <c r="C962" s="21">
+      <c r="C962" s="4">
         <v>0.8752</v>
       </c>
-      <c r="D962" s="21">
+      <c r="D962" s="4">
         <v>0.997</v>
       </c>
-      <c r="E962" s="21">
+      <c r="E962" s="4">
         <v>0.9246</v>
       </c>
-      <c r="F962" s="21">
+      <c r="F962" s="4">
         <v>0.9338</v>
       </c>
-      <c r="G962" s="21">
+      <c r="G962" s="4">
         <v>0.9752</v>
       </c>
-      <c r="H962" s="21">
+      <c r="H962" s="4">
         <v>0.8576</v>
       </c>
-      <c r="I962" s="21">
+      <c r="I962" s="4">
         <v>0.9147</v>
       </c>
-      <c r="J962" s="21">
+      <c r="J962" s="4">
         <v>0.9361</v>
       </c>
     </row>
@@ -25318,31 +25301,31 @@
       <c r="A963" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B963" s="21">
+      <c r="B963" s="4">
         <v>0.9947</v>
       </c>
-      <c r="C963" s="21">
+      <c r="C963" s="4">
         <v>0.9196</v>
       </c>
-      <c r="D963" s="21">
+      <c r="D963" s="4">
         <v>0.9959</v>
       </c>
-      <c r="E963" s="21">
+      <c r="E963" s="4">
         <v>0.9232</v>
       </c>
-      <c r="F963" s="21">
+      <c r="F963" s="4">
         <v>0.9565</v>
       </c>
-      <c r="G963" s="21">
+      <c r="G963" s="4">
         <v>0.9896</v>
       </c>
-      <c r="H963" s="21">
+      <c r="H963" s="4">
         <v>0.8884</v>
       </c>
-      <c r="I963" s="21">
+      <c r="I963" s="4">
         <v>0.8963</v>
       </c>
-      <c r="J963" s="21">
+      <c r="J963" s="4">
         <v>0.9578</v>
       </c>
     </row>
@@ -25350,31 +25333,31 @@
       <c r="A964" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B964" s="21">
+      <c r="B964" s="4">
         <v>0.9951</v>
       </c>
-      <c r="C964" s="21">
+      <c r="C964" s="4">
         <v>0.8641</v>
       </c>
-      <c r="D964" s="21">
+      <c r="D964" s="4">
         <v>0.9972</v>
       </c>
-      <c r="E964" s="21">
+      <c r="E964" s="4">
         <v>0.9236</v>
       </c>
-      <c r="F964" s="21">
+      <c r="F964" s="4">
         <v>0.9279</v>
       </c>
-      <c r="G964" s="21">
+      <c r="G964" s="4">
         <v>0.9869</v>
       </c>
-      <c r="H964" s="21">
+      <c r="H964" s="4">
         <v>0.889</v>
       </c>
-      <c r="I964" s="21">
+      <c r="I964" s="4">
         <v>0.9176</v>
       </c>
-      <c r="J964" s="21">
+      <c r="J964" s="4">
         <v>0.9306</v>
       </c>
     </row>
@@ -25449,8 +25432,6 @@
         <v>28</v>
       </c>
       <c r="B970" s="6"/>
-      <c r="C970"/>
-      <c r="D970"/>
       <c r="E970" s="8">
         <v>0.911</v>
       </c>
@@ -25502,31 +25483,31 @@
       <c r="A974" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B974" s="21">
+      <c r="B974" s="4">
         <v>0.9984</v>
       </c>
-      <c r="C974" s="21">
+      <c r="C974" s="4">
         <v>0.9267</v>
       </c>
-      <c r="D974" s="21">
+      <c r="D974" s="4">
         <v>0.9987</v>
       </c>
-      <c r="E974" s="21">
+      <c r="E974" s="4">
         <v>0.9253</v>
       </c>
-      <c r="F974" s="21">
+      <c r="F974" s="4">
         <v>0.9608</v>
       </c>
-      <c r="G974" s="21">
+      <c r="G974" s="4">
         <v>0.9997</v>
       </c>
-      <c r="H974" s="21">
+      <c r="H974" s="4">
         <v>0.9398</v>
       </c>
-      <c r="I974" s="21">
+      <c r="I974" s="4">
         <v>0.8965</v>
       </c>
-      <c r="J974" s="21">
+      <c r="J974" s="4">
         <v>0.9627</v>
       </c>
     </row>
@@ -25534,31 +25515,31 @@
       <c r="A975" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B975" s="21">
+      <c r="B975" s="4">
         <v>0.9963</v>
       </c>
-      <c r="C975" s="21">
+      <c r="C975" s="4">
         <v>1</v>
       </c>
-      <c r="D975" s="21">
+      <c r="D975" s="4">
         <v>0.9963</v>
       </c>
-      <c r="E975" s="21">
+      <c r="E975" s="4">
         <v>0.8685</v>
       </c>
-      <c r="F975" s="21">
+      <c r="F975" s="4">
         <v>0.9982</v>
       </c>
-      <c r="G975" s="21">
+      <c r="G975" s="4">
         <v>0.9993</v>
       </c>
-      <c r="H975" s="21">
+      <c r="H975" s="4">
         <v>0.8679</v>
       </c>
-      <c r="I975" s="21">
+      <c r="I975" s="4">
         <v>0.7951</v>
       </c>
-      <c r="J975" s="21">
+      <c r="J975" s="4">
         <v>0.9982</v>
       </c>
     </row>
@@ -25566,31 +25547,31 @@
       <c r="A976" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B976" s="21">
+      <c r="B976" s="4">
         <v>0.9644</v>
       </c>
-      <c r="C976" s="21">
+      <c r="C976" s="4">
         <v>1</v>
       </c>
-      <c r="D976" s="21">
+      <c r="D976" s="4">
         <v>0.9642</v>
       </c>
-      <c r="E976" s="21">
+      <c r="E976" s="4">
         <v>0.6058</v>
       </c>
-      <c r="F976" s="21">
+      <c r="F976" s="4">
         <v>0.9819</v>
       </c>
-      <c r="G976" s="21">
+      <c r="G976" s="4">
         <v>0.9987</v>
       </c>
-      <c r="H976" s="21">
+      <c r="H976" s="4">
         <v>0.7338</v>
       </c>
-      <c r="I976" s="21">
+      <c r="I976" s="4">
         <v>0.5652</v>
       </c>
-      <c r="J976" s="21">
+      <c r="J976" s="4">
         <v>0.9821</v>
       </c>
     </row>
@@ -25598,31 +25579,31 @@
       <c r="A977" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B977" s="21">
+      <c r="B977" s="4">
         <v>0.9691</v>
       </c>
-      <c r="C977" s="21">
+      <c r="C977" s="4">
         <v>1</v>
       </c>
-      <c r="D977" s="21">
+      <c r="D977" s="4">
         <v>0.969</v>
       </c>
-      <c r="E977" s="21">
+      <c r="E977" s="4">
         <v>0.6204</v>
       </c>
-      <c r="F977" s="21">
+      <c r="F977" s="4">
         <v>0.9844</v>
       </c>
-      <c r="G977" s="21">
+      <c r="G977" s="4">
         <v>0.9985</v>
       </c>
-      <c r="H977" s="21">
+      <c r="H977" s="4">
         <v>0.7454</v>
       </c>
-      <c r="I977" s="21">
+      <c r="I977" s="4">
         <v>0.574</v>
       </c>
-      <c r="J977" s="21">
+      <c r="J977" s="4">
         <v>0.9845</v>
       </c>
     </row>
@@ -25630,31 +25611,31 @@
       <c r="A978" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B978" s="21">
+      <c r="B978" s="4">
         <v>0.9803</v>
       </c>
-      <c r="C978" s="21">
+      <c r="C978" s="4">
         <v>1</v>
       </c>
-      <c r="D978" s="21">
+      <c r="D978" s="4">
         <v>0.9802</v>
       </c>
-      <c r="E978" s="21">
+      <c r="E978" s="4">
         <v>0.6682</v>
       </c>
-      <c r="F978" s="21">
+      <c r="F978" s="4">
         <v>0.99</v>
       </c>
-      <c r="G978" s="21">
+      <c r="G978" s="4">
         <v>0.9951</v>
       </c>
-      <c r="H978" s="21">
+      <c r="H978" s="4">
         <v>0.4452</v>
       </c>
-      <c r="I978" s="21">
+      <c r="I978" s="4">
         <v>0.6051</v>
       </c>
-      <c r="J978" s="21">
+      <c r="J978" s="4">
         <v>0.9901</v>
       </c>
     </row>
@@ -25662,31 +25643,31 @@
       <c r="A979" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B979" s="21">
+      <c r="B979" s="4">
         <v>0.9684</v>
       </c>
-      <c r="C979" s="21">
+      <c r="C979" s="4">
         <v>1</v>
       </c>
-      <c r="D979" s="21">
+      <c r="D979" s="4">
         <v>0.9682</v>
       </c>
-      <c r="E979" s="21">
+      <c r="E979" s="4">
         <v>0.6153</v>
       </c>
-      <c r="F979" s="21">
+      <c r="F979" s="4">
         <v>0.984</v>
       </c>
-      <c r="G979" s="21">
+      <c r="G979" s="4">
         <v>0.9993</v>
       </c>
-      <c r="H979" s="21">
+      <c r="H979" s="4">
         <v>0.8652</v>
       </c>
-      <c r="I979" s="21">
+      <c r="I979" s="4">
         <v>0.5705</v>
       </c>
-      <c r="J979" s="21">
+      <c r="J979" s="4">
         <v>0.9841</v>
       </c>
     </row>
@@ -25694,31 +25675,31 @@
       <c r="A980" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B980" s="21">
+      <c r="B980" s="4">
         <v>0.9614</v>
       </c>
-      <c r="C980" s="21">
+      <c r="C980" s="4">
         <v>0.9267</v>
       </c>
-      <c r="D980" s="21">
+      <c r="D980" s="4">
         <v>0.9616</v>
       </c>
-      <c r="E980" s="21">
+      <c r="E980" s="4">
         <v>0.7075</v>
       </c>
-      <c r="F980" s="21">
+      <c r="F980" s="4">
         <v>0.9426</v>
       </c>
-      <c r="G980" s="21">
+      <c r="G980" s="4">
         <v>0.9861</v>
       </c>
-      <c r="H980" s="21">
+      <c r="H980" s="4">
         <v>0.6694</v>
       </c>
-      <c r="I980" s="21">
+      <c r="I980" s="4">
         <v>0.6642</v>
       </c>
-      <c r="J980" s="21">
+      <c r="J980" s="4">
         <v>0.9441</v>
       </c>
     </row>
@@ -25726,31 +25707,31 @@
       <c r="A981" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B981" s="21">
+      <c r="B981" s="4">
         <v>0.9976</v>
       </c>
-      <c r="C981" s="21">
+      <c r="C981" s="4">
         <v>0.68</v>
       </c>
-      <c r="D981" s="21">
+      <c r="D981" s="4">
         <v>0.9993</v>
       </c>
-      <c r="E981" s="21">
+      <c r="E981" s="4">
         <v>0.8715</v>
       </c>
-      <c r="F981" s="21">
+      <c r="F981" s="4">
         <v>0.8234</v>
       </c>
-      <c r="G981" s="21">
+      <c r="G981" s="4">
         <v>0.9974</v>
       </c>
-      <c r="H981" s="21">
+      <c r="H981" s="4">
         <v>0.8338</v>
       </c>
-      <c r="I981" s="21">
+      <c r="I981" s="4">
         <v>0.9142</v>
       </c>
-      <c r="J981" s="21">
+      <c r="J981" s="4">
         <v>0.8396</v>
       </c>
     </row>
@@ -25758,31 +25739,31 @@
       <c r="A982" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B982" s="21">
+      <c r="B982" s="4">
         <v>0.998</v>
       </c>
-      <c r="C982" s="21">
+      <c r="C982" s="4">
         <v>0.72</v>
       </c>
-      <c r="D982" s="21">
+      <c r="D982" s="4">
         <v>0.9994</v>
       </c>
-      <c r="E982" s="21">
+      <c r="E982" s="4">
         <v>0.8898</v>
       </c>
-      <c r="F982" s="21">
+      <c r="F982" s="4">
         <v>0.8446</v>
       </c>
-      <c r="G982" s="21">
+      <c r="G982" s="4">
         <v>0.9962</v>
       </c>
-      <c r="H982" s="21">
+      <c r="H982" s="4">
         <v>0.7974</v>
       </c>
-      <c r="I982" s="21">
+      <c r="I982" s="4">
         <v>0.9376</v>
       </c>
-      <c r="J982" s="21">
+      <c r="J982" s="4">
         <v>0.8597</v>
       </c>
     </row>
@@ -25790,31 +25771,31 @@
       <c r="A983" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B983" s="21">
+      <c r="B983" s="4">
         <v>0.9984</v>
       </c>
-      <c r="C983" s="21">
+      <c r="C983" s="4">
         <v>0.86</v>
       </c>
-      <c r="D983" s="21">
+      <c r="D983" s="4">
         <v>0.9991</v>
       </c>
-      <c r="E983" s="21">
+      <c r="E983" s="4">
         <v>0.9189</v>
       </c>
-      <c r="F983" s="21">
+      <c r="F983" s="4">
         <v>0.9243</v>
       </c>
-      <c r="G983" s="21">
+      <c r="G983" s="4">
         <v>0.9995</v>
       </c>
-      <c r="H983" s="21">
+      <c r="H983" s="4">
         <v>0.9319</v>
       </c>
-      <c r="I983" s="21">
+      <c r="I983" s="4">
         <v>0.912</v>
       </c>
-      <c r="J983" s="21">
+      <c r="J983" s="4">
         <v>0.9295</v>
       </c>
     </row>
@@ -25822,31 +25803,31 @@
       <c r="A984" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B984" s="21">
+      <c r="B984" s="4">
         <v>0.9976</v>
       </c>
-      <c r="C984" s="21">
+      <c r="C984" s="4">
         <v>0.86</v>
       </c>
-      <c r="D984" s="21">
+      <c r="D984" s="4">
         <v>0.9983</v>
       </c>
-      <c r="E984" s="21">
+      <c r="E984" s="4">
         <v>0.8917</v>
       </c>
-      <c r="F984" s="21">
+      <c r="F984" s="4">
         <v>0.924</v>
       </c>
-      <c r="G984" s="21">
+      <c r="G984" s="4">
         <v>0.9989</v>
       </c>
-      <c r="H984" s="21">
+      <c r="H984" s="4">
         <v>0.8682</v>
       </c>
-      <c r="I984" s="21">
+      <c r="I984" s="4">
         <v>0.8686</v>
       </c>
-      <c r="J984" s="21">
+      <c r="J984" s="4">
         <v>0.9292</v>
       </c>
     </row>
@@ -25854,31 +25835,31 @@
       <c r="A985" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B985" s="21">
+      <c r="B985" s="4">
         <v>0.9978</v>
       </c>
-      <c r="C985" s="21">
+      <c r="C985" s="4">
         <v>0.8</v>
       </c>
-      <c r="D985" s="21">
+      <c r="D985" s="4">
         <v>0.9989</v>
       </c>
-      <c r="E985" s="21">
+      <c r="E985" s="4">
         <v>0.8898</v>
       </c>
-      <c r="F985" s="21">
+      <c r="F985" s="4">
         <v>0.8868</v>
       </c>
-      <c r="G985" s="21">
+      <c r="G985" s="4">
         <v>0.9826</v>
       </c>
-      <c r="H985" s="21">
+      <c r="H985" s="4">
         <v>0.8487</v>
       </c>
-      <c r="I985" s="21">
+      <c r="I985" s="4">
         <v>0.8925</v>
       </c>
-      <c r="J985" s="21">
+      <c r="J985" s="4">
         <v>0.8994</v>
       </c>
     </row>
@@ -25886,31 +25867,31 @@
       <c r="A986" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B986" s="21">
+      <c r="B986" s="4">
         <v>0.9976</v>
       </c>
-      <c r="C986" s="21">
+      <c r="C986" s="4">
         <v>0.76</v>
       </c>
-      <c r="D986" s="21">
+      <c r="D986" s="4">
         <v>0.9989</v>
       </c>
-      <c r="E986" s="21">
+      <c r="E986" s="4">
         <v>0.8812</v>
       </c>
-      <c r="F986" s="21">
+      <c r="F986" s="4">
         <v>0.8683</v>
       </c>
-      <c r="G986" s="21">
+      <c r="G986" s="4">
         <v>0.9971</v>
       </c>
-      <c r="H986" s="21">
+      <c r="H986" s="4">
         <v>0.8209</v>
       </c>
-      <c r="I986" s="21">
+      <c r="I986" s="4">
         <v>0.8894</v>
       </c>
-      <c r="J986" s="21">
+      <c r="J986" s="4">
         <v>0.8794</v>
       </c>
     </row>
@@ -25918,31 +25899,31 @@
       <c r="A987" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B987" s="21">
+      <c r="B987" s="4">
         <v>0.9974</v>
       </c>
-      <c r="C987" s="21">
+      <c r="C987" s="4">
         <v>0.76</v>
       </c>
-      <c r="D987" s="21">
+      <c r="D987" s="4">
         <v>0.9987</v>
       </c>
-      <c r="E987" s="21">
+      <c r="E987" s="4">
         <v>0.8733</v>
       </c>
-      <c r="F987" s="21">
+      <c r="F987" s="4">
         <v>0.8656</v>
       </c>
-      <c r="G987" s="21">
+      <c r="G987" s="4">
         <v>0.9825</v>
       </c>
-      <c r="H987" s="21">
+      <c r="H987" s="4">
         <v>0.8144</v>
       </c>
-      <c r="I987" s="21">
+      <c r="I987" s="4">
         <v>0.8875</v>
       </c>
-      <c r="J987" s="21">
+      <c r="J987" s="4">
         <v>0.8794</v>
       </c>
     </row>
@@ -25950,31 +25931,31 @@
       <c r="A988" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B988" s="21">
+      <c r="B988" s="4">
         <v>0.9973</v>
       </c>
-      <c r="C988" s="21">
+      <c r="C988" s="4">
         <v>0.6867</v>
       </c>
-      <c r="D988" s="21">
+      <c r="D988" s="4">
         <v>0.9989</v>
       </c>
-      <c r="E988" s="21">
+      <c r="E988" s="4">
         <v>0.8563</v>
       </c>
-      <c r="F988" s="21">
+      <c r="F988" s="4">
         <v>0.8225</v>
       </c>
-      <c r="G988" s="21">
+      <c r="G988" s="4">
         <v>0.9979</v>
       </c>
-      <c r="H988" s="21">
+      <c r="H988" s="4">
         <v>0.8068</v>
       </c>
-      <c r="I988" s="21">
+      <c r="I988" s="4">
         <v>0.8892</v>
       </c>
-      <c r="J988" s="21">
+      <c r="J988" s="4">
         <v>0.8428</v>
       </c>
     </row>
@@ -26035,15 +26016,13 @@
         <v>28</v>
       </c>
       <c r="B993" s="6"/>
-      <c r="C993"/>
-      <c r="D993"/>
       <c r="E993" s="8">
         <v>0.9123</v>
       </c>
       <c r="F993" s="6">
         <v>0.8876</v>
       </c>
-      <c r="G993" s="10">
+      <c r="G993" s="11">
         <v>0.9996</v>
       </c>
       <c r="H993" s="8">
@@ -26053,7 +26032,9 @@
       <c r="J993" s="6"/>
     </row>
     <row r="996" spans="1:10">
-      <c r="A996" s="20"/>
+      <c r="A996" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="B996" s="2" t="s">
         <v>1</v>
       </c>
@@ -26086,211 +26067,481 @@
       <c r="A997" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
+      <c r="B997" s="21">
+        <v>0.7917</v>
+      </c>
+      <c r="C997" s="21">
+        <v>0.6733</v>
+      </c>
+      <c r="D997" s="21">
+        <v>0.8329</v>
+      </c>
+      <c r="E997" s="21">
+        <v>0.7393</v>
+      </c>
+      <c r="F997" s="21">
+        <v>0.7473</v>
+      </c>
+      <c r="G997" s="21">
+        <v>0.8697</v>
+      </c>
+      <c r="H997" s="21">
+        <v>0.6633</v>
+      </c>
+      <c r="I997" s="21">
+        <v>0.732</v>
+      </c>
+      <c r="J997" s="21">
+        <v>0.7531</v>
+      </c>
     </row>
     <row r="998" spans="1:10">
       <c r="A998" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
+      <c r="B998" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="C998" s="21">
+        <v>0.6682</v>
+      </c>
+      <c r="D998" s="21">
+        <v>0.8456</v>
+      </c>
+      <c r="E998" s="21">
+        <v>0.7471</v>
+      </c>
+      <c r="F998" s="21">
+        <v>0.7511</v>
+      </c>
+      <c r="G998" s="21">
+        <v>0.8584</v>
+      </c>
+      <c r="H998" s="21">
+        <v>0.6215</v>
+      </c>
+      <c r="I998" s="21">
+        <v>0.7404</v>
+      </c>
+      <c r="J998" s="21">
+        <v>0.7569</v>
+      </c>
     </row>
     <row r="999" spans="1:10">
       <c r="A999" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
+      <c r="B999" s="21">
+        <v>0.7893</v>
+      </c>
+      <c r="C999" s="21">
+        <v>0.7741</v>
+      </c>
+      <c r="D999" s="21">
+        <v>0.7947</v>
+      </c>
+      <c r="E999" s="21">
+        <v>0.751</v>
+      </c>
+      <c r="F999" s="21">
+        <v>0.7831</v>
+      </c>
+      <c r="G999" s="21">
+        <v>0.8583</v>
+      </c>
+      <c r="H999" s="21">
+        <v>0.6198</v>
+      </c>
+      <c r="I999" s="21">
+        <v>0.7401</v>
+      </c>
+      <c r="J999" s="21">
+        <v>0.7844</v>
+      </c>
     </row>
     <row r="1000" spans="1:10">
       <c r="A1000" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
+      <c r="B1000" s="21">
+        <v>0.7479</v>
+      </c>
+      <c r="C1000" s="21">
+        <v>0.691</v>
+      </c>
+      <c r="D1000" s="21">
+        <v>0.7675</v>
+      </c>
+      <c r="E1000" s="21">
+        <v>0.7013</v>
+      </c>
+      <c r="F1000" s="21">
+        <v>0.7265</v>
+      </c>
+      <c r="G1000" s="21">
+        <v>0.825</v>
+      </c>
+      <c r="H1000" s="21">
+        <v>0.6246</v>
+      </c>
+      <c r="I1000" s="21">
+        <v>0.6941</v>
+      </c>
+      <c r="J1000" s="21">
+        <v>0.7292</v>
+      </c>
     </row>
     <row r="1001" spans="1:10">
       <c r="A1001" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
+      <c r="B1001" s="21">
+        <v>0.6923</v>
+      </c>
+      <c r="C1001" s="21">
+        <v>0.5663</v>
+      </c>
+      <c r="D1001" s="21">
+        <v>0.7358</v>
+      </c>
+      <c r="E1001" s="21">
+        <v>0.6337</v>
+      </c>
+      <c r="F1001" s="21">
+        <v>0.6445</v>
+      </c>
+      <c r="G1001" s="21">
+        <v>0.7138</v>
+      </c>
+      <c r="H1001" s="21">
+        <v>0.4713</v>
+      </c>
+      <c r="I1001" s="21">
+        <v>0.6304</v>
+      </c>
+      <c r="J1001" s="21">
+        <v>0.651</v>
+      </c>
     </row>
     <row r="1002" spans="1:10">
       <c r="A1002" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="4"/>
-      <c r="G1002" s="4"/>
-      <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
-      <c r="J1002" s="4"/>
+      <c r="B1002" s="21">
+        <v>0.7692</v>
+      </c>
+      <c r="C1002" s="21">
+        <v>0.7971</v>
+      </c>
+      <c r="D1002" s="21">
+        <v>0.7595</v>
+      </c>
+      <c r="E1002" s="21">
+        <v>0.7348</v>
+      </c>
+      <c r="F1002" s="21">
+        <v>0.7773</v>
+      </c>
+      <c r="G1002" s="21">
+        <v>0.8603</v>
+      </c>
+      <c r="H1002" s="21">
+        <v>0.6166</v>
+      </c>
+      <c r="I1002" s="21">
+        <v>0.7257</v>
+      </c>
+      <c r="J1002" s="21">
+        <v>0.7783</v>
+      </c>
     </row>
     <row r="1003" spans="1:10">
       <c r="A1003" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1003" s="4"/>
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
-      <c r="E1003" s="4"/>
-      <c r="F1003" s="4"/>
-      <c r="G1003" s="4"/>
-      <c r="H1003" s="4"/>
-      <c r="I1003" s="4"/>
-      <c r="J1003" s="4"/>
+      <c r="B1003" s="21">
+        <v>0.6864</v>
+      </c>
+      <c r="C1003" s="21">
+        <v>0.8755</v>
+      </c>
+      <c r="D1003" s="21">
+        <v>0.6211</v>
+      </c>
+      <c r="E1003" s="21">
+        <v>0.6675</v>
+      </c>
+      <c r="F1003" s="21">
+        <v>0.7361</v>
+      </c>
+      <c r="G1003" s="21">
+        <v>0.8224</v>
+      </c>
+      <c r="H1003" s="21">
+        <v>0.629</v>
+      </c>
+      <c r="I1003" s="21">
+        <v>0.6909</v>
+      </c>
+      <c r="J1003" s="21">
+        <v>0.7483</v>
+      </c>
     </row>
     <row r="1004" spans="1:10">
       <c r="A1004" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1004" s="4"/>
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
-      <c r="E1004" s="4"/>
-      <c r="F1004" s="4"/>
-      <c r="G1004" s="4"/>
-      <c r="H1004" s="4"/>
-      <c r="I1004" s="4"/>
-      <c r="J1004" s="4"/>
+      <c r="B1004" s="21">
+        <v>0.7609</v>
+      </c>
+      <c r="C1004" s="21">
+        <v>0.6636</v>
+      </c>
+      <c r="D1004" s="21">
+        <v>0.7947</v>
+      </c>
+      <c r="E1004" s="21">
+        <v>0.7088</v>
+      </c>
+      <c r="F1004" s="21">
+        <v>0.7241</v>
+      </c>
+      <c r="G1004" s="21">
+        <v>0.8287</v>
+      </c>
+      <c r="H1004" s="21">
+        <v>0.6481</v>
+      </c>
+      <c r="I1004" s="21">
+        <v>0.7014</v>
+      </c>
+      <c r="J1004" s="21">
+        <v>0.7291</v>
+      </c>
     </row>
     <row r="1005" spans="1:10">
       <c r="A1005" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1005" s="4"/>
-      <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
-      <c r="E1005" s="4"/>
-      <c r="F1005" s="4"/>
-      <c r="G1005" s="4"/>
-      <c r="H1005" s="4"/>
-      <c r="I1005" s="4"/>
-      <c r="J1005" s="4"/>
+      <c r="B1005" s="21">
+        <v>0.7905</v>
+      </c>
+      <c r="C1005" s="21">
+        <v>0.5942</v>
+      </c>
+      <c r="D1005" s="21">
+        <v>0.8582</v>
+      </c>
+      <c r="E1005" s="21">
+        <v>0.7258</v>
+      </c>
+      <c r="F1005" s="21">
+        <v>0.7135</v>
+      </c>
+      <c r="G1005" s="21">
+        <v>0.8472</v>
+      </c>
+      <c r="H1005" s="21">
+        <v>0.6597</v>
+      </c>
+      <c r="I1005" s="21">
+        <v>0.7267</v>
+      </c>
+      <c r="J1005" s="21">
+        <v>0.7262</v>
+      </c>
     </row>
     <row r="1006" spans="1:10">
       <c r="A1006" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1006" s="4"/>
-      <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
-      <c r="E1006" s="4"/>
-      <c r="F1006" s="4"/>
-      <c r="G1006" s="4"/>
-      <c r="H1006" s="4"/>
-      <c r="I1006" s="4"/>
-      <c r="J1006" s="4"/>
+      <c r="B1006" s="21">
+        <v>0.7917</v>
+      </c>
+      <c r="C1006" s="21">
+        <v>0.4055</v>
+      </c>
+      <c r="D1006" s="21">
+        <v>0.9252</v>
+      </c>
+      <c r="E1006" s="21">
+        <v>0.6838</v>
+      </c>
+      <c r="F1006" s="21">
+        <v>0.6116</v>
+      </c>
+      <c r="G1006" s="21">
+        <v>0.8587</v>
+      </c>
+      <c r="H1006" s="21">
+        <v>0.6574</v>
+      </c>
+      <c r="I1006" s="21">
+        <v>0.7367</v>
+      </c>
+      <c r="J1006" s="21">
+        <v>0.6653</v>
+      </c>
     </row>
     <row r="1007" spans="1:10">
       <c r="A1007" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1007" s="4"/>
-      <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
-      <c r="E1007" s="4"/>
-      <c r="F1007" s="4"/>
-      <c r="G1007" s="4"/>
-      <c r="H1007" s="4"/>
-      <c r="I1007" s="4"/>
-      <c r="J1007" s="4"/>
+      <c r="B1007" s="21">
+        <v>0.7645</v>
+      </c>
+      <c r="C1007" s="21">
+        <v>0.645</v>
+      </c>
+      <c r="D1007" s="21">
+        <v>0.8057</v>
+      </c>
+      <c r="E1007" s="21">
+        <v>0.7097</v>
+      </c>
+      <c r="F1007" s="21">
+        <v>0.7202</v>
+      </c>
+      <c r="G1007" s="21">
+        <v>0.8272</v>
+      </c>
+      <c r="H1007" s="21">
+        <v>0.6293</v>
+      </c>
+      <c r="I1007" s="21">
+        <v>0.7012</v>
+      </c>
+      <c r="J1007" s="21">
+        <v>0.7254</v>
+      </c>
     </row>
     <row r="1008" spans="1:10">
       <c r="A1008" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1008" s="4"/>
-      <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
-      <c r="E1008" s="4"/>
-      <c r="F1008" s="4"/>
-      <c r="G1008" s="4"/>
-      <c r="H1008" s="4"/>
-      <c r="I1008" s="4"/>
-      <c r="J1008" s="4"/>
+      <c r="B1008" s="21">
+        <v>0.7917</v>
+      </c>
+      <c r="C1008" s="21">
+        <v>0.4609</v>
+      </c>
+      <c r="D1008" s="21">
+        <v>0.906</v>
+      </c>
+      <c r="E1008" s="21">
+        <v>0.6982</v>
+      </c>
+      <c r="F1008" s="21">
+        <v>0.6447</v>
+      </c>
+      <c r="G1008" s="21">
+        <v>0.8622</v>
+      </c>
+      <c r="H1008" s="21">
+        <v>0.6441</v>
+      </c>
+      <c r="I1008" s="21">
+        <v>0.7291</v>
+      </c>
+      <c r="J1008" s="21">
+        <v>0.6835</v>
+      </c>
     </row>
     <row r="1009" spans="1:10">
       <c r="A1009" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
-      <c r="E1009" s="4"/>
-      <c r="F1009" s="4"/>
-      <c r="G1009" s="4"/>
-      <c r="H1009" s="4"/>
-      <c r="I1009" s="4"/>
-      <c r="J1009" s="4"/>
+      <c r="B1009" s="21">
+        <v>0.7692</v>
+      </c>
+      <c r="C1009" s="21">
+        <v>0.686</v>
+      </c>
+      <c r="D1009" s="21">
+        <v>0.7978</v>
+      </c>
+      <c r="E1009" s="21">
+        <v>0.7204</v>
+      </c>
+      <c r="F1009" s="21">
+        <v>0.7388</v>
+      </c>
+      <c r="G1009" s="21">
+        <v>0.8326</v>
+      </c>
+      <c r="H1009" s="21">
+        <v>0.6375</v>
+      </c>
+      <c r="I1009" s="21">
+        <v>0.7111</v>
+      </c>
+      <c r="J1009" s="21">
+        <v>0.7419</v>
+      </c>
     </row>
     <row r="1010" spans="1:10">
       <c r="A1010" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
-      <c r="E1010" s="4"/>
-      <c r="F1010" s="4"/>
-      <c r="G1010" s="4"/>
-      <c r="H1010" s="4"/>
-      <c r="I1010" s="4"/>
-      <c r="J1010" s="4"/>
+      <c r="B1010" s="21">
+        <v>0.7929</v>
+      </c>
+      <c r="C1010" s="21">
+        <v>0.5252</v>
+      </c>
+      <c r="D1010" s="21">
+        <v>0.8853</v>
+      </c>
+      <c r="E1010" s="21">
+        <v>0.7139</v>
+      </c>
+      <c r="F1010" s="21">
+        <v>0.6802</v>
+      </c>
+      <c r="G1010" s="21">
+        <v>0.8653</v>
+      </c>
+      <c r="H1010" s="21">
+        <v>0.6337</v>
+      </c>
+      <c r="I1010" s="21">
+        <v>0.7281</v>
+      </c>
+      <c r="J1010" s="21">
+        <v>0.7053</v>
+      </c>
     </row>
     <row r="1011" spans="1:10">
       <c r="A1011" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
-      <c r="E1011" s="4"/>
-      <c r="F1011" s="4"/>
-      <c r="G1011" s="4"/>
-      <c r="H1011" s="4"/>
-      <c r="I1011" s="4"/>
-      <c r="J1011" s="4"/>
+      <c r="B1011" s="21">
+        <v>0.787</v>
+      </c>
+      <c r="C1011" s="21">
+        <v>0.5433</v>
+      </c>
+      <c r="D1011" s="21">
+        <v>0.8711</v>
+      </c>
+      <c r="E1011" s="21">
+        <v>0.713</v>
+      </c>
+      <c r="F1011" s="21">
+        <v>0.6874</v>
+      </c>
+      <c r="G1011" s="21">
+        <v>0.8304</v>
+      </c>
+      <c r="H1011" s="21">
+        <v>0.6464</v>
+      </c>
+      <c r="I1011" s="21">
+        <v>0.7212</v>
+      </c>
+      <c r="J1011" s="21">
+        <v>0.7072</v>
+      </c>
     </row>
     <row r="1012" spans="1:10">
       <c r="A1012" s="6"/>
@@ -26349,17 +26600,25 @@
         <v>28</v>
       </c>
       <c r="B1016" s="6"/>
-      <c r="C1016"/>
-      <c r="D1016"/>
-      <c r="E1016" s="8"/>
-      <c r="F1016" s="6"/>
-      <c r="G1016" s="10"/>
-      <c r="H1016" s="10"/>
+      <c r="E1016" s="8">
+        <v>0.6801</v>
+      </c>
+      <c r="F1016" s="6">
+        <v>0.6075</v>
+      </c>
+      <c r="G1016" s="11">
+        <v>0.8657</v>
+      </c>
+      <c r="H1016" s="11">
+        <v>0.6557</v>
+      </c>
       <c r="I1016" s="6"/>
       <c r="J1016" s="6"/>
     </row>
     <row r="1019" spans="1:10">
-      <c r="A1019" s="20"/>
+      <c r="A1019" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="B1019" s="2" t="s">
         <v>1</v>
       </c>
@@ -26392,211 +26651,481 @@
       <c r="A1020" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1020" s="4"/>
-      <c r="C1020" s="4"/>
-      <c r="D1020" s="4"/>
-      <c r="E1020" s="4"/>
-      <c r="F1020" s="4"/>
-      <c r="G1020" s="4"/>
-      <c r="H1020" s="4"/>
-      <c r="I1020" s="4"/>
-      <c r="J1020" s="4"/>
+      <c r="B1020" s="21">
+        <v>0.9822</v>
+      </c>
+      <c r="C1020" s="21">
+        <v>0.9585</v>
+      </c>
+      <c r="D1020" s="21">
+        <v>0.9905</v>
+      </c>
+      <c r="E1020" s="21">
+        <v>0.9767</v>
+      </c>
+      <c r="F1020" s="21">
+        <v>0.9743</v>
+      </c>
+      <c r="G1020" s="21">
+        <v>0.9976</v>
+      </c>
+      <c r="H1020" s="21">
+        <v>0.993</v>
+      </c>
+      <c r="I1020" s="21">
+        <v>0.9791</v>
+      </c>
+      <c r="J1020" s="21">
+        <v>0.9745</v>
+      </c>
     </row>
     <row r="1021" spans="1:10">
       <c r="A1021" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1021" s="4"/>
-      <c r="C1021" s="4"/>
-      <c r="D1021" s="4"/>
-      <c r="E1021" s="4"/>
-      <c r="F1021" s="4"/>
-      <c r="G1021" s="4"/>
-      <c r="H1021" s="4"/>
-      <c r="I1021" s="4"/>
-      <c r="J1021" s="4"/>
+      <c r="B1021" s="21">
+        <v>0.9728</v>
+      </c>
+      <c r="C1021" s="21">
+        <v>0.9586</v>
+      </c>
+      <c r="D1021" s="21">
+        <v>0.9777</v>
+      </c>
+      <c r="E1021" s="21">
+        <v>0.9648</v>
+      </c>
+      <c r="F1021" s="21">
+        <v>0.9681</v>
+      </c>
+      <c r="G1021" s="21">
+        <v>0.9958</v>
+      </c>
+      <c r="H1021" s="21">
+        <v>0.9871</v>
+      </c>
+      <c r="I1021" s="21">
+        <v>0.9619</v>
+      </c>
+      <c r="J1021" s="21">
+        <v>0.9681</v>
+      </c>
     </row>
     <row r="1022" spans="1:10">
       <c r="A1022" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1022" s="4"/>
-      <c r="C1022" s="4"/>
-      <c r="D1022" s="4"/>
-      <c r="E1022" s="4"/>
-      <c r="F1022" s="4"/>
-      <c r="G1022" s="4"/>
-      <c r="H1022" s="4"/>
-      <c r="I1022" s="4"/>
-      <c r="J1022" s="4"/>
+      <c r="B1022" s="21">
+        <v>0.9728</v>
+      </c>
+      <c r="C1022" s="21">
+        <v>0.9678</v>
+      </c>
+      <c r="D1022" s="21">
+        <v>0.9745</v>
+      </c>
+      <c r="E1022" s="21">
+        <v>0.9651</v>
+      </c>
+      <c r="F1022" s="21">
+        <v>0.9711</v>
+      </c>
+      <c r="G1022" s="21">
+        <v>0.995</v>
+      </c>
+      <c r="H1022" s="21">
+        <v>0.9824</v>
+      </c>
+      <c r="I1022" s="21">
+        <v>0.9602</v>
+      </c>
+      <c r="J1022" s="21">
+        <v>0.9711</v>
+      </c>
     </row>
     <row r="1023" spans="1:10">
       <c r="A1023" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1023" s="4"/>
-      <c r="C1023" s="4"/>
-      <c r="D1023" s="4"/>
-      <c r="E1023" s="4"/>
-      <c r="F1023" s="4"/>
-      <c r="G1023" s="4"/>
-      <c r="H1023" s="4"/>
-      <c r="I1023" s="4"/>
-      <c r="J1023" s="4"/>
+      <c r="B1023" s="21">
+        <v>0.955</v>
+      </c>
+      <c r="C1023" s="21">
+        <v>0.9722</v>
+      </c>
+      <c r="D1023" s="21">
+        <v>0.9491</v>
+      </c>
+      <c r="E1023" s="21">
+        <v>0.9433</v>
+      </c>
+      <c r="F1023" s="21">
+        <v>0.9605</v>
+      </c>
+      <c r="G1023" s="21">
+        <v>0.9872</v>
+      </c>
+      <c r="H1023" s="21">
+        <v>0.9669</v>
+      </c>
+      <c r="I1023" s="21">
+        <v>0.9298</v>
+      </c>
+      <c r="J1023" s="21">
+        <v>0.9606</v>
+      </c>
     </row>
     <row r="1024" spans="1:10">
       <c r="A1024" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1024" s="4"/>
-      <c r="C1024" s="4"/>
-      <c r="D1024" s="4"/>
-      <c r="E1024" s="4"/>
-      <c r="F1024" s="4"/>
-      <c r="G1024" s="4"/>
-      <c r="H1024" s="4"/>
-      <c r="I1024" s="4"/>
-      <c r="J1024" s="4"/>
+      <c r="B1024" s="21">
+        <v>0.942</v>
+      </c>
+      <c r="C1024" s="21">
+        <v>0.9075</v>
+      </c>
+      <c r="D1024" s="21">
+        <v>0.9539</v>
+      </c>
+      <c r="E1024" s="21">
+        <v>0.9254</v>
+      </c>
+      <c r="F1024" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="G1024" s="21">
+        <v>0.982</v>
+      </c>
+      <c r="H1024" s="21">
+        <v>0.9526</v>
+      </c>
+      <c r="I1024" s="21">
+        <v>0.9228</v>
+      </c>
+      <c r="J1024" s="21">
+        <v>0.9307</v>
+      </c>
     </row>
     <row r="1025" spans="1:10">
       <c r="A1025" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1025" s="4"/>
-      <c r="C1025" s="4"/>
-      <c r="D1025" s="4"/>
-      <c r="E1025" s="4"/>
-      <c r="F1025" s="4"/>
-      <c r="G1025" s="4"/>
-      <c r="H1025" s="4"/>
-      <c r="I1025" s="4"/>
-      <c r="J1025" s="4"/>
+      <c r="B1025" s="21">
+        <v>0.9787</v>
+      </c>
+      <c r="C1025" s="21">
+        <v>0.9862</v>
+      </c>
+      <c r="D1025" s="21">
+        <v>0.9761</v>
+      </c>
+      <c r="E1025" s="21">
+        <v>0.9729</v>
+      </c>
+      <c r="F1025" s="21">
+        <v>0.9811</v>
+      </c>
+      <c r="G1025" s="21">
+        <v>0.9986</v>
+      </c>
+      <c r="H1025" s="21">
+        <v>0.9963</v>
+      </c>
+      <c r="I1025" s="21">
+        <v>0.9661</v>
+      </c>
+      <c r="J1025" s="21">
+        <v>0.9811</v>
+      </c>
     </row>
     <row r="1026" spans="1:10">
       <c r="A1026" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1026" s="4"/>
-      <c r="C1026" s="4"/>
-      <c r="D1026" s="4"/>
-      <c r="E1026" s="4"/>
-      <c r="F1026" s="4"/>
-      <c r="G1026" s="4"/>
-      <c r="H1026" s="4"/>
-      <c r="I1026" s="4"/>
-      <c r="J1026" s="4"/>
+      <c r="B1026" s="21">
+        <v>0.9183</v>
+      </c>
+      <c r="C1026" s="21">
+        <v>0.9953</v>
+      </c>
+      <c r="D1026" s="21">
+        <v>0.8917</v>
+      </c>
+      <c r="E1026" s="21">
+        <v>0.9026</v>
+      </c>
+      <c r="F1026" s="21">
+        <v>0.942</v>
+      </c>
+      <c r="G1026" s="21">
+        <v>0.9926</v>
+      </c>
+      <c r="H1026" s="21">
+        <v>0.9806</v>
+      </c>
+      <c r="I1026" s="21">
+        <v>0.8813</v>
+      </c>
+      <c r="J1026" s="21">
+        <v>0.9435</v>
+      </c>
     </row>
     <row r="1027" spans="1:10">
       <c r="A1027" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1027" s="4"/>
-      <c r="C1027" s="4"/>
-      <c r="D1027" s="4"/>
-      <c r="E1027" s="4"/>
-      <c r="F1027" s="4"/>
-      <c r="G1027" s="4"/>
-      <c r="H1027" s="4"/>
-      <c r="I1027" s="4"/>
-      <c r="J1027" s="4"/>
+      <c r="B1027" s="21">
+        <v>0.9763</v>
+      </c>
+      <c r="C1027" s="21">
+        <v>0.9675</v>
+      </c>
+      <c r="D1027" s="21">
+        <v>0.9793</v>
+      </c>
+      <c r="E1027" s="21">
+        <v>0.9692</v>
+      </c>
+      <c r="F1027" s="21">
+        <v>0.9733</v>
+      </c>
+      <c r="G1027" s="21">
+        <v>0.9935</v>
+      </c>
+      <c r="H1027" s="21">
+        <v>0.9862</v>
+      </c>
+      <c r="I1027" s="21">
+        <v>0.9656</v>
+      </c>
+      <c r="J1027" s="21">
+        <v>0.9734</v>
+      </c>
     </row>
     <row r="1028" spans="1:10">
       <c r="A1028" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1028" s="4"/>
-      <c r="C1028" s="4"/>
-      <c r="D1028" s="4"/>
-      <c r="E1028" s="4"/>
-      <c r="F1028" s="4"/>
-      <c r="G1028" s="4"/>
-      <c r="H1028" s="4"/>
-      <c r="I1028" s="4"/>
-      <c r="J1028" s="4"/>
+      <c r="B1028" s="21">
+        <v>0.974</v>
+      </c>
+      <c r="C1028" s="21">
+        <v>0.9538</v>
+      </c>
+      <c r="D1028" s="21">
+        <v>0.9809</v>
+      </c>
+      <c r="E1028" s="21">
+        <v>0.9661</v>
+      </c>
+      <c r="F1028" s="21">
+        <v>0.9672</v>
+      </c>
+      <c r="G1028" s="21">
+        <v>0.9937</v>
+      </c>
+      <c r="H1028" s="21">
+        <v>0.9871</v>
+      </c>
+      <c r="I1028" s="21">
+        <v>0.9652</v>
+      </c>
+      <c r="J1028" s="21">
+        <v>0.9674</v>
+      </c>
     </row>
     <row r="1029" spans="1:10">
       <c r="A1029" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1029" s="4"/>
-      <c r="C1029" s="4"/>
-      <c r="D1029" s="4"/>
-      <c r="E1029" s="4"/>
-      <c r="F1029" s="4"/>
-      <c r="G1029" s="4"/>
-      <c r="H1029" s="4"/>
-      <c r="I1029" s="4"/>
-      <c r="J1029" s="4"/>
+      <c r="B1029" s="21">
+        <v>0.9799</v>
+      </c>
+      <c r="C1029" s="21">
+        <v>0.9537</v>
+      </c>
+      <c r="D1029" s="21">
+        <v>0.9889</v>
+      </c>
+      <c r="E1029" s="21">
+        <v>0.9735</v>
+      </c>
+      <c r="F1029" s="21">
+        <v>0.971</v>
+      </c>
+      <c r="G1029" s="21">
+        <v>0.9983</v>
+      </c>
+      <c r="H1029" s="21">
+        <v>0.9956</v>
+      </c>
+      <c r="I1029" s="21">
+        <v>0.976</v>
+      </c>
+      <c r="J1029" s="21">
+        <v>0.9713</v>
+      </c>
     </row>
     <row r="1030" spans="1:10">
       <c r="A1030" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1030" s="4"/>
-      <c r="C1030" s="4"/>
-      <c r="D1030" s="4"/>
-      <c r="E1030" s="4"/>
-      <c r="F1030" s="4"/>
-      <c r="G1030" s="4"/>
-      <c r="H1030" s="4"/>
-      <c r="I1030" s="4"/>
-      <c r="J1030" s="4"/>
+      <c r="B1030" s="21">
+        <v>0.974</v>
+      </c>
+      <c r="C1030" s="21">
+        <v>0.9675</v>
+      </c>
+      <c r="D1030" s="21">
+        <v>0.9762</v>
+      </c>
+      <c r="E1030" s="21">
+        <v>0.9664</v>
+      </c>
+      <c r="F1030" s="21">
+        <v>0.9718</v>
+      </c>
+      <c r="G1030" s="21">
+        <v>0.9896</v>
+      </c>
+      <c r="H1030" s="21">
+        <v>0.9632</v>
+      </c>
+      <c r="I1030" s="21">
+        <v>0.9614</v>
+      </c>
+      <c r="J1030" s="21">
+        <v>0.9718</v>
+      </c>
     </row>
     <row r="1031" spans="1:10">
       <c r="A1031" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1031" s="4"/>
-      <c r="C1031" s="4"/>
-      <c r="D1031" s="4"/>
-      <c r="E1031" s="4"/>
-      <c r="F1031" s="4"/>
-      <c r="G1031" s="4"/>
-      <c r="H1031" s="4"/>
-      <c r="I1031" s="4"/>
-      <c r="J1031" s="4"/>
+      <c r="B1031" s="21">
+        <v>0.9704</v>
+      </c>
+      <c r="C1031" s="21">
+        <v>0.9356</v>
+      </c>
+      <c r="D1031" s="21">
+        <v>0.9825</v>
+      </c>
+      <c r="E1031" s="21">
+        <v>0.9612</v>
+      </c>
+      <c r="F1031" s="21">
+        <v>0.9587</v>
+      </c>
+      <c r="G1031" s="21">
+        <v>0.9965</v>
+      </c>
+      <c r="H1031" s="21">
+        <v>0.9903</v>
+      </c>
+      <c r="I1031" s="21">
+        <v>0.9641</v>
+      </c>
+      <c r="J1031" s="21">
+        <v>0.9591</v>
+      </c>
     </row>
     <row r="1032" spans="1:10">
       <c r="A1032" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1032" s="4"/>
-      <c r="C1032" s="4"/>
-      <c r="D1032" s="4"/>
-      <c r="E1032" s="4"/>
-      <c r="F1032" s="4"/>
-      <c r="G1032" s="4"/>
-      <c r="H1032" s="4"/>
-      <c r="I1032" s="4"/>
-      <c r="J1032" s="4"/>
+      <c r="B1032" s="21">
+        <v>0.9799</v>
+      </c>
+      <c r="C1032" s="21">
+        <v>0.9677</v>
+      </c>
+      <c r="D1032" s="21">
+        <v>0.9841</v>
+      </c>
+      <c r="E1032" s="21">
+        <v>0.9738</v>
+      </c>
+      <c r="F1032" s="21">
+        <v>0.9758</v>
+      </c>
+      <c r="G1032" s="21">
+        <v>0.9932</v>
+      </c>
+      <c r="H1032" s="21">
+        <v>0.9875</v>
+      </c>
+      <c r="I1032" s="21">
+        <v>0.972</v>
+      </c>
+      <c r="J1032" s="21">
+        <v>0.9759</v>
+      </c>
     </row>
     <row r="1033" spans="1:10">
       <c r="A1033" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1033" s="4"/>
-      <c r="C1033" s="4"/>
-      <c r="D1033" s="4"/>
-      <c r="E1033" s="4"/>
-      <c r="F1033" s="4"/>
-      <c r="G1033" s="4"/>
-      <c r="H1033" s="4"/>
-      <c r="I1033" s="4"/>
-      <c r="J1033" s="4"/>
+      <c r="B1033" s="21">
+        <v>0.974</v>
+      </c>
+      <c r="C1033" s="21">
+        <v>0.9539</v>
+      </c>
+      <c r="D1033" s="21">
+        <v>0.9809</v>
+      </c>
+      <c r="E1033" s="21">
+        <v>0.9661</v>
+      </c>
+      <c r="F1033" s="21">
+        <v>0.9673</v>
+      </c>
+      <c r="G1033" s="21">
+        <v>0.9939</v>
+      </c>
+      <c r="H1033" s="21">
+        <v>0.9867</v>
+      </c>
+      <c r="I1033" s="21">
+        <v>0.965</v>
+      </c>
+      <c r="J1033" s="21">
+        <v>0.9674</v>
+      </c>
     </row>
     <row r="1034" spans="1:10">
       <c r="A1034" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1034" s="4"/>
-      <c r="C1034" s="4"/>
-      <c r="D1034" s="4"/>
-      <c r="E1034" s="4"/>
-      <c r="F1034" s="4"/>
-      <c r="G1034" s="4"/>
-      <c r="H1034" s="4"/>
-      <c r="I1034" s="4"/>
-      <c r="J1034" s="4"/>
+      <c r="B1034" s="21">
+        <v>0.9728</v>
+      </c>
+      <c r="C1034" s="21">
+        <v>0.9448</v>
+      </c>
+      <c r="D1034" s="21">
+        <v>0.9825</v>
+      </c>
+      <c r="E1034" s="21">
+        <v>0.9643</v>
+      </c>
+      <c r="F1034" s="21">
+        <v>0.9634</v>
+      </c>
+      <c r="G1034" s="21">
+        <v>0.9919</v>
+      </c>
+      <c r="H1034" s="21">
+        <v>0.9829</v>
+      </c>
+      <c r="I1034" s="21">
+        <v>0.9654</v>
+      </c>
+      <c r="J1034" s="21">
+        <v>0.9637</v>
+      </c>
     </row>
     <row r="1035" spans="1:10">
       <c r="A1035" s="6"/>
@@ -26655,17 +27184,25 @@
         <v>28</v>
       </c>
       <c r="B1039" s="6"/>
-      <c r="C1039"/>
-      <c r="D1039"/>
-      <c r="E1039" s="8"/>
-      <c r="F1039" s="6"/>
-      <c r="G1039" s="10"/>
-      <c r="H1039" s="10"/>
+      <c r="E1039" s="8">
+        <v>0.983</v>
+      </c>
+      <c r="F1039" s="6">
+        <v>0.9835</v>
+      </c>
+      <c r="G1039" s="11">
+        <v>0.9995</v>
+      </c>
+      <c r="H1039" s="11">
+        <v>0.9987</v>
+      </c>
       <c r="I1039" s="6"/>
       <c r="J1039" s="6"/>
     </row>
     <row r="1042" spans="1:10">
-      <c r="A1042" s="20"/>
+      <c r="A1042" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="B1042" s="2" t="s">
         <v>1</v>
       </c>
@@ -26698,211 +27235,481 @@
       <c r="A1043" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1043" s="4"/>
-      <c r="C1043" s="4"/>
-      <c r="D1043" s="4"/>
-      <c r="E1043" s="4"/>
-      <c r="F1043" s="4"/>
-      <c r="G1043" s="4"/>
-      <c r="H1043" s="4"/>
-      <c r="I1043" s="4"/>
-      <c r="J1043" s="4"/>
+      <c r="B1043" s="21">
+        <v>0.7787</v>
+      </c>
+      <c r="C1043" s="21">
+        <v>0.6326</v>
+      </c>
+      <c r="D1043" s="21">
+        <v>0.8278</v>
+      </c>
+      <c r="E1043" s="21">
+        <v>0.7187</v>
+      </c>
+      <c r="F1043" s="21">
+        <v>0.723</v>
+      </c>
+      <c r="G1043" s="21">
+        <v>0.8619</v>
+      </c>
+      <c r="H1043" s="21">
+        <v>0.6478</v>
+      </c>
+      <c r="I1043" s="21">
+        <v>0.711</v>
+      </c>
+      <c r="J1043" s="21">
+        <v>0.7302</v>
+      </c>
     </row>
     <row r="1044" spans="1:10">
       <c r="A1044" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1044" s="4"/>
-      <c r="C1044" s="4"/>
-      <c r="D1044" s="4"/>
-      <c r="E1044" s="4"/>
-      <c r="F1044" s="4"/>
-      <c r="G1044" s="4"/>
-      <c r="H1044" s="4"/>
-      <c r="I1044" s="4"/>
-      <c r="J1044" s="4"/>
+      <c r="B1044" s="21">
+        <v>0.7941</v>
+      </c>
+      <c r="C1044" s="21">
+        <v>0.6461</v>
+      </c>
+      <c r="D1044" s="21">
+        <v>0.8436</v>
+      </c>
+      <c r="E1044" s="21">
+        <v>0.7356</v>
+      </c>
+      <c r="F1044" s="21">
+        <v>0.7375</v>
+      </c>
+      <c r="G1044" s="21">
+        <v>0.8612</v>
+      </c>
+      <c r="H1044" s="21">
+        <v>0.6412</v>
+      </c>
+      <c r="I1044" s="21">
+        <v>0.7296</v>
+      </c>
+      <c r="J1044" s="21">
+        <v>0.7448</v>
+      </c>
     </row>
     <row r="1045" spans="1:10">
       <c r="A1045" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1045" s="4"/>
-      <c r="C1045" s="4"/>
-      <c r="D1045" s="4"/>
-      <c r="E1045" s="4"/>
-      <c r="F1045" s="4"/>
-      <c r="G1045" s="4"/>
-      <c r="H1045" s="4"/>
-      <c r="I1045" s="4"/>
-      <c r="J1045" s="4"/>
+      <c r="B1045" s="21">
+        <v>0.7751</v>
+      </c>
+      <c r="C1045" s="21">
+        <v>0.7312</v>
+      </c>
+      <c r="D1045" s="21">
+        <v>0.7899</v>
+      </c>
+      <c r="E1045" s="21">
+        <v>0.731</v>
+      </c>
+      <c r="F1045" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="G1045" s="21">
+        <v>0.855</v>
+      </c>
+      <c r="H1045" s="21">
+        <v>0.6231</v>
+      </c>
+      <c r="I1045" s="21">
+        <v>0.7196</v>
+      </c>
+      <c r="J1045" s="21">
+        <v>0.7605</v>
+      </c>
     </row>
     <row r="1046" spans="1:10">
       <c r="A1046" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1046" s="4"/>
-      <c r="C1046" s="4"/>
-      <c r="D1046" s="4"/>
-      <c r="E1046" s="4"/>
-      <c r="F1046" s="4"/>
-      <c r="G1046" s="4"/>
-      <c r="H1046" s="4"/>
-      <c r="I1046" s="4"/>
-      <c r="J1046" s="4"/>
+      <c r="B1046" s="21">
+        <v>0.7598</v>
+      </c>
+      <c r="C1046" s="21">
+        <v>0.7357</v>
+      </c>
+      <c r="D1046" s="21">
+        <v>0.7677</v>
+      </c>
+      <c r="E1046" s="21">
+        <v>0.7163</v>
+      </c>
+      <c r="F1046" s="21">
+        <v>0.7501</v>
+      </c>
+      <c r="G1046" s="21">
+        <v>0.8188</v>
+      </c>
+      <c r="H1046" s="21">
+        <v>0.6048</v>
+      </c>
+      <c r="I1046" s="21">
+        <v>0.7072</v>
+      </c>
+      <c r="J1046" s="21">
+        <v>0.7517</v>
+      </c>
     </row>
     <row r="1047" spans="1:10">
       <c r="A1047" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1047" s="4"/>
-      <c r="C1047" s="4"/>
-      <c r="D1047" s="4"/>
-      <c r="E1047" s="4"/>
-      <c r="F1047" s="4"/>
-      <c r="G1047" s="4"/>
-      <c r="H1047" s="4"/>
-      <c r="I1047" s="4"/>
-      <c r="J1047" s="4"/>
+      <c r="B1047" s="21">
+        <v>0.716</v>
+      </c>
+      <c r="C1047" s="21">
+        <v>0.6272</v>
+      </c>
+      <c r="D1047" s="21">
+        <v>0.7455</v>
+      </c>
+      <c r="E1047" s="21">
+        <v>0.6604</v>
+      </c>
+      <c r="F1047" s="21">
+        <v>0.681</v>
+      </c>
+      <c r="G1047" s="21">
+        <v>0.7635</v>
+      </c>
+      <c r="H1047" s="21">
+        <v>0.5297</v>
+      </c>
+      <c r="I1047" s="21">
+        <v>0.6557</v>
+      </c>
+      <c r="J1047" s="21">
+        <v>0.6864</v>
+      </c>
     </row>
     <row r="1048" spans="1:10">
       <c r="A1048" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1048" s="4"/>
-      <c r="C1048" s="4"/>
-      <c r="D1048" s="4"/>
-      <c r="E1048" s="4"/>
-      <c r="F1048" s="4"/>
-      <c r="G1048" s="4"/>
-      <c r="H1048" s="4"/>
-      <c r="I1048" s="4"/>
-      <c r="J1048" s="4"/>
+      <c r="B1048" s="21">
+        <v>0.755</v>
+      </c>
+      <c r="C1048" s="21">
+        <v>0.8111</v>
+      </c>
+      <c r="D1048" s="21">
+        <v>0.7362</v>
+      </c>
+      <c r="E1048" s="21">
+        <v>0.7214</v>
+      </c>
+      <c r="F1048" s="21">
+        <v>0.7713</v>
+      </c>
+      <c r="G1048" s="21">
+        <v>0.8499</v>
+      </c>
+      <c r="H1048" s="21">
+        <v>0.5994</v>
+      </c>
+      <c r="I1048" s="21">
+        <v>0.7165</v>
+      </c>
+      <c r="J1048" s="21">
+        <v>0.7736</v>
+      </c>
     </row>
     <row r="1049" spans="1:10">
       <c r="A1049" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1049" s="4"/>
-      <c r="C1049" s="4"/>
-      <c r="D1049" s="4"/>
-      <c r="E1049" s="4"/>
-      <c r="F1049" s="4"/>
-      <c r="G1049" s="4"/>
-      <c r="H1049" s="4"/>
-      <c r="I1049" s="4"/>
-      <c r="J1049" s="4"/>
+      <c r="B1049" s="21">
+        <v>0.6698</v>
+      </c>
+      <c r="C1049" s="21">
+        <v>0.8911</v>
+      </c>
+      <c r="D1049" s="21">
+        <v>0.5955</v>
+      </c>
+      <c r="E1049" s="21">
+        <v>0.6525</v>
+      </c>
+      <c r="F1049" s="21">
+        <v>0.7271</v>
+      </c>
+      <c r="G1049" s="21">
+        <v>0.8255</v>
+      </c>
+      <c r="H1049" s="21">
+        <v>0.6063</v>
+      </c>
+      <c r="I1049" s="21">
+        <v>0.6854</v>
+      </c>
+      <c r="J1049" s="21">
+        <v>0.7433</v>
+      </c>
     </row>
     <row r="1050" spans="1:10">
       <c r="A1050" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1050" s="4"/>
-      <c r="C1050" s="4"/>
-      <c r="D1050" s="4"/>
-      <c r="E1050" s="4"/>
-      <c r="F1050" s="4"/>
-      <c r="G1050" s="4"/>
-      <c r="H1050" s="4"/>
-      <c r="I1050" s="4"/>
-      <c r="J1050" s="4"/>
+      <c r="B1050" s="21">
+        <v>0.7692</v>
+      </c>
+      <c r="C1050" s="21">
+        <v>0.6836</v>
+      </c>
+      <c r="D1050" s="21">
+        <v>0.7978</v>
+      </c>
+      <c r="E1050" s="21">
+        <v>0.7181</v>
+      </c>
+      <c r="F1050" s="21">
+        <v>0.7382</v>
+      </c>
+      <c r="G1050" s="21">
+        <v>0.8431</v>
+      </c>
+      <c r="H1050" s="21">
+        <v>0.6293</v>
+      </c>
+      <c r="I1050" s="21">
+        <v>0.7079</v>
+      </c>
+      <c r="J1050" s="21">
+        <v>0.7407</v>
+      </c>
     </row>
     <row r="1051" spans="1:10">
       <c r="A1051" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1051" s="4"/>
-      <c r="C1051" s="4"/>
-      <c r="D1051" s="4"/>
-      <c r="E1051" s="4"/>
-      <c r="F1051" s="4"/>
-      <c r="G1051" s="4"/>
-      <c r="H1051" s="4"/>
-      <c r="I1051" s="4"/>
-      <c r="J1051" s="4"/>
+      <c r="B1051" s="21">
+        <v>0.7846</v>
+      </c>
+      <c r="C1051" s="21">
+        <v>0.5848</v>
+      </c>
+      <c r="D1051" s="21">
+        <v>0.8514</v>
+      </c>
+      <c r="E1051" s="21">
+        <v>0.7167</v>
+      </c>
+      <c r="F1051" s="21">
+        <v>0.7055</v>
+      </c>
+      <c r="G1051" s="21">
+        <v>0.8486</v>
+      </c>
+      <c r="H1051" s="21">
+        <v>0.6438</v>
+      </c>
+      <c r="I1051" s="21">
+        <v>0.7168</v>
+      </c>
+      <c r="J1051" s="21">
+        <v>0.7181</v>
+      </c>
     </row>
     <row r="1052" spans="1:10">
       <c r="A1052" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1052" s="4"/>
-      <c r="C1052" s="4"/>
-      <c r="D1052" s="4"/>
-      <c r="E1052" s="4"/>
-      <c r="F1052" s="4"/>
-      <c r="G1052" s="4"/>
-      <c r="H1052" s="4"/>
-      <c r="I1052" s="4"/>
-      <c r="J1052" s="4"/>
+      <c r="B1052" s="21">
+        <v>0.7858</v>
+      </c>
+      <c r="C1052" s="21">
+        <v>0.3302</v>
+      </c>
+      <c r="D1052" s="21">
+        <v>0.9384</v>
+      </c>
+      <c r="E1052" s="21">
+        <v>0.6513</v>
+      </c>
+      <c r="F1052" s="21">
+        <v>0.5554</v>
+      </c>
+      <c r="G1052" s="21">
+        <v>0.8584</v>
+      </c>
+      <c r="H1052" s="21">
+        <v>0.6512</v>
+      </c>
+      <c r="I1052" s="21">
+        <v>0.7278</v>
+      </c>
+      <c r="J1052" s="21">
+        <v>0.6343</v>
+      </c>
     </row>
     <row r="1053" spans="1:10">
       <c r="A1053" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1053" s="4"/>
-      <c r="C1053" s="4"/>
-      <c r="D1053" s="4"/>
-      <c r="E1053" s="4"/>
-      <c r="F1053" s="4"/>
-      <c r="G1053" s="4"/>
-      <c r="H1053" s="4"/>
-      <c r="I1053" s="4"/>
-      <c r="J1053" s="4"/>
+      <c r="B1053" s="21">
+        <v>0.7787</v>
+      </c>
+      <c r="C1053" s="21">
+        <v>0.6604</v>
+      </c>
+      <c r="D1053" s="21">
+        <v>0.8183</v>
+      </c>
+      <c r="E1053" s="21">
+        <v>0.7241</v>
+      </c>
+      <c r="F1053" s="21">
+        <v>0.7347</v>
+      </c>
+      <c r="G1053" s="21">
+        <v>0.8358</v>
+      </c>
+      <c r="H1053" s="21">
+        <v>0.6107</v>
+      </c>
+      <c r="I1053" s="21">
+        <v>0.7159</v>
+      </c>
+      <c r="J1053" s="21">
+        <v>0.7393</v>
+      </c>
     </row>
     <row r="1054" spans="1:10">
       <c r="A1054" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1054" s="4"/>
-      <c r="C1054" s="4"/>
-      <c r="D1054" s="4"/>
-      <c r="E1054" s="4"/>
-      <c r="F1054" s="4"/>
-      <c r="G1054" s="4"/>
-      <c r="H1054" s="4"/>
-      <c r="I1054" s="4"/>
-      <c r="J1054" s="4"/>
+      <c r="B1054" s="21">
+        <v>0.7822</v>
+      </c>
+      <c r="C1054" s="21">
+        <v>0.4434</v>
+      </c>
+      <c r="D1054" s="21">
+        <v>0.8957</v>
+      </c>
+      <c r="E1054" s="21">
+        <v>0.6825</v>
+      </c>
+      <c r="F1054" s="21">
+        <v>0.6293</v>
+      </c>
+      <c r="G1054" s="21">
+        <v>0.8555</v>
+      </c>
+      <c r="H1054" s="21">
+        <v>0.6319</v>
+      </c>
+      <c r="I1054" s="21">
+        <v>0.7088</v>
+      </c>
+      <c r="J1054" s="21">
+        <v>0.6696</v>
+      </c>
     </row>
     <row r="1055" spans="1:10">
       <c r="A1055" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1055" s="4"/>
-      <c r="C1055" s="4"/>
-      <c r="D1055" s="4"/>
-      <c r="E1055" s="4"/>
-      <c r="F1055" s="4"/>
-      <c r="G1055" s="4"/>
-      <c r="H1055" s="4"/>
-      <c r="I1055" s="4"/>
-      <c r="J1055" s="4"/>
+      <c r="B1055" s="21">
+        <v>0.7834</v>
+      </c>
+      <c r="C1055" s="21">
+        <v>0.7265</v>
+      </c>
+      <c r="D1055" s="21">
+        <v>0.8024</v>
+      </c>
+      <c r="E1055" s="21">
+        <v>0.7388</v>
+      </c>
+      <c r="F1055" s="21">
+        <v>0.7632</v>
+      </c>
+      <c r="G1055" s="21">
+        <v>0.8493</v>
+      </c>
+      <c r="H1055" s="21">
+        <v>0.6642</v>
+      </c>
+      <c r="I1055" s="21">
+        <v>0.7288</v>
+      </c>
+      <c r="J1055" s="21">
+        <v>0.7644</v>
+      </c>
     </row>
     <row r="1056" spans="1:10">
       <c r="A1056" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1056" s="4"/>
-      <c r="C1056" s="4"/>
-      <c r="D1056" s="4"/>
-      <c r="E1056" s="4"/>
-      <c r="F1056" s="4"/>
-      <c r="G1056" s="4"/>
-      <c r="H1056" s="4"/>
-      <c r="I1056" s="4"/>
-      <c r="J1056" s="4"/>
+      <c r="B1056" s="21">
+        <v>0.774</v>
+      </c>
+      <c r="C1056" s="21">
+        <v>0.505</v>
+      </c>
+      <c r="D1056" s="21">
+        <v>0.8641</v>
+      </c>
+      <c r="E1056" s="21">
+        <v>0.6878</v>
+      </c>
+      <c r="F1056" s="21">
+        <v>0.6566</v>
+      </c>
+      <c r="G1056" s="21">
+        <v>0.8597</v>
+      </c>
+      <c r="H1056" s="21">
+        <v>0.6356</v>
+      </c>
+      <c r="I1056" s="21">
+        <v>0.696</v>
+      </c>
+      <c r="J1056" s="21">
+        <v>0.6846</v>
+      </c>
     </row>
     <row r="1057" spans="1:10">
       <c r="A1057" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1057" s="4"/>
-      <c r="C1057" s="4"/>
-      <c r="D1057" s="4"/>
-      <c r="E1057" s="4"/>
-      <c r="F1057" s="4"/>
-      <c r="G1057" s="4"/>
-      <c r="H1057" s="4"/>
-      <c r="I1057" s="4"/>
-      <c r="J1057" s="4"/>
+      <c r="B1057" s="21">
+        <v>0.7799</v>
+      </c>
+      <c r="C1057" s="21">
+        <v>0.5097</v>
+      </c>
+      <c r="D1057" s="21">
+        <v>0.8704</v>
+      </c>
+      <c r="E1057" s="21">
+        <v>0.6963</v>
+      </c>
+      <c r="F1057" s="21">
+        <v>0.6651</v>
+      </c>
+      <c r="G1057" s="21">
+        <v>0.8237</v>
+      </c>
+      <c r="H1057" s="21">
+        <v>0.6152</v>
+      </c>
+      <c r="I1057" s="21">
+        <v>0.7055</v>
+      </c>
+      <c r="J1057" s="21">
+        <v>0.6901</v>
+      </c>
     </row>
     <row r="1058" spans="1:10">
       <c r="A1058" s="6"/>
@@ -26961,17 +27768,25 @@
         <v>28</v>
       </c>
       <c r="B1062" s="6"/>
-      <c r="C1062"/>
-      <c r="D1062"/>
-      <c r="E1062" s="8"/>
-      <c r="F1062" s="6"/>
-      <c r="G1062" s="10"/>
-      <c r="H1062" s="10"/>
+      <c r="E1062" s="8">
+        <v>0.6459</v>
+      </c>
+      <c r="F1062" s="6">
+        <v>0.5361</v>
+      </c>
+      <c r="G1062" s="11">
+        <v>0.8581</v>
+      </c>
+      <c r="H1062" s="11">
+        <v>0.6534</v>
+      </c>
       <c r="I1062" s="6"/>
       <c r="J1062" s="6"/>
     </row>
     <row r="1065" spans="1:10">
-      <c r="A1065" s="20"/>
+      <c r="A1065" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="B1065" s="2" t="s">
         <v>1</v>
       </c>
@@ -27004,211 +27819,481 @@
       <c r="A1066" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1066" s="4"/>
-      <c r="C1066" s="4"/>
-      <c r="D1066" s="4"/>
-      <c r="E1066" s="4"/>
-      <c r="F1066" s="4"/>
-      <c r="G1066" s="4"/>
-      <c r="H1066" s="4"/>
-      <c r="I1066" s="4"/>
-      <c r="J1066" s="4"/>
+      <c r="B1066" s="21">
+        <v>0.9574</v>
+      </c>
+      <c r="C1066" s="21">
+        <v>0.8949</v>
+      </c>
+      <c r="D1066" s="21">
+        <v>0.9768</v>
+      </c>
+      <c r="E1066" s="21">
+        <v>0.9402</v>
+      </c>
+      <c r="F1066" s="21">
+        <v>0.9346</v>
+      </c>
+      <c r="G1066" s="21">
+        <v>0.9921</v>
+      </c>
+      <c r="H1066" s="21">
+        <v>0.9751</v>
+      </c>
+      <c r="I1066" s="21">
+        <v>0.9457</v>
+      </c>
+      <c r="J1066" s="21">
+        <v>0.9358</v>
+      </c>
     </row>
     <row r="1067" spans="1:10">
       <c r="A1067" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1067" s="4"/>
-      <c r="C1067" s="4"/>
-      <c r="D1067" s="4"/>
-      <c r="E1067" s="4"/>
-      <c r="F1067" s="4"/>
-      <c r="G1067" s="4"/>
-      <c r="H1067" s="4"/>
-      <c r="I1067" s="4"/>
-      <c r="J1067" s="4"/>
+      <c r="B1067" s="21">
+        <v>0.9527</v>
+      </c>
+      <c r="C1067" s="21">
+        <v>0.9349</v>
+      </c>
+      <c r="D1067" s="21">
+        <v>0.9582</v>
+      </c>
+      <c r="E1067" s="21">
+        <v>0.936</v>
+      </c>
+      <c r="F1067" s="21">
+        <v>0.9464</v>
+      </c>
+      <c r="G1067" s="21">
+        <v>0.9898</v>
+      </c>
+      <c r="H1067" s="21">
+        <v>0.9655</v>
+      </c>
+      <c r="I1067" s="21">
+        <v>0.9268</v>
+      </c>
+      <c r="J1067" s="21">
+        <v>0.9465</v>
+      </c>
     </row>
     <row r="1068" spans="1:10">
       <c r="A1068" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1068" s="4"/>
-      <c r="C1068" s="4"/>
-      <c r="D1068" s="4"/>
-      <c r="E1068" s="4"/>
-      <c r="F1068" s="4"/>
-      <c r="G1068" s="4"/>
-      <c r="H1068" s="4"/>
-      <c r="I1068" s="4"/>
-      <c r="J1068" s="4"/>
+      <c r="B1068" s="21">
+        <v>0.9479</v>
+      </c>
+      <c r="C1068" s="21">
+        <v>0.9599</v>
+      </c>
+      <c r="D1068" s="21">
+        <v>0.9442</v>
+      </c>
+      <c r="E1068" s="21">
+        <v>0.931</v>
+      </c>
+      <c r="F1068" s="21">
+        <v>0.9519</v>
+      </c>
+      <c r="G1068" s="21">
+        <v>0.9889</v>
+      </c>
+      <c r="H1068" s="21">
+        <v>0.9606</v>
+      </c>
+      <c r="I1068" s="21">
+        <v>0.9146</v>
+      </c>
+      <c r="J1068" s="21">
+        <v>0.9521</v>
+      </c>
     </row>
     <row r="1069" spans="1:10">
       <c r="A1069" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1069" s="4"/>
-      <c r="C1069" s="4"/>
-      <c r="D1069" s="4"/>
-      <c r="E1069" s="4"/>
-      <c r="F1069" s="4"/>
-      <c r="G1069" s="4"/>
-      <c r="H1069" s="4"/>
-      <c r="I1069" s="4"/>
-      <c r="J1069" s="4"/>
+      <c r="B1069" s="21">
+        <v>0.9337</v>
+      </c>
+      <c r="C1069" s="21">
+        <v>0.975</v>
+      </c>
+      <c r="D1069" s="21">
+        <v>0.921</v>
+      </c>
+      <c r="E1069" s="21">
+        <v>0.9147</v>
+      </c>
+      <c r="F1069" s="21">
+        <v>0.9475</v>
+      </c>
+      <c r="G1069" s="21">
+        <v>0.9879</v>
+      </c>
+      <c r="H1069" s="21">
+        <v>0.9625</v>
+      </c>
+      <c r="I1069" s="21">
+        <v>0.8927</v>
+      </c>
+      <c r="J1069" s="21">
+        <v>0.948</v>
+      </c>
     </row>
     <row r="1070" spans="1:10">
       <c r="A1070" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1070" s="4"/>
-      <c r="C1070" s="4"/>
-      <c r="D1070" s="4"/>
-      <c r="E1070" s="4"/>
-      <c r="F1070" s="4"/>
-      <c r="G1070" s="4"/>
-      <c r="H1070" s="4"/>
-      <c r="I1070" s="4"/>
-      <c r="J1070" s="4"/>
+      <c r="B1070" s="21">
+        <v>0.9089</v>
+      </c>
+      <c r="C1070" s="21">
+        <v>0.8041</v>
+      </c>
+      <c r="D1070" s="21">
+        <v>0.9411</v>
+      </c>
+      <c r="E1070" s="21">
+        <v>0.8743</v>
+      </c>
+      <c r="F1070" s="21">
+        <v>0.8688</v>
+      </c>
+      <c r="G1070" s="21">
+        <v>0.962</v>
+      </c>
+      <c r="H1070" s="21">
+        <v>0.8857</v>
+      </c>
+      <c r="I1070" s="21">
+        <v>0.882</v>
+      </c>
+      <c r="J1070" s="21">
+        <v>0.8726</v>
+      </c>
     </row>
     <row r="1071" spans="1:10">
       <c r="A1071" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1071" s="4"/>
-      <c r="C1071" s="4"/>
-      <c r="D1071" s="4"/>
-      <c r="E1071" s="4"/>
-      <c r="F1071" s="4"/>
-      <c r="G1071" s="4"/>
-      <c r="H1071" s="4"/>
-      <c r="I1071" s="4"/>
-      <c r="J1071" s="4"/>
+      <c r="B1071" s="21">
+        <v>0.9396</v>
+      </c>
+      <c r="C1071" s="21">
+        <v>1</v>
+      </c>
+      <c r="D1071" s="21">
+        <v>0.921</v>
+      </c>
+      <c r="E1071" s="21">
+        <v>0.9231</v>
+      </c>
+      <c r="F1071" s="21">
+        <v>0.9596</v>
+      </c>
+      <c r="G1071" s="21">
+        <v>0.9896</v>
+      </c>
+      <c r="H1071" s="21">
+        <v>0.9598</v>
+      </c>
+      <c r="I1071" s="21">
+        <v>0.8995</v>
+      </c>
+      <c r="J1071" s="21">
+        <v>0.9605</v>
+      </c>
     </row>
     <row r="1072" spans="1:10">
       <c r="A1072" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1072" s="4"/>
-      <c r="C1072" s="4"/>
-      <c r="D1072" s="4"/>
-      <c r="E1072" s="4"/>
-      <c r="F1072" s="4"/>
-      <c r="G1072" s="4"/>
-      <c r="H1072" s="4"/>
-      <c r="I1072" s="4"/>
-      <c r="J1072" s="4"/>
+      <c r="B1072" s="21">
+        <v>0.8663</v>
+      </c>
+      <c r="C1072" s="21">
+        <v>0.995</v>
+      </c>
+      <c r="D1072" s="21">
+        <v>0.8265</v>
+      </c>
+      <c r="E1072" s="21">
+        <v>0.8462</v>
+      </c>
+      <c r="F1072" s="21">
+        <v>0.904</v>
+      </c>
+      <c r="G1072" s="21">
+        <v>0.9842</v>
+      </c>
+      <c r="H1072" s="21">
+        <v>0.9507</v>
+      </c>
+      <c r="I1072" s="21">
+        <v>0.8344</v>
+      </c>
+      <c r="J1072" s="21">
+        <v>0.9108</v>
+      </c>
     </row>
     <row r="1073" spans="1:10">
       <c r="A1073" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1073" s="4"/>
-      <c r="C1073" s="4"/>
-      <c r="D1073" s="4"/>
-      <c r="E1073" s="4"/>
-      <c r="F1073" s="4"/>
-      <c r="G1073" s="4"/>
-      <c r="H1073" s="4"/>
-      <c r="I1073" s="4"/>
-      <c r="J1073" s="4"/>
+      <c r="B1073" s="21">
+        <v>0.9609</v>
+      </c>
+      <c r="C1073" s="21">
+        <v>0.9597</v>
+      </c>
+      <c r="D1073" s="21">
+        <v>0.9613</v>
+      </c>
+      <c r="E1073" s="21">
+        <v>0.9478</v>
+      </c>
+      <c r="F1073" s="21">
+        <v>0.9602</v>
+      </c>
+      <c r="G1073" s="21">
+        <v>0.9805</v>
+      </c>
+      <c r="H1073" s="21">
+        <v>0.955</v>
+      </c>
+      <c r="I1073" s="21">
+        <v>0.9385</v>
+      </c>
+      <c r="J1073" s="21">
+        <v>0.9605</v>
+      </c>
     </row>
     <row r="1074" spans="1:10">
       <c r="A1074" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1074" s="4"/>
-      <c r="C1074" s="4"/>
-      <c r="D1074" s="4"/>
-      <c r="E1074" s="4"/>
-      <c r="F1074" s="4"/>
-      <c r="G1074" s="4"/>
-      <c r="H1074" s="4"/>
-      <c r="I1074" s="4"/>
-      <c r="J1074" s="4"/>
+      <c r="B1074" s="21">
+        <v>0.9609</v>
+      </c>
+      <c r="C1074" s="21">
+        <v>0.9196</v>
+      </c>
+      <c r="D1074" s="21">
+        <v>0.9737</v>
+      </c>
+      <c r="E1074" s="21">
+        <v>0.9462</v>
+      </c>
+      <c r="F1074" s="21">
+        <v>0.9459</v>
+      </c>
+      <c r="G1074" s="21">
+        <v>0.9824</v>
+      </c>
+      <c r="H1074" s="21">
+        <v>0.9575</v>
+      </c>
+      <c r="I1074" s="21">
+        <v>0.9476</v>
+      </c>
+      <c r="J1074" s="21">
+        <v>0.9466</v>
+      </c>
     </row>
     <row r="1075" spans="1:10">
       <c r="A1075" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1075" s="4"/>
-      <c r="C1075" s="4"/>
-      <c r="D1075" s="4"/>
-      <c r="E1075" s="4"/>
-      <c r="F1075" s="4"/>
-      <c r="G1075" s="4"/>
-      <c r="H1075" s="4"/>
-      <c r="I1075" s="4"/>
-      <c r="J1075" s="4"/>
+      <c r="B1075" s="21">
+        <v>0.9491</v>
+      </c>
+      <c r="C1075" s="21">
+        <v>0.8747</v>
+      </c>
+      <c r="D1075" s="21">
+        <v>0.9721</v>
+      </c>
+      <c r="E1075" s="21">
+        <v>0.9286</v>
+      </c>
+      <c r="F1075" s="21">
+        <v>0.9214</v>
+      </c>
+      <c r="G1075" s="21">
+        <v>0.991</v>
+      </c>
+      <c r="H1075" s="21">
+        <v>0.9718</v>
+      </c>
+      <c r="I1075" s="21">
+        <v>0.9372</v>
+      </c>
+      <c r="J1075" s="21">
+        <v>0.9234</v>
+      </c>
     </row>
     <row r="1076" spans="1:10">
       <c r="A1076" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1076" s="4"/>
-      <c r="C1076" s="4"/>
-      <c r="D1076" s="4"/>
-      <c r="E1076" s="4"/>
-      <c r="F1076" s="4"/>
-      <c r="G1076" s="4"/>
-      <c r="H1076" s="4"/>
-      <c r="I1076" s="4"/>
-      <c r="J1076" s="4"/>
+      <c r="B1076" s="21">
+        <v>0.955</v>
+      </c>
+      <c r="C1076" s="21">
+        <v>0.9146</v>
+      </c>
+      <c r="D1076" s="21">
+        <v>0.9675</v>
+      </c>
+      <c r="E1076" s="21">
+        <v>0.9384</v>
+      </c>
+      <c r="F1076" s="21">
+        <v>0.9402</v>
+      </c>
+      <c r="G1076" s="21">
+        <v>0.9827</v>
+      </c>
+      <c r="H1076" s="21">
+        <v>0.9659</v>
+      </c>
+      <c r="I1076" s="21">
+        <v>0.9384</v>
+      </c>
+      <c r="J1076" s="21">
+        <v>0.941</v>
+      </c>
     </row>
     <row r="1077" spans="1:10">
       <c r="A1077" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1077" s="4"/>
-      <c r="C1077" s="4"/>
-      <c r="D1077" s="4"/>
-      <c r="E1077" s="4"/>
-      <c r="F1077" s="4"/>
-      <c r="G1077" s="4"/>
-      <c r="H1077" s="4"/>
-      <c r="I1077" s="4"/>
-      <c r="J1077" s="4"/>
+      <c r="B1077" s="21">
+        <v>0.9491</v>
+      </c>
+      <c r="C1077" s="21">
+        <v>0.8747</v>
+      </c>
+      <c r="D1077" s="21">
+        <v>0.9721</v>
+      </c>
+      <c r="E1077" s="21">
+        <v>0.9284</v>
+      </c>
+      <c r="F1077" s="21">
+        <v>0.9219</v>
+      </c>
+      <c r="G1077" s="21">
+        <v>0.9907</v>
+      </c>
+      <c r="H1077" s="21">
+        <v>0.9692</v>
+      </c>
+      <c r="I1077" s="21">
+        <v>0.9344</v>
+      </c>
+      <c r="J1077" s="21">
+        <v>0.9234</v>
+      </c>
     </row>
     <row r="1078" spans="1:10">
       <c r="A1078" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1078" s="4"/>
-      <c r="C1078" s="4"/>
-      <c r="D1078" s="4"/>
-      <c r="E1078" s="4"/>
-      <c r="F1078" s="4"/>
-      <c r="G1078" s="4"/>
-      <c r="H1078" s="4"/>
-      <c r="I1078" s="4"/>
-      <c r="J1078" s="4"/>
+      <c r="B1078" s="21">
+        <v>0.9574</v>
+      </c>
+      <c r="C1078" s="21">
+        <v>0.9399</v>
+      </c>
+      <c r="D1078" s="21">
+        <v>0.9628</v>
+      </c>
+      <c r="E1078" s="21">
+        <v>0.9422</v>
+      </c>
+      <c r="F1078" s="21">
+        <v>0.9507</v>
+      </c>
+      <c r="G1078" s="21">
+        <v>0.9836</v>
+      </c>
+      <c r="H1078" s="21">
+        <v>0.971</v>
+      </c>
+      <c r="I1078" s="21">
+        <v>0.9359</v>
+      </c>
+      <c r="J1078" s="21">
+        <v>0.9513</v>
+      </c>
     </row>
     <row r="1079" spans="1:10">
       <c r="A1079" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1079" s="4"/>
-      <c r="C1079" s="4"/>
-      <c r="D1079" s="4"/>
-      <c r="E1079" s="4"/>
-      <c r="F1079" s="4"/>
-      <c r="G1079" s="4"/>
-      <c r="H1079" s="4"/>
-      <c r="I1079" s="4"/>
-      <c r="J1079" s="4"/>
+      <c r="B1079" s="21">
+        <v>0.9444</v>
+      </c>
+      <c r="C1079" s="21">
+        <v>0.8596</v>
+      </c>
+      <c r="D1079" s="21">
+        <v>0.9706</v>
+      </c>
+      <c r="E1079" s="21">
+        <v>0.9215</v>
+      </c>
+      <c r="F1079" s="21">
+        <v>0.9132</v>
+      </c>
+      <c r="G1079" s="21">
+        <v>0.9893</v>
+      </c>
+      <c r="H1079" s="21">
+        <v>0.9605</v>
+      </c>
+      <c r="I1079" s="21">
+        <v>0.929</v>
+      </c>
+      <c r="J1079" s="21">
+        <v>0.9151</v>
+      </c>
     </row>
     <row r="1080" spans="1:10">
       <c r="A1080" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1080" s="4"/>
-      <c r="C1080" s="4"/>
-      <c r="D1080" s="4"/>
-      <c r="E1080" s="4"/>
-      <c r="F1080" s="4"/>
-      <c r="G1080" s="4"/>
-      <c r="H1080" s="4"/>
-      <c r="I1080" s="4"/>
-      <c r="J1080" s="4"/>
+      <c r="B1080" s="21">
+        <v>0.9657</v>
+      </c>
+      <c r="C1080" s="21">
+        <v>0.9399</v>
+      </c>
+      <c r="D1080" s="21">
+        <v>0.9737</v>
+      </c>
+      <c r="E1080" s="21">
+        <v>0.9527</v>
+      </c>
+      <c r="F1080" s="21">
+        <v>0.9563</v>
+      </c>
+      <c r="G1080" s="21">
+        <v>0.982</v>
+      </c>
+      <c r="H1080" s="21">
+        <v>0.9596</v>
+      </c>
+      <c r="I1080" s="21">
+        <v>0.9497</v>
+      </c>
+      <c r="J1080" s="21">
+        <v>0.9568</v>
+      </c>
     </row>
     <row r="1081" spans="1:10">
       <c r="A1081" s="6"/>
@@ -27267,12 +28352,18 @@
         <v>28</v>
       </c>
       <c r="B1085" s="6"/>
-      <c r="C1085"/>
-      <c r="D1085"/>
-      <c r="E1085" s="8"/>
-      <c r="F1085" s="6"/>
-      <c r="G1085" s="10"/>
-      <c r="H1085" s="10"/>
+      <c r="E1085" s="8">
+        <v>0.9552</v>
+      </c>
+      <c r="F1085" s="6">
+        <v>0.9642</v>
+      </c>
+      <c r="G1085" s="11">
+        <v>0.9966</v>
+      </c>
+      <c r="H1085" s="11">
+        <v>0.9898</v>
+      </c>
       <c r="I1085" s="6"/>
       <c r="J1085" s="6"/>
     </row>
@@ -27292,7 +28383,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -27309,7 +28400,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
